--- a/ml.xlsx
+++ b/ml.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5164,6 +5164,457 @@
         </is>
       </c>
     </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oakleigh Cannons </t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Port Melbourne Sharks</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D116" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E116" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dandenong City SC </t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Green Gully Cavaliers</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Monaro Panthers FC </t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Canberra Olympic</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D118" t="n">
+        <v>3</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.9500000000000002</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Strogino Moscow </t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Baltika Kaliningrad</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D119" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daejeon Korail FC </t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gimhae FC</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yanbian Longding </t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chongqing Tonglianglong FC</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D121" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.3499999999999996</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Foshan Nanshi FC </t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dalian Young Boy FC</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E122" t="n">
+        <v>6.27</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jiangxi Beidamen </t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Yunnan Yukun</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E123" t="n">
+        <v>9.24</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phu Tho FC </t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Phu Dong FC</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salisbury Inter </t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Adelaide City</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Box Hill United </t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alamein FC</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/ml.xlsx
+++ b/ml.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K126"/>
+  <dimension ref="A1:K157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -5119,7 +5119,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -5242,7 +5242,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -5324,117 +5324,117 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Daejeon Korail FC </t>
+          <t xml:space="preserve">Yanbian Longding </t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gimhae FC</t>
+          <t xml:space="preserve"> Chongqing Tonglianglong FC</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="D120" t="n">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="E120" t="n">
-        <v>0.8500000000000001</v>
+        <v>0.3499999999999996</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120" t="n">
         <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yanbian Longding </t>
+          <t xml:space="preserve">Foshan Nanshi FC </t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chongqing Tonglianglong FC</t>
+          <t xml:space="preserve"> Dalian Young Boy FC</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>2.45</v>
+        <v>7.7</v>
       </c>
       <c r="D121" t="n">
-        <v>2.8</v>
+        <v>1.43</v>
       </c>
       <c r="E121" t="n">
-        <v>0.3499999999999996</v>
+        <v>6.27</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H121" t="n">
         <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
         <v>0</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Foshan Nanshi FC </t>
+          <t xml:space="preserve">Phu Tho FC </t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dalian Young Boy FC</t>
+          <t xml:space="preserve"> Phu Dong FC</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>7.7</v>
+        <v>3.5</v>
       </c>
       <c r="D122" t="n">
-        <v>1.43</v>
+        <v>1.98</v>
       </c>
       <c r="E122" t="n">
-        <v>6.27</v>
+        <v>1.52</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122" t="n">
         <v>1</v>
@@ -5447,32 +5447,32 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jiangxi Beidamen </t>
+          <t xml:space="preserve">Salisbury Inter </t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yunnan Yukun</t>
+          <t xml:space="preserve"> Adelaide City</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>10.5</v>
+        <v>2.55</v>
       </c>
       <c r="D123" t="n">
-        <v>1.26</v>
+        <v>2.3</v>
       </c>
       <c r="E123" t="n">
-        <v>9.24</v>
+        <v>0.25</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -5484,39 +5484,39 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phu Tho FC </t>
+          <t xml:space="preserve">Box Hill United </t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Phu Dong FC</t>
+          <t xml:space="preserve"> Alamein FC</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>3.5</v>
+        <v>2.35</v>
       </c>
       <c r="D124" t="n">
-        <v>1.98</v>
+        <v>2.5</v>
       </c>
       <c r="E124" t="n">
-        <v>1.52</v>
+        <v>0.1499999999999999</v>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
         <v>1</v>
@@ -5529,32 +5529,32 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Salisbury Inter </t>
+          <t xml:space="preserve">Hungary </t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adelaide City</t>
+          <t xml:space="preserve"> Azerbaijan</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2.55</v>
+        <v>1.09</v>
       </c>
       <c r="D125" t="n">
-        <v>2.3</v>
+        <v>13</v>
       </c>
       <c r="E125" t="n">
-        <v>0.25</v>
+        <v>11.91</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
         <v>0</v>
@@ -5563,53 +5563,1324 @@
         <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Box Hill United </t>
+          <t xml:space="preserve">Norway </t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alamein FC</t>
+          <t xml:space="preserve"> Finland</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>2.35</v>
+        <v>1.49</v>
       </c>
       <c r="D126" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E126" t="n">
-        <v>0.1499999999999999</v>
+        <v>3.51</v>
       </c>
       <c r="F126" t="n">
         <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126" t="n">
         <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
       </c>
       <c r="K126" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MKS Cracovia Krakow </t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LKS Lodz</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D127" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="E127" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Nomme United </t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tartu JK Tammeka</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Vlasim </t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Viktoria Zizkov</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D129" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deportes Limache </t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Curico Unido</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D130" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Boston River </t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Defensor Sporting</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olympique Club of Khouribga </t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Union Touarga</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Strongest </t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> San Antonio Bulo Bulo</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="D133" t="n">
+        <v>11</v>
+      </c>
+      <c r="E133" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SC Internacional RS </t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Santos FC SP</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D134" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Central Coast Mariners </t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wellington Phoenix FC</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D135" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NWS Spirit </t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> St George Saints FC</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D136" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelaide Comets FC </t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Adelaide Croatia Raiders SC</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D137" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">White City FK Beograd </t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Para Hills Knights SC</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="D138" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gyeongju FC </t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Yangpyeong FC</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="D139" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="E139" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heidelberg United FC </t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Calder United SC</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D140" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crystal Palace </t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Man City</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E141" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Norwich </t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ipswich Town</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D142" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamburg </t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1 FC Kaiserslautern</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D143" t="n">
+        <v>4</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nuremberg </t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Holstein Kiel</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SV 07 Elversberg </t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. FC Magdeburg</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rijnsburgse Boys </t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VV Katwijk</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="D146" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.8000000000000003</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kolding IF </t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Fredericia</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D147" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oldham Athletic </t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rochdale AFC</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D148" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E148" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ostersunds FK </t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Trelleborgs FF</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D149" t="n">
+        <v>4</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inter Milano </t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Frosinone Calcio</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="D150" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="E150" t="n">
+        <v>7.040000000000001</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nanjing City </t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Heilongjiang Ice City</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D151" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="E151" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roma </t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lazio</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D152" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E152" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atletico Petroleos de Luanda </t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TP Mazembe</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D153" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E153" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mjallby AIF </t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IFK Norrkoping FK</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D154" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bodoe/Glimt </t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Viking FK</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="D155" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E155" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Winterthur </t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Lugano</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>3</v>
+      </c>
+      <c r="D156" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Rouen </t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LB Chateauroux</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D157" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
+      <c r="K157" t="inlineStr">
         <is>
           <t>pending</t>
         </is>

--- a/ml.xlsx
+++ b/ml.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K157"/>
+  <dimension ref="A1:K181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6677,7 +6677,7 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -6718,7 +6718,7 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -6759,7 +6759,7 @@
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -6800,7 +6800,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -6881,6 +6881,990 @@
         <v>1</v>
       </c>
       <c r="K157" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Empoli </t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Torino</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="D158" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E158" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PSG </t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Clermont Foot 63</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D159" t="n">
+        <v>15.22</v>
+      </c>
+      <c r="E159" t="n">
+        <v>14.01</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Twente Enschede </t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fortuna Sittard</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D160" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E160" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karlsruher SC </t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC St. Pauli</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="D161" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estudiantes de Merida </t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Zamora FC</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D162" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.1999999999999997</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Royal Antwerp FC </t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KRC Genk</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D163" t="n">
+        <v>3</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Servette Geneva </t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Zurich</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D164" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E164" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Juventud Unida Universitario San Luis </t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Deportivo Camioneros</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D165" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E165" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Sion </t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Vaduz</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D166" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E166" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AL Ettifaq FC </t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AL Riyadh</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="D167" t="n">
+        <v>8</v>
+      </c>
+      <c r="E167" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AL Tai </t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AL Shabab FC (KSA)</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E168" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>1</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club Atletico Los Andes </t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSD Flandria</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D169" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Excursionistas </t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Club Atletico Acassuso</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D170" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Truro City </t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Aveley FC</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="E171" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Defensores Unidos </t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA Brown de Adrogue</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D172" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">San Telmo </t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA Chaco For Ever</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D173" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E173" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Claypole </t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Deportivo Paraguayo</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D174" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E174" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1</v>
+      </c>
+      <c r="H174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Lugano </t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Yupanqui</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="D175" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.4500000000000002</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juventud Unida San Miguel </t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Justo Jose de Urquiza</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>3</v>
+      </c>
+      <c r="D176" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mura Murska Sobota </t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NK Celje</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="E177" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Al Ahli Doha SC </t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AL Markhiya</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="D178" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E178" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Al-Shamal </t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Qatar SC</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D179" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.04999999999999982</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1</v>
+      </c>
+      <c r="H179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Sarajevo </t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Igman Konjic</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D180" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E180" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deportes Valdivia </t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Deportes Union Companias</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D181" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr">
         <is>
           <t>pending</t>
         </is>

--- a/ml.xlsx
+++ b/ml.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K181"/>
+  <dimension ref="A1:K173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6923,7 +6923,7 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -6964,7 +6964,7 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -7005,7 +7005,7 @@
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -7046,7 +7046,7 @@
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -7087,7 +7087,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -7128,7 +7128,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -7169,35 +7169,35 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t xml:space="preserve">CA Juventud Unida Universitario San Luis </t>
+          <t xml:space="preserve">Carabobo FC </t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Deportivo Camioneros</t>
+          <t xml:space="preserve"> Rayo Zuliano</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="D165" t="n">
-        <v>3.8</v>
+        <v>7.2</v>
       </c>
       <c r="E165" t="n">
-        <v>1.75</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165" t="n">
         <v>1</v>
@@ -7206,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -7217,22 +7217,22 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t xml:space="preserve">FC Sion </t>
+          <t xml:space="preserve">Sportivo Trinidense </t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FC Vaduz</t>
+          <t xml:space="preserve"> Cerro Porteno</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1.44</v>
+        <v>4.2</v>
       </c>
       <c r="D166" t="n">
-        <v>6.1</v>
+        <v>1.7</v>
       </c>
       <c r="E166" t="n">
-        <v>4.66</v>
+        <v>2.5</v>
       </c>
       <c r="F166" t="n">
         <v>0</v>
@@ -7244,7 +7244,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="n">
         <v>0</v>
@@ -7258,34 +7258,34 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t xml:space="preserve">AL Ettifaq FC </t>
+          <t xml:space="preserve">FC Universitario de Vinto </t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AL Riyadh</t>
+          <t xml:space="preserve"> Always Ready</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1.37</v>
+        <v>2</v>
       </c>
       <c r="D167" t="n">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="E167" t="n">
-        <v>6.63</v>
+        <v>1.4</v>
       </c>
       <c r="F167" t="n">
         <v>0</v>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167" t="n">
         <v>1</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="n">
         <v>0</v>
@@ -7299,22 +7299,22 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t xml:space="preserve">AL Tai </t>
+          <t xml:space="preserve">Uniao Araguainense TO </t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AL Shabab FC (KSA)</t>
+          <t xml:space="preserve"> Tocantinopolis EC TO</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="D168" t="n">
-        <v>1.76</v>
+        <v>3</v>
       </c>
       <c r="E168" t="n">
-        <v>2.44</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
@@ -7329,7 +7329,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -7340,25 +7340,25 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Club Atletico Los Andes </t>
+          <t xml:space="preserve">La Horquetta Rangers FC </t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CSD Flandria</t>
+          <t xml:space="preserve"> Defence Force FC</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>2.35</v>
+        <v>3.75</v>
       </c>
       <c r="D169" t="n">
-        <v>3.25</v>
+        <v>1.73</v>
       </c>
       <c r="E169" t="n">
-        <v>0.8999999999999999</v>
+        <v>2.02</v>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G169" t="n">
         <v>0</v>
@@ -7370,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -7381,25 +7381,25 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excursionistas </t>
+          <t xml:space="preserve">Club Atletico Pantoja </t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Club Atletico Acassuso</t>
+          <t xml:space="preserve"> Atlántico FC</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>2.1</v>
+        <v>1.42</v>
       </c>
       <c r="D170" t="n">
-        <v>3.9</v>
+        <v>6.4</v>
       </c>
       <c r="E170" t="n">
-        <v>1.8</v>
+        <v>4.98</v>
       </c>
       <c r="F170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G170" t="n">
         <v>0</v>
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7422,22 +7422,22 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Truro City </t>
+          <t xml:space="preserve">Vega Real </t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Aveley FC</t>
+          <t xml:space="preserve"> Delfines Del Este</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>5.7</v>
+        <v>1.83</v>
       </c>
       <c r="D171" t="n">
-        <v>1.52</v>
+        <v>3.9</v>
       </c>
       <c r="E171" t="n">
-        <v>4.18</v>
+        <v>2.07</v>
       </c>
       <c r="F171" t="n">
         <v>0</v>
@@ -7463,28 +7463,28 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t xml:space="preserve">CA Defensores Unidos </t>
+          <t xml:space="preserve">Trafalgar Southstars </t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA Brown de Adrogue</t>
+          <t xml:space="preserve"> He Garden Hotspurs</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>2.05</v>
+        <v>7</v>
       </c>
       <c r="D172" t="n">
-        <v>3.9</v>
+        <v>1.31</v>
       </c>
       <c r="E172" t="n">
-        <v>1.85</v>
+        <v>5.69</v>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172" t="n">
         <v>1</v>
@@ -7504,25 +7504,25 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t xml:space="preserve">San Telmo </t>
+          <t xml:space="preserve">Pioneros de Cancun </t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA Chaco For Ever</t>
+          <t xml:space="preserve"> Tampico Madero FC</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1.92</v>
+        <v>5.3</v>
       </c>
       <c r="D173" t="n">
-        <v>4.25</v>
+        <v>1.51</v>
       </c>
       <c r="E173" t="n">
-        <v>2.33</v>
+        <v>3.79</v>
       </c>
       <c r="F173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173" t="n">
         <v>0</v>
@@ -7531,340 +7531,12 @@
         <v>1</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="n">
         <v>0</v>
       </c>
       <c r="K173" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CA Claypole </t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Deportivo Paraguayo</t>
-        </is>
-      </c>
-      <c r="C174" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="D174" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="E174" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="F174" t="n">
-        <v>0</v>
-      </c>
-      <c r="G174" t="n">
-        <v>1</v>
-      </c>
-      <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="n">
-        <v>0</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t xml:space="preserve">CA Lugano </t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Yupanqui</t>
-        </is>
-      </c>
-      <c r="C175" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="D175" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E175" t="n">
-        <v>0.4500000000000002</v>
-      </c>
-      <c r="F175" t="n">
-        <v>0</v>
-      </c>
-      <c r="G175" t="n">
-        <v>0</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>1</v>
-      </c>
-      <c r="J175" t="n">
-        <v>0</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Juventud Unida San Miguel </t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Justo Jose de Urquiza</t>
-        </is>
-      </c>
-      <c r="C176" t="n">
-        <v>3</v>
-      </c>
-      <c r="D176" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="E176" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="F176" t="n">
-        <v>0</v>
-      </c>
-      <c r="G176" t="n">
-        <v>0</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
-      <c r="J176" t="n">
-        <v>0</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mura Murska Sobota </t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> NK Celje</t>
-        </is>
-      </c>
-      <c r="C177" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="D177" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="E177" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="F177" t="n">
-        <v>1</v>
-      </c>
-      <c r="G177" t="n">
-        <v>0</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="n">
-        <v>0</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Al Ahli Doha SC </t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> AL Markhiya</t>
-        </is>
-      </c>
-      <c r="C178" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="D178" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="E178" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="F178" t="n">
-        <v>0</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
-      <c r="J178" t="n">
-        <v>0</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Al-Shamal </t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Qatar SC</t>
-        </is>
-      </c>
-      <c r="C179" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D179" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="E179" t="n">
-        <v>0.04999999999999982</v>
-      </c>
-      <c r="F179" t="n">
-        <v>0</v>
-      </c>
-      <c r="G179" t="n">
-        <v>1</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="n">
-        <v>0</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FK Sarajevo </t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> FK Igman Konjic</t>
-        </is>
-      </c>
-      <c r="C180" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="D180" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="E180" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="F180" t="n">
-        <v>0</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>1</v>
-      </c>
-      <c r="J180" t="n">
-        <v>0</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deportes Valdivia </t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Deportes Union Companias</t>
-        </is>
-      </c>
-      <c r="C181" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="D181" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="E181" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>1</v>
-      </c>
-      <c r="J181" t="n">
-        <v>0</v>
-      </c>
-      <c r="K181" t="inlineStr">
         <is>
           <t>pending</t>
         </is>

--- a/ml.xlsx
+++ b/ml.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajeyemi.alajede\PycharmProjects\bettingPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD5BDEC-9175-4AD2-9499-3119CCB8C093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1EE61F-0178-437A-A33F-85A9B5A7C1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="588">
   <si>
     <t>home</t>
   </si>
@@ -1244,6 +1244,546 @@
   </si>
   <si>
     <t xml:space="preserve"> Guadalupe FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Minaj </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Polissya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosovo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingston City FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Langwarrin SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulham U21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Middlesbrough FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swansea City </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fleetwood Town Reserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Ararat-Armenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Bulleen Lions </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> South Melbourne FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nantong Zhiyun </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shanghai Port FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC Dnipro-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Zorya Lugansk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Macedonia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portimonense </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Leixoes SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC Farense </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rio Ave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sigma Olomouc </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Zbrojovka Brno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech Republic </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> England</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosnia &amp; Herzegovina </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Northern Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montenegro </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Faroe Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Armenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chennaiyin FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Northeast United FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Lokomotiv 1929 Sofia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PFK Beroe Stara Zagora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valmiera FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Grobinas SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Liepaja </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Auda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FCI Levadia Tallinn </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Flora Tallinn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maccabi Ironi Kiryat Malakhi </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shimshon Tel Aviv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Hegelmann Kaunas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dfk Dainava Alytus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamo de Douala </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Colombe FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esteghlal Mollasani </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sanat Mes Kerman FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayern Hof </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ATSV Erlangen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hankofen-Hailing </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TSV Kornburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VfB Eichstatt </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Ingolstadt II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Pipinsried </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TSV 1860 Munich II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estoril Praia U23 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Torreense U23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Famalicao </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Estrela Amadora U23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA Banfield </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ciudad de Bolivar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudiantes de La Plata </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Strongest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gremio FB Porto Alegrense RS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Huachipato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libertad Asuncion </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deportivo Tachira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortaleza FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CD Once Caldas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentinos Juniors </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Racing Club Montevideo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC Corinthians SP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nacional Asuncion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boca Juniors </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sportivo Trinidense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charleston Battery </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Louisville City FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR Brasil AL </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Botafogo FC PB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD Independiente Juniors </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guayaquil City FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampaio Correa FC MA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SD Imperatriz MA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA Talleres de Cordoba Reserve </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Newells Old Boys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ansan Greeners </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chungnam Asan FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheonan City FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Busan I Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quanzhou Yaxin </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jiangxi Dark Horse Junior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunan Xiangtao </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guangxi Hengchen FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Udon United </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chonburi FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Punjab FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SC East Bengal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kirkenes </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alta IF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlton Athletic </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Barnsley FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Partizan Belgrade </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Vozdovac Belgrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Cukaricki Belgrade </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Vojvodina Novi Sad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Csikszereda Miercurea Ciuc </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CS Mioveni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NK Domzale </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NK Rogaska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pafos FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Apollon Limassol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FA Siauliai </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Panevezys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Banga Gargzdai </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Suduva Marijampole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accra Great Olympics </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bechem United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bibiani Gold Stars FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Karela United FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medeama SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hearts of Oak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barracas Central </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA San Miguel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD Atletico Huila </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Real Cartagena FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Envigado FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Deportes Quindio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Llaneros FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jaguares de Cordoba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 de Octubre FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cuniburo FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diablos Tesistan FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Racing FC Porto Palmeiras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD Platense Municipal Zacatecoluca </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CD FAS Santa Ana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jocoro FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alianza FC San Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vikingur Olafsvik </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Keflavik IF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EC Noroeste SP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AE Velo Clube SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD Cortulua </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CD Real Santander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Csd Vendaval </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tiburones de Sonsonate</t>
   </si>
 </sst>
 </file>
@@ -1607,10 +2147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K200"/>
+  <dimension ref="A1:K291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="M203" sqref="M203"/>
+    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
+      <selection activeCell="M291" sqref="M291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8612,6 +9152,3191 @@
         <v>1</v>
       </c>
       <c r="K200" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>408</v>
+      </c>
+      <c r="B201" t="s">
+        <v>409</v>
+      </c>
+      <c r="C201">
+        <v>4</v>
+      </c>
+      <c r="D201">
+        <v>1.95</v>
+      </c>
+      <c r="E201">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>410</v>
+      </c>
+      <c r="B202" t="s">
+        <v>411</v>
+      </c>
+      <c r="C202">
+        <v>3.2</v>
+      </c>
+      <c r="D202">
+        <v>1.98</v>
+      </c>
+      <c r="E202">
+        <v>1.22</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+      <c r="H202">
+        <v>1</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>412</v>
+      </c>
+      <c r="B203" t="s">
+        <v>413</v>
+      </c>
+      <c r="C203">
+        <v>2.6</v>
+      </c>
+      <c r="D203">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E203">
+        <v>0.30000000000000032</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>1</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>414</v>
+      </c>
+      <c r="B204" t="s">
+        <v>415</v>
+      </c>
+      <c r="C204">
+        <v>1.54</v>
+      </c>
+      <c r="D204">
+        <v>4.5</v>
+      </c>
+      <c r="E204">
+        <v>2.96</v>
+      </c>
+      <c r="F204">
+        <v>1</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>1</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+      <c r="K204" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>416</v>
+      </c>
+      <c r="B205" t="s">
+        <v>417</v>
+      </c>
+      <c r="C205">
+        <v>1.73</v>
+      </c>
+      <c r="D205">
+        <v>3.7</v>
+      </c>
+      <c r="E205">
+        <v>1.97</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>1</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>1</v>
+      </c>
+      <c r="K205" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
+        <v>418</v>
+      </c>
+      <c r="C206">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D206">
+        <v>3.1</v>
+      </c>
+      <c r="E206">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>1</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>1</v>
+      </c>
+      <c r="K206" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>419</v>
+      </c>
+      <c r="B207" t="s">
+        <v>420</v>
+      </c>
+      <c r="C207">
+        <v>2.1</v>
+      </c>
+      <c r="D207">
+        <v>2.95</v>
+      </c>
+      <c r="E207">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+      <c r="K207" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>421</v>
+      </c>
+      <c r="B208" t="s">
+        <v>422</v>
+      </c>
+      <c r="C208">
+        <v>1.03</v>
+      </c>
+      <c r="D208">
+        <v>40</v>
+      </c>
+      <c r="E208">
+        <v>38.97</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>423</v>
+      </c>
+      <c r="B209" t="s">
+        <v>424</v>
+      </c>
+      <c r="C209">
+        <v>5.98</v>
+      </c>
+      <c r="D209">
+        <v>1.6</v>
+      </c>
+      <c r="E209">
+        <v>4.3800000000000008</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>1</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>425</v>
+      </c>
+      <c r="B210" t="s">
+        <v>426</v>
+      </c>
+      <c r="C210">
+        <v>1.69</v>
+      </c>
+      <c r="D210">
+        <v>5</v>
+      </c>
+      <c r="E210">
+        <v>3.31</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>427</v>
+      </c>
+      <c r="B211" t="s">
+        <v>428</v>
+      </c>
+      <c r="C211">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D211">
+        <v>2.65</v>
+      </c>
+      <c r="E211">
+        <v>0.19999999999999971</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+      <c r="K211" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>429</v>
+      </c>
+      <c r="B212" t="s">
+        <v>430</v>
+      </c>
+      <c r="C212">
+        <v>1.74</v>
+      </c>
+      <c r="D212">
+        <v>3.9</v>
+      </c>
+      <c r="E212">
+        <v>2.16</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>431</v>
+      </c>
+      <c r="B213" t="s">
+        <v>432</v>
+      </c>
+      <c r="C213">
+        <v>1.66</v>
+      </c>
+      <c r="D213">
+        <v>4.2</v>
+      </c>
+      <c r="E213">
+        <v>2.54</v>
+      </c>
+      <c r="F213">
+        <v>1</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>1</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>433</v>
+      </c>
+      <c r="B214" t="s">
+        <v>434</v>
+      </c>
+      <c r="C214">
+        <v>2.35</v>
+      </c>
+      <c r="D214">
+        <v>2.6</v>
+      </c>
+      <c r="E214">
+        <v>0.25</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>1</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>435</v>
+      </c>
+      <c r="B215" t="s">
+        <v>436</v>
+      </c>
+      <c r="C215">
+        <v>1.47</v>
+      </c>
+      <c r="D215">
+        <v>5.2</v>
+      </c>
+      <c r="E215">
+        <v>3.73</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>1</v>
+      </c>
+      <c r="H215">
+        <v>1</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>437</v>
+      </c>
+      <c r="B216" t="s">
+        <v>438</v>
+      </c>
+      <c r="C216">
+        <v>17</v>
+      </c>
+      <c r="D216">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E216">
+        <v>15.9</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <v>1</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="K216" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>439</v>
+      </c>
+      <c r="B217" t="s">
+        <v>440</v>
+      </c>
+      <c r="C217">
+        <v>3.2</v>
+      </c>
+      <c r="D217">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E217">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>1</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+      <c r="K217" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>441</v>
+      </c>
+      <c r="B218" t="s">
+        <v>442</v>
+      </c>
+      <c r="C218">
+        <v>2.9</v>
+      </c>
+      <c r="D218">
+        <v>2.15</v>
+      </c>
+      <c r="E218">
+        <v>0.75</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <v>1</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>1</v>
+      </c>
+      <c r="K218" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>443</v>
+      </c>
+      <c r="B219" t="s">
+        <v>444</v>
+      </c>
+      <c r="C219">
+        <v>10.5</v>
+      </c>
+      <c r="D219">
+        <v>1.19</v>
+      </c>
+      <c r="E219">
+        <v>9.31</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>1</v>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+      <c r="K219" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>445</v>
+      </c>
+      <c r="B220" t="s">
+        <v>446</v>
+      </c>
+      <c r="C220">
+        <v>14.5</v>
+      </c>
+      <c r="D220">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E220">
+        <v>13.37</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>1</v>
+      </c>
+      <c r="H220">
+        <v>1</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>447</v>
+      </c>
+      <c r="B221" t="s">
+        <v>448</v>
+      </c>
+      <c r="C221">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D221">
+        <v>2.85</v>
+      </c>
+      <c r="E221">
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>449</v>
+      </c>
+      <c r="B222" t="s">
+        <v>450</v>
+      </c>
+      <c r="C222">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D222">
+        <v>1.6</v>
+      </c>
+      <c r="E222">
+        <v>3.5</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>1</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>1</v>
+      </c>
+      <c r="K222" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>451</v>
+      </c>
+      <c r="B223" t="s">
+        <v>452</v>
+      </c>
+      <c r="C223">
+        <v>9.25</v>
+      </c>
+      <c r="D223">
+        <v>1.19</v>
+      </c>
+      <c r="E223">
+        <v>8.06</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>1</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>453</v>
+      </c>
+      <c r="B224" t="s">
+        <v>454</v>
+      </c>
+      <c r="C224">
+        <v>1.04</v>
+      </c>
+      <c r="D224">
+        <v>28</v>
+      </c>
+      <c r="E224">
+        <v>26.96</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>1</v>
+      </c>
+      <c r="I224">
+        <v>1</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>455</v>
+      </c>
+      <c r="B225" t="s">
+        <v>456</v>
+      </c>
+      <c r="C225">
+        <v>1.05</v>
+      </c>
+      <c r="D225">
+        <v>36</v>
+      </c>
+      <c r="E225">
+        <v>34.950000000000003</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>1</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>192</v>
+      </c>
+      <c r="B226" t="s">
+        <v>457</v>
+      </c>
+      <c r="C226">
+        <v>5.6</v>
+      </c>
+      <c r="D226">
+        <v>1.49</v>
+      </c>
+      <c r="E226">
+        <v>4.1099999999999994</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>1</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>458</v>
+      </c>
+      <c r="B227" t="s">
+        <v>459</v>
+      </c>
+      <c r="C227">
+        <v>1.06</v>
+      </c>
+      <c r="D227">
+        <v>21</v>
+      </c>
+      <c r="E227">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>1</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>1</v>
+      </c>
+      <c r="K227" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>460</v>
+      </c>
+      <c r="B228" t="s">
+        <v>461</v>
+      </c>
+      <c r="C228">
+        <v>1.46</v>
+      </c>
+      <c r="D228">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E228">
+        <v>3.64</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>1</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
+      <c r="K228" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>462</v>
+      </c>
+      <c r="B229" t="s">
+        <v>463</v>
+      </c>
+      <c r="C229">
+        <v>3.8</v>
+      </c>
+      <c r="D229">
+        <v>1.84</v>
+      </c>
+      <c r="E229">
+        <v>1.96</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>1</v>
+      </c>
+      <c r="H229">
+        <v>1</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>464</v>
+      </c>
+      <c r="B230" t="s">
+        <v>465</v>
+      </c>
+      <c r="C230">
+        <v>1.21</v>
+      </c>
+      <c r="D230">
+        <v>12</v>
+      </c>
+      <c r="E230">
+        <v>10.79</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>1</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>466</v>
+      </c>
+      <c r="B231" t="s">
+        <v>467</v>
+      </c>
+      <c r="C231">
+        <v>2.15</v>
+      </c>
+      <c r="D231">
+        <v>3.1</v>
+      </c>
+      <c r="E231">
+        <v>0.95000000000000018</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>1</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>1</v>
+      </c>
+      <c r="K231" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>468</v>
+      </c>
+      <c r="B232" t="s">
+        <v>469</v>
+      </c>
+      <c r="C232">
+        <v>2.1</v>
+      </c>
+      <c r="D232">
+        <v>3.2</v>
+      </c>
+      <c r="E232">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>1</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>470</v>
+      </c>
+      <c r="B233" t="s">
+        <v>471</v>
+      </c>
+      <c r="C233">
+        <v>2.5</v>
+      </c>
+      <c r="D233">
+        <v>2.9</v>
+      </c>
+      <c r="E233">
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>1</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>472</v>
+      </c>
+      <c r="B234" t="s">
+        <v>473</v>
+      </c>
+      <c r="C234">
+        <v>1.33</v>
+      </c>
+      <c r="D234">
+        <v>6.9</v>
+      </c>
+      <c r="E234">
+        <v>5.57</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <v>1</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>474</v>
+      </c>
+      <c r="B235" t="s">
+        <v>475</v>
+      </c>
+      <c r="C235">
+        <v>3.7</v>
+      </c>
+      <c r="D235">
+        <v>1.96</v>
+      </c>
+      <c r="E235">
+        <v>1.74</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>1</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>476</v>
+      </c>
+      <c r="B236" t="s">
+        <v>477</v>
+      </c>
+      <c r="C236">
+        <v>1.4</v>
+      </c>
+      <c r="D236">
+        <v>6.4</v>
+      </c>
+      <c r="E236">
+        <v>5</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>1</v>
+      </c>
+      <c r="I236">
+        <v>1</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>478</v>
+      </c>
+      <c r="B237" t="s">
+        <v>479</v>
+      </c>
+      <c r="C237">
+        <v>3.33</v>
+      </c>
+      <c r="D237">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E237">
+        <v>1.28</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>1</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>480</v>
+      </c>
+      <c r="B238" t="s">
+        <v>481</v>
+      </c>
+      <c r="C238">
+        <v>1.55</v>
+      </c>
+      <c r="D238">
+        <v>5.6</v>
+      </c>
+      <c r="E238">
+        <v>4.05</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="H238">
+        <v>1</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>482</v>
+      </c>
+      <c r="B239" t="s">
+        <v>483</v>
+      </c>
+      <c r="C239">
+        <v>2.25</v>
+      </c>
+      <c r="D239">
+        <v>3.1</v>
+      </c>
+      <c r="E239">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>1</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>0</v>
+      </c>
+      <c r="K239" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>484</v>
+      </c>
+      <c r="B240" t="s">
+        <v>485</v>
+      </c>
+      <c r="C240">
+        <v>2.5</v>
+      </c>
+      <c r="D240">
+        <v>3.1</v>
+      </c>
+      <c r="E240">
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>1</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>486</v>
+      </c>
+      <c r="B241" t="s">
+        <v>487</v>
+      </c>
+      <c r="C241">
+        <v>1.77</v>
+      </c>
+      <c r="D241">
+        <v>3.8</v>
+      </c>
+      <c r="E241">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>1</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>488</v>
+      </c>
+      <c r="B242" t="s">
+        <v>489</v>
+      </c>
+      <c r="C242">
+        <v>1.64</v>
+      </c>
+      <c r="D242">
+        <v>4.25</v>
+      </c>
+      <c r="E242">
+        <v>2.61</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="H242">
+        <v>1</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+      <c r="K242" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>490</v>
+      </c>
+      <c r="B243" t="s">
+        <v>491</v>
+      </c>
+      <c r="C243">
+        <v>1.95</v>
+      </c>
+      <c r="D243">
+        <v>3.25</v>
+      </c>
+      <c r="E243">
+        <v>1.3</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="H243">
+        <v>1</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+      <c r="K243" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>492</v>
+      </c>
+      <c r="B244" t="s">
+        <v>493</v>
+      </c>
+      <c r="C244">
+        <v>1.89</v>
+      </c>
+      <c r="D244">
+        <v>3.4</v>
+      </c>
+      <c r="E244">
+        <v>1.51</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+      <c r="G244">
+        <v>1</v>
+      </c>
+      <c r="H244">
+        <v>1</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+      <c r="K244" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>494</v>
+      </c>
+      <c r="B245" t="s">
+        <v>495</v>
+      </c>
+      <c r="C245">
+        <v>1.53</v>
+      </c>
+      <c r="D245">
+        <v>5</v>
+      </c>
+      <c r="E245">
+        <v>3.47</v>
+      </c>
+      <c r="F245">
+        <v>1</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="H245">
+        <v>1</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+      <c r="K245" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>496</v>
+      </c>
+      <c r="B246" t="s">
+        <v>497</v>
+      </c>
+      <c r="C246">
+        <v>1.55</v>
+      </c>
+      <c r="D246">
+        <v>5.2</v>
+      </c>
+      <c r="E246">
+        <v>3.65</v>
+      </c>
+      <c r="F246">
+        <v>0</v>
+      </c>
+      <c r="G246">
+        <v>1</v>
+      </c>
+      <c r="H246">
+        <v>1</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+      <c r="K246" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>498</v>
+      </c>
+      <c r="B247" t="s">
+        <v>499</v>
+      </c>
+      <c r="C247">
+        <v>1.4</v>
+      </c>
+      <c r="D247">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E247">
+        <v>6.7999999999999989</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>1</v>
+      </c>
+      <c r="I247">
+        <v>1</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+      <c r="K247" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>500</v>
+      </c>
+      <c r="B248" t="s">
+        <v>501</v>
+      </c>
+      <c r="C248">
+        <v>1.26</v>
+      </c>
+      <c r="D248">
+        <v>11</v>
+      </c>
+      <c r="E248">
+        <v>9.74</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <v>1</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+      <c r="K248" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>502</v>
+      </c>
+      <c r="B249" t="s">
+        <v>503</v>
+      </c>
+      <c r="C249">
+        <v>1.46</v>
+      </c>
+      <c r="D249">
+        <v>6.9</v>
+      </c>
+      <c r="E249">
+        <v>5.44</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+      <c r="H249">
+        <v>1</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>1</v>
+      </c>
+      <c r="K249" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>504</v>
+      </c>
+      <c r="B250" t="s">
+        <v>505</v>
+      </c>
+      <c r="C250">
+        <v>1.36</v>
+      </c>
+      <c r="D250">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E250">
+        <v>6.94</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250">
+        <v>1</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+      <c r="K250" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>506</v>
+      </c>
+      <c r="B251" t="s">
+        <v>507</v>
+      </c>
+      <c r="C251">
+        <v>2.35</v>
+      </c>
+      <c r="D251">
+        <v>3.2</v>
+      </c>
+      <c r="E251">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="F251">
+        <v>0</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="H251">
+        <v>1</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>0</v>
+      </c>
+      <c r="K251" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>508</v>
+      </c>
+      <c r="B252" t="s">
+        <v>509</v>
+      </c>
+      <c r="C252">
+        <v>1.31</v>
+      </c>
+      <c r="D252">
+        <v>10.5</v>
+      </c>
+      <c r="E252">
+        <v>9.19</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+      <c r="H252">
+        <v>1</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>0</v>
+      </c>
+      <c r="K252" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>510</v>
+      </c>
+      <c r="B253" t="s">
+        <v>511</v>
+      </c>
+      <c r="C253">
+        <v>1.22</v>
+      </c>
+      <c r="D253">
+        <v>14</v>
+      </c>
+      <c r="E253">
+        <v>12.78</v>
+      </c>
+      <c r="F253">
+        <v>1</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="H253">
+        <v>1</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>0</v>
+      </c>
+      <c r="K253" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>512</v>
+      </c>
+      <c r="B254" t="s">
+        <v>513</v>
+      </c>
+      <c r="C254">
+        <v>1.19</v>
+      </c>
+      <c r="D254">
+        <v>15.5</v>
+      </c>
+      <c r="E254">
+        <v>14.31</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="H254">
+        <v>1</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>0</v>
+      </c>
+      <c r="K254" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>514</v>
+      </c>
+      <c r="B255" t="s">
+        <v>515</v>
+      </c>
+      <c r="C255">
+        <v>3.1</v>
+      </c>
+      <c r="D255">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E255">
+        <v>1.05</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>1</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+      <c r="K255" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>516</v>
+      </c>
+      <c r="B256" t="s">
+        <v>517</v>
+      </c>
+      <c r="C256">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D256">
+        <v>3.3</v>
+      </c>
+      <c r="E256">
+        <v>1.25</v>
+      </c>
+      <c r="F256">
+        <v>0</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+      <c r="H256">
+        <v>1</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>1</v>
+      </c>
+      <c r="K256" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>518</v>
+      </c>
+      <c r="B257" t="s">
+        <v>519</v>
+      </c>
+      <c r="C257">
+        <v>1.41</v>
+      </c>
+      <c r="D257">
+        <v>7.5</v>
+      </c>
+      <c r="E257">
+        <v>6.09</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+      <c r="H257">
+        <v>1</v>
+      </c>
+      <c r="I257">
+        <v>1</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+      <c r="K257" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>520</v>
+      </c>
+      <c r="B258" t="s">
+        <v>521</v>
+      </c>
+      <c r="C258">
+        <v>1.78</v>
+      </c>
+      <c r="D258">
+        <v>4.2</v>
+      </c>
+      <c r="E258">
+        <v>2.42</v>
+      </c>
+      <c r="F258">
+        <v>1</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>1</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+      <c r="K258" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>522</v>
+      </c>
+      <c r="B259" t="s">
+        <v>523</v>
+      </c>
+      <c r="C259">
+        <v>1.57</v>
+      </c>
+      <c r="D259">
+        <v>5.9</v>
+      </c>
+      <c r="E259">
+        <v>4.33</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+      <c r="H259">
+        <v>1</v>
+      </c>
+      <c r="I259">
+        <v>1</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+      <c r="K259" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>524</v>
+      </c>
+      <c r="B260" t="s">
+        <v>525</v>
+      </c>
+      <c r="C260">
+        <v>1.45</v>
+      </c>
+      <c r="D260">
+        <v>6</v>
+      </c>
+      <c r="E260">
+        <v>4.55</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+      <c r="H260">
+        <v>1</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>1</v>
+      </c>
+      <c r="K260" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>526</v>
+      </c>
+      <c r="B261" t="s">
+        <v>527</v>
+      </c>
+      <c r="C261">
+        <v>1.97</v>
+      </c>
+      <c r="D261">
+        <v>3.5</v>
+      </c>
+      <c r="E261">
+        <v>1.53</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>1</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+      <c r="K261" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>528</v>
+      </c>
+      <c r="B262" t="s">
+        <v>529</v>
+      </c>
+      <c r="C262">
+        <v>3.4</v>
+      </c>
+      <c r="D262">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E262">
+        <v>1.35</v>
+      </c>
+      <c r="F262">
+        <v>1</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+      <c r="H262">
+        <v>1</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+      <c r="K262" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>530</v>
+      </c>
+      <c r="B263" t="s">
+        <v>531</v>
+      </c>
+      <c r="C263">
+        <v>3.5</v>
+      </c>
+      <c r="D263">
+        <v>1.97</v>
+      </c>
+      <c r="E263">
+        <v>1.53</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263">
+        <v>1</v>
+      </c>
+      <c r="H263">
+        <v>1</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+      <c r="K263" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>532</v>
+      </c>
+      <c r="B264" t="s">
+        <v>533</v>
+      </c>
+      <c r="C264">
+        <v>4.2</v>
+      </c>
+      <c r="D264">
+        <v>1.77</v>
+      </c>
+      <c r="E264">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F264">
+        <v>0</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+      <c r="H264">
+        <v>1</v>
+      </c>
+      <c r="I264">
+        <v>1</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+      <c r="K264" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>534</v>
+      </c>
+      <c r="B265" t="s">
+        <v>535</v>
+      </c>
+      <c r="C265">
+        <v>1.65</v>
+      </c>
+      <c r="D265">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E265">
+        <v>3.45</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>1</v>
+      </c>
+      <c r="I265">
+        <v>1</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+      <c r="K265" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>536</v>
+      </c>
+      <c r="B266" t="s">
+        <v>537</v>
+      </c>
+      <c r="C266">
+        <v>7.2</v>
+      </c>
+      <c r="D266">
+        <v>1.34</v>
+      </c>
+      <c r="E266">
+        <v>5.86</v>
+      </c>
+      <c r="F266">
+        <v>1</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+      <c r="H266">
+        <v>1</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>0</v>
+      </c>
+      <c r="K266" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>538</v>
+      </c>
+      <c r="B267" t="s">
+        <v>539</v>
+      </c>
+      <c r="C267">
+        <v>3</v>
+      </c>
+      <c r="D267">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E267">
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="F267">
+        <v>1</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="H267">
+        <v>1</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>0</v>
+      </c>
+      <c r="K267" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>540</v>
+      </c>
+      <c r="B268" t="s">
+        <v>541</v>
+      </c>
+      <c r="C268">
+        <v>16</v>
+      </c>
+      <c r="D268">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E268">
+        <v>14.89</v>
+      </c>
+      <c r="F268">
+        <v>1</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+      <c r="H268">
+        <v>1</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+      <c r="K268" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>542</v>
+      </c>
+      <c r="B269" t="s">
+        <v>543</v>
+      </c>
+      <c r="C269">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D269">
+        <v>2.35</v>
+      </c>
+      <c r="E269">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+      <c r="G269">
+        <v>1</v>
+      </c>
+      <c r="H269">
+        <v>1</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>0</v>
+      </c>
+      <c r="K269" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>544</v>
+      </c>
+      <c r="B270" t="s">
+        <v>545</v>
+      </c>
+      <c r="C270">
+        <v>1.31</v>
+      </c>
+      <c r="D270">
+        <v>7.2</v>
+      </c>
+      <c r="E270">
+        <v>5.8900000000000006</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>1</v>
+      </c>
+      <c r="I270">
+        <v>1</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>546</v>
+      </c>
+      <c r="B271" t="s">
+        <v>547</v>
+      </c>
+      <c r="C271">
+        <v>1.94</v>
+      </c>
+      <c r="D271">
+        <v>3.6</v>
+      </c>
+      <c r="E271">
+        <v>1.66</v>
+      </c>
+      <c r="F271">
+        <v>0</v>
+      </c>
+      <c r="G271">
+        <v>1</v>
+      </c>
+      <c r="H271">
+        <v>1</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>548</v>
+      </c>
+      <c r="B272" t="s">
+        <v>549</v>
+      </c>
+      <c r="C272">
+        <v>1.95</v>
+      </c>
+      <c r="D272">
+        <v>3.7</v>
+      </c>
+      <c r="E272">
+        <v>1.75</v>
+      </c>
+      <c r="F272">
+        <v>1</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+      <c r="H272">
+        <v>1</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>550</v>
+      </c>
+      <c r="B273" t="s">
+        <v>551</v>
+      </c>
+      <c r="C273">
+        <v>2.4</v>
+      </c>
+      <c r="D273">
+        <v>2.7</v>
+      </c>
+      <c r="E273">
+        <v>0.30000000000000032</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+      <c r="H273">
+        <v>1</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>1</v>
+      </c>
+      <c r="K273" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>552</v>
+      </c>
+      <c r="B274" t="s">
+        <v>553</v>
+      </c>
+      <c r="C274">
+        <v>1.95</v>
+      </c>
+      <c r="D274">
+        <v>3.6</v>
+      </c>
+      <c r="E274">
+        <v>1.65</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>1</v>
+      </c>
+      <c r="I274">
+        <v>1</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>554</v>
+      </c>
+      <c r="B275" t="s">
+        <v>555</v>
+      </c>
+      <c r="C275">
+        <v>2.35</v>
+      </c>
+      <c r="D275">
+        <v>3.1</v>
+      </c>
+      <c r="E275">
+        <v>0.75</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+      <c r="H275">
+        <v>1</v>
+      </c>
+      <c r="I275">
+        <v>1</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>556</v>
+      </c>
+      <c r="B276" t="s">
+        <v>557</v>
+      </c>
+      <c r="C276">
+        <v>3.2</v>
+      </c>
+      <c r="D276">
+        <v>2.25</v>
+      </c>
+      <c r="E276">
+        <v>0.95000000000000018</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="H276">
+        <v>1</v>
+      </c>
+      <c r="I276">
+        <v>1</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+      <c r="K276" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>558</v>
+      </c>
+      <c r="B277" t="s">
+        <v>559</v>
+      </c>
+      <c r="C277">
+        <v>1.93</v>
+      </c>
+      <c r="D277">
+        <v>4</v>
+      </c>
+      <c r="E277">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="H277">
+        <v>1</v>
+      </c>
+      <c r="I277">
+        <v>1</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+      <c r="K277" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>560</v>
+      </c>
+      <c r="B278" t="s">
+        <v>561</v>
+      </c>
+      <c r="C278">
+        <v>1.48</v>
+      </c>
+      <c r="D278">
+        <v>5.8</v>
+      </c>
+      <c r="E278">
+        <v>4.32</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+      <c r="H278">
+        <v>1</v>
+      </c>
+      <c r="I278">
+        <v>1</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+      <c r="K278" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>562</v>
+      </c>
+      <c r="B279" t="s">
+        <v>563</v>
+      </c>
+      <c r="C279">
+        <v>1.93</v>
+      </c>
+      <c r="D279">
+        <v>3.9</v>
+      </c>
+      <c r="E279">
+        <v>1.97</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>1</v>
+      </c>
+      <c r="H279">
+        <v>1</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>564</v>
+      </c>
+      <c r="B280" t="s">
+        <v>565</v>
+      </c>
+      <c r="C280">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D280">
+        <v>3.6</v>
+      </c>
+      <c r="E280">
+        <v>1.55</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="H280">
+        <v>1</v>
+      </c>
+      <c r="I280">
+        <v>1</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>566</v>
+      </c>
+      <c r="B281" t="s">
+        <v>567</v>
+      </c>
+      <c r="C281">
+        <v>1.83</v>
+      </c>
+      <c r="D281">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E281">
+        <v>2.27</v>
+      </c>
+      <c r="F281">
+        <v>1</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="H281">
+        <v>1</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>568</v>
+      </c>
+      <c r="B282" t="s">
+        <v>569</v>
+      </c>
+      <c r="C282">
+        <v>2</v>
+      </c>
+      <c r="D282">
+        <v>3.75</v>
+      </c>
+      <c r="E282">
+        <v>1.75</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="H282">
+        <v>1</v>
+      </c>
+      <c r="I282">
+        <v>1</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>570</v>
+      </c>
+      <c r="B283" t="s">
+        <v>571</v>
+      </c>
+      <c r="C283">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D283">
+        <v>2.95</v>
+      </c>
+      <c r="E283">
+        <v>0.5</v>
+      </c>
+      <c r="F283">
+        <v>1</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="H283">
+        <v>1</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>572</v>
+      </c>
+      <c r="B284" t="s">
+        <v>573</v>
+      </c>
+      <c r="C284">
+        <v>1.9</v>
+      </c>
+      <c r="D284">
+        <v>3.8</v>
+      </c>
+      <c r="E284">
+        <v>1.9</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+      <c r="G284">
+        <v>1</v>
+      </c>
+      <c r="H284">
+        <v>1</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>574</v>
+      </c>
+      <c r="B285" t="s">
+        <v>575</v>
+      </c>
+      <c r="C285">
+        <v>4</v>
+      </c>
+      <c r="D285">
+        <v>1.64</v>
+      </c>
+      <c r="E285">
+        <v>2.36</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="H285">
+        <v>1</v>
+      </c>
+      <c r="I285">
+        <v>1</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>576</v>
+      </c>
+      <c r="B286" t="s">
+        <v>577</v>
+      </c>
+      <c r="C286">
+        <v>2.95</v>
+      </c>
+      <c r="D286">
+        <v>2.15</v>
+      </c>
+      <c r="E286">
+        <v>0.80000000000000027</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+      <c r="G286">
+        <v>1</v>
+      </c>
+      <c r="H286">
+        <v>1</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>578</v>
+      </c>
+      <c r="B287" t="s">
+        <v>579</v>
+      </c>
+      <c r="C287">
+        <v>10.5</v>
+      </c>
+      <c r="D287">
+        <v>1.29</v>
+      </c>
+      <c r="E287">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+      <c r="H287">
+        <v>1</v>
+      </c>
+      <c r="I287">
+        <v>1</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+      <c r="K287" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>580</v>
+      </c>
+      <c r="B288" t="s">
+        <v>581</v>
+      </c>
+      <c r="C288">
+        <v>6</v>
+      </c>
+      <c r="D288">
+        <v>1.39</v>
+      </c>
+      <c r="E288">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="F288">
+        <v>0</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+      <c r="H288">
+        <v>1</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>1</v>
+      </c>
+      <c r="K288" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>582</v>
+      </c>
+      <c r="B289" t="s">
+        <v>583</v>
+      </c>
+      <c r="C289">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D289">
+        <v>3.4</v>
+      </c>
+      <c r="E289">
+        <v>1.35</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="H289">
+        <v>1</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>1</v>
+      </c>
+      <c r="K289" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>584</v>
+      </c>
+      <c r="B290" t="s">
+        <v>585</v>
+      </c>
+      <c r="C290">
+        <v>1.39</v>
+      </c>
+      <c r="D290">
+        <v>6.3</v>
+      </c>
+      <c r="E290">
+        <v>4.91</v>
+      </c>
+      <c r="F290">
+        <v>0</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="H290">
+        <v>1</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>1</v>
+      </c>
+      <c r="K290" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>586</v>
+      </c>
+      <c r="B291" t="s">
+        <v>587</v>
+      </c>
+      <c r="C291">
+        <v>14</v>
+      </c>
+      <c r="D291">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E291">
+        <v>12.88</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="H291">
+        <v>1</v>
+      </c>
+      <c r="I291">
+        <v>1</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291" t="s">
         <v>16</v>
       </c>
     </row>

--- a/ml.xlsx
+++ b/ml.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajeyemi.alajede\PycharmProjects\bettingPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1EE61F-0178-437A-A33F-85A9B5A7C1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF1F601-67E6-4062-A23C-9335A19EC5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="680">
   <si>
     <t>home</t>
   </si>
@@ -1784,6 +1784,282 @@
   </si>
   <si>
     <t xml:space="preserve"> Tiburones de Sonsonate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guangxi Lanhang </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shanghai Port B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaanxi Union FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nantong Haimen Codion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shandong Taishan B </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Langfang Glory City FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al Masry Club </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bengaluru FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ATK Mohun Bagan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Radnicki 1923 Kragujevac </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Novi Pazar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AO Egaleo 1931 PAE </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Panathinaikos B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Samtredia </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Telavi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Van Charentsavan </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Noah Yerevan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aigle Royal </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Apejes de Mfou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia Nigd Bank </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hawassa Kenema SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benfica </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marseille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leverkusen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> West Ham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liverpool </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Atalanta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Milan </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Viktoria Plzen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fiorentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olympiacos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fenerbahce Istanbul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aston Villa </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brugge </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PAOK Thessaloniki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGF Aarhus </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Nordsjaelland</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al Ittihad Al Sakandary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zed FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AL Ahly SC (Egy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFC Fylde </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gateshead FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wealdstone FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dorking Wanderers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farnborough FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chippenham Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taunton Town </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Slough Town FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Truro City </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yeovil Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint/Jeloy </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Moss FK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Toten </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elverum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL Flint </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Eik Toensberg 871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Torpedo Kutaisi </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Samgurali Tskaltubo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potters Bar Town FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Margate FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jeugd Royal Francs Borains </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RFC Liege</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR Flamengo RJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cuiaba EC MT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HK/Ymir U19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Afturelding/Hviti U19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drobak Frogn U19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Asker U19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moss U19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ullensaker/Kisa U19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD Godoy Cruz </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Independiente Reserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defensa Y Justicia Reserve </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA Tigre Reserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gimnasia de la Plata Reserve </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA Banfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Lorenzo de Almagro Res. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Argentinos Juniors Reserve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ural Ekaterinburg </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chertanovo Moscow</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maccabi Kiryat Ata-Bialik </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hapoel Kaukab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hapoel Bikat Hayarden </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hapoel Herzelia FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Wellington AFC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Coast Rangers FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Auckland City FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panserraikos U19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AEK Athens</t>
   </si>
 </sst>
 </file>
@@ -1802,7 +2078,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2147,10 +2422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K291"/>
+  <dimension ref="A1:K338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A279" workbookViewId="0">
-      <selection activeCell="M291" sqref="M291"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12340,13 +12615,1652 @@
         <v>16</v>
       </c>
     </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>588</v>
+      </c>
+      <c r="B292" t="s">
+        <v>589</v>
+      </c>
+      <c r="C292">
+        <v>1.92</v>
+      </c>
+      <c r="D292">
+        <v>3.5</v>
+      </c>
+      <c r="E292">
+        <v>1.58</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+      <c r="H292">
+        <v>1</v>
+      </c>
+      <c r="I292">
+        <v>1</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>590</v>
+      </c>
+      <c r="B293" t="s">
+        <v>591</v>
+      </c>
+      <c r="C293">
+        <v>1.59</v>
+      </c>
+      <c r="D293">
+        <v>5</v>
+      </c>
+      <c r="E293">
+        <v>3.41</v>
+      </c>
+      <c r="F293">
+        <v>1</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="H293">
+        <v>1</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>592</v>
+      </c>
+      <c r="B294" t="s">
+        <v>593</v>
+      </c>
+      <c r="C294">
+        <v>2.6</v>
+      </c>
+      <c r="D294">
+        <v>2.5</v>
+      </c>
+      <c r="E294">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="F294">
+        <v>1</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+      <c r="H294">
+        <v>1</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>594</v>
+      </c>
+      <c r="B295" t="s">
+        <v>397</v>
+      </c>
+      <c r="C295">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D295">
+        <v>2.95</v>
+      </c>
+      <c r="E295">
+        <v>0.5</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+      <c r="H295">
+        <v>1</v>
+      </c>
+      <c r="I295">
+        <v>1</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>595</v>
+      </c>
+      <c r="B296" t="s">
+        <v>596</v>
+      </c>
+      <c r="C296">
+        <v>5</v>
+      </c>
+      <c r="D296">
+        <v>1.64</v>
+      </c>
+      <c r="E296">
+        <v>3.36</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <v>1</v>
+      </c>
+      <c r="H296">
+        <v>1</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>0</v>
+      </c>
+      <c r="K296" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>597</v>
+      </c>
+      <c r="B297" t="s">
+        <v>598</v>
+      </c>
+      <c r="C297">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D297">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E297">
+        <v>0.25</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="H297">
+        <v>1</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>1</v>
+      </c>
+      <c r="K297" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>599</v>
+      </c>
+      <c r="B298" t="s">
+        <v>600</v>
+      </c>
+      <c r="C298">
+        <v>1.76</v>
+      </c>
+      <c r="D298">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E298">
+        <v>2.34</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+      <c r="H298">
+        <v>1</v>
+      </c>
+      <c r="I298">
+        <v>1</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>601</v>
+      </c>
+      <c r="B299" t="s">
+        <v>602</v>
+      </c>
+      <c r="C299">
+        <v>3.25</v>
+      </c>
+      <c r="D299">
+        <v>2.1</v>
+      </c>
+      <c r="E299">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+      <c r="H299">
+        <v>1</v>
+      </c>
+      <c r="I299">
+        <v>1</v>
+      </c>
+      <c r="J299">
+        <v>0</v>
+      </c>
+      <c r="K299" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>603</v>
+      </c>
+      <c r="B300" t="s">
+        <v>604</v>
+      </c>
+      <c r="C300">
+        <v>4.5</v>
+      </c>
+      <c r="D300">
+        <v>1.63</v>
+      </c>
+      <c r="E300">
+        <v>2.87</v>
+      </c>
+      <c r="F300">
+        <v>0</v>
+      </c>
+      <c r="G300">
+        <v>1</v>
+      </c>
+      <c r="H300">
+        <v>1</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+      <c r="K300" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>605</v>
+      </c>
+      <c r="B301" t="s">
+        <v>606</v>
+      </c>
+      <c r="C301">
+        <v>1.68</v>
+      </c>
+      <c r="D301">
+        <v>5.25</v>
+      </c>
+      <c r="E301">
+        <v>3.57</v>
+      </c>
+      <c r="F301">
+        <v>1</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+      <c r="H301">
+        <v>1</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+      <c r="K301" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>607</v>
+      </c>
+      <c r="B302" t="s">
+        <v>608</v>
+      </c>
+      <c r="C302">
+        <v>1.67</v>
+      </c>
+      <c r="D302">
+        <v>4.5</v>
+      </c>
+      <c r="E302">
+        <v>2.83</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+      <c r="G302">
+        <v>1</v>
+      </c>
+      <c r="H302">
+        <v>1</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+      <c r="K302" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>609</v>
+      </c>
+      <c r="B303" t="s">
+        <v>610</v>
+      </c>
+      <c r="C303">
+        <v>1.86</v>
+      </c>
+      <c r="D303">
+        <v>4.53</v>
+      </c>
+      <c r="E303">
+        <v>2.67</v>
+      </c>
+      <c r="F303">
+        <v>0</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+      <c r="H303">
+        <v>1</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>1</v>
+      </c>
+      <c r="K303" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>611</v>
+      </c>
+      <c r="B304" t="s">
+        <v>612</v>
+      </c>
+      <c r="C304">
+        <v>1.41</v>
+      </c>
+      <c r="D304">
+        <v>8.23</v>
+      </c>
+      <c r="E304">
+        <v>6.82</v>
+      </c>
+      <c r="F304">
+        <v>0</v>
+      </c>
+      <c r="G304">
+        <v>1</v>
+      </c>
+      <c r="H304">
+        <v>1</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+      <c r="K304" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>613</v>
+      </c>
+      <c r="B305" t="s">
+        <v>614</v>
+      </c>
+      <c r="C305">
+        <v>1.37</v>
+      </c>
+      <c r="D305">
+        <v>8.27</v>
+      </c>
+      <c r="E305">
+        <v>6.8999999999999986</v>
+      </c>
+      <c r="F305">
+        <v>1</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+      <c r="H305">
+        <v>1</v>
+      </c>
+      <c r="I305">
+        <v>0</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+      <c r="K305" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>615</v>
+      </c>
+      <c r="B306" t="s">
+        <v>616</v>
+      </c>
+      <c r="C306">
+        <v>1.76</v>
+      </c>
+      <c r="D306">
+        <v>5.07</v>
+      </c>
+      <c r="E306">
+        <v>3.31</v>
+      </c>
+      <c r="F306">
+        <v>1</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+      <c r="H306">
+        <v>1</v>
+      </c>
+      <c r="I306">
+        <v>0</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+      <c r="K306" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>617</v>
+      </c>
+      <c r="B307" t="s">
+        <v>618</v>
+      </c>
+      <c r="C307">
+        <v>4.57</v>
+      </c>
+      <c r="D307">
+        <v>1.92</v>
+      </c>
+      <c r="E307">
+        <v>2.65</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+      <c r="H307">
+        <v>1</v>
+      </c>
+      <c r="I307">
+        <v>1</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+      <c r="K307" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>619</v>
+      </c>
+      <c r="B308" t="s">
+        <v>620</v>
+      </c>
+      <c r="C308">
+        <v>2.46</v>
+      </c>
+      <c r="D308">
+        <v>2.97</v>
+      </c>
+      <c r="E308">
+        <v>0.51000000000000023</v>
+      </c>
+      <c r="F308">
+        <v>1</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+      <c r="H308">
+        <v>1</v>
+      </c>
+      <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+      <c r="K308" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>621</v>
+      </c>
+      <c r="B309" t="s">
+        <v>622</v>
+      </c>
+      <c r="C309">
+        <v>1.8</v>
+      </c>
+      <c r="D309">
+        <v>4.63</v>
+      </c>
+      <c r="E309">
+        <v>2.83</v>
+      </c>
+      <c r="F309">
+        <v>1</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+      <c r="H309">
+        <v>1</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+      <c r="K309" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>623</v>
+      </c>
+      <c r="B310" t="s">
+        <v>624</v>
+      </c>
+      <c r="C310">
+        <v>2.11</v>
+      </c>
+      <c r="D310">
+        <v>3.71</v>
+      </c>
+      <c r="E310">
+        <v>1.6</v>
+      </c>
+      <c r="F310">
+        <v>0</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+      <c r="H310">
+        <v>1</v>
+      </c>
+      <c r="I310">
+        <v>0</v>
+      </c>
+      <c r="J310">
+        <v>1</v>
+      </c>
+      <c r="K310" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>625</v>
+      </c>
+      <c r="B311" t="s">
+        <v>626</v>
+      </c>
+      <c r="C311">
+        <v>3.33</v>
+      </c>
+      <c r="D311">
+        <v>2.1</v>
+      </c>
+      <c r="E311">
+        <v>1.23</v>
+      </c>
+      <c r="F311">
+        <v>0</v>
+      </c>
+      <c r="G311">
+        <v>1</v>
+      </c>
+      <c r="H311">
+        <v>1</v>
+      </c>
+      <c r="I311">
+        <v>0</v>
+      </c>
+      <c r="J311">
+        <v>0</v>
+      </c>
+      <c r="K311" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>396</v>
+      </c>
+      <c r="B312" t="s">
+        <v>627</v>
+      </c>
+      <c r="C312">
+        <v>1.99</v>
+      </c>
+      <c r="D312">
+        <v>3.7</v>
+      </c>
+      <c r="E312">
+        <v>1.71</v>
+      </c>
+      <c r="F312">
+        <v>0</v>
+      </c>
+      <c r="G312">
+        <v>0</v>
+      </c>
+      <c r="H312">
+        <v>1</v>
+      </c>
+      <c r="I312">
+        <v>1</v>
+      </c>
+      <c r="J312">
+        <v>0</v>
+      </c>
+      <c r="K312" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>628</v>
+      </c>
+      <c r="B313" t="s">
+        <v>629</v>
+      </c>
+      <c r="C313">
+        <v>6.1</v>
+      </c>
+      <c r="D313">
+        <v>1.51</v>
+      </c>
+      <c r="E313">
+        <v>4.59</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
+      </c>
+      <c r="H313">
+        <v>1</v>
+      </c>
+      <c r="I313">
+        <v>0</v>
+      </c>
+      <c r="J313">
+        <v>1</v>
+      </c>
+      <c r="K313" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>630</v>
+      </c>
+      <c r="B314" t="s">
+        <v>631</v>
+      </c>
+      <c r="C314">
+        <v>3.2</v>
+      </c>
+      <c r="D314">
+        <v>2.1</v>
+      </c>
+      <c r="E314">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F314">
+        <v>1</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
+      <c r="H314">
+        <v>1</v>
+      </c>
+      <c r="I314">
+        <v>0</v>
+      </c>
+      <c r="J314">
+        <v>0</v>
+      </c>
+      <c r="K314" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>632</v>
+      </c>
+      <c r="B315" t="s">
+        <v>633</v>
+      </c>
+      <c r="C315">
+        <v>2.25</v>
+      </c>
+      <c r="D315">
+        <v>2.95</v>
+      </c>
+      <c r="E315">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+      <c r="H315">
+        <v>1</v>
+      </c>
+      <c r="I315">
+        <v>1</v>
+      </c>
+      <c r="J315">
+        <v>0</v>
+      </c>
+      <c r="K315" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>634</v>
+      </c>
+      <c r="B316" t="s">
+        <v>635</v>
+      </c>
+      <c r="C316">
+        <v>1.44</v>
+      </c>
+      <c r="D316">
+        <v>6.1</v>
+      </c>
+      <c r="E316">
+        <v>4.66</v>
+      </c>
+      <c r="F316">
+        <v>1</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+      <c r="H316">
+        <v>1</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316">
+        <v>0</v>
+      </c>
+      <c r="K316" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>636</v>
+      </c>
+      <c r="B317" t="s">
+        <v>637</v>
+      </c>
+      <c r="C317">
+        <v>3.1</v>
+      </c>
+      <c r="D317">
+        <v>2</v>
+      </c>
+      <c r="E317">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F317">
+        <v>0</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+      <c r="H317">
+        <v>1</v>
+      </c>
+      <c r="I317">
+        <v>1</v>
+      </c>
+      <c r="J317">
+        <v>0</v>
+      </c>
+      <c r="K317" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>638</v>
+      </c>
+      <c r="B318" t="s">
+        <v>639</v>
+      </c>
+      <c r="C318">
+        <v>15.5</v>
+      </c>
+      <c r="D318">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E318">
+        <v>14.35</v>
+      </c>
+      <c r="F318">
+        <v>0</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+      <c r="H318">
+        <v>1</v>
+      </c>
+      <c r="I318">
+        <v>0</v>
+      </c>
+      <c r="J318">
+        <v>0</v>
+      </c>
+      <c r="K318" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>640</v>
+      </c>
+      <c r="B319" t="s">
+        <v>641</v>
+      </c>
+      <c r="C319">
+        <v>11</v>
+      </c>
+      <c r="D319">
+        <v>1.21</v>
+      </c>
+      <c r="E319">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+      <c r="H319">
+        <v>1</v>
+      </c>
+      <c r="I319">
+        <v>1</v>
+      </c>
+      <c r="J319">
+        <v>0</v>
+      </c>
+      <c r="K319" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>642</v>
+      </c>
+      <c r="B320" t="s">
+        <v>643</v>
+      </c>
+      <c r="C320">
+        <v>11</v>
+      </c>
+      <c r="D320">
+        <v>1.17</v>
+      </c>
+      <c r="E320">
+        <v>9.83</v>
+      </c>
+      <c r="F320">
+        <v>0</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+      <c r="H320">
+        <v>1</v>
+      </c>
+      <c r="I320">
+        <v>1</v>
+      </c>
+      <c r="J320">
+        <v>0</v>
+      </c>
+      <c r="K320" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>644</v>
+      </c>
+      <c r="B321" t="s">
+        <v>645</v>
+      </c>
+      <c r="C321">
+        <v>6.8</v>
+      </c>
+      <c r="D321">
+        <v>1.32</v>
+      </c>
+      <c r="E321">
+        <v>5.48</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+      <c r="H321">
+        <v>1</v>
+      </c>
+      <c r="I321">
+        <v>1</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+      <c r="K321" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>646</v>
+      </c>
+      <c r="B322" t="s">
+        <v>647</v>
+      </c>
+      <c r="C322">
+        <v>1.6</v>
+      </c>
+      <c r="D322">
+        <v>4.8</v>
+      </c>
+      <c r="E322">
+        <v>3.2</v>
+      </c>
+      <c r="F322">
+        <v>0</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+      <c r="H322">
+        <v>1</v>
+      </c>
+      <c r="I322">
+        <v>1</v>
+      </c>
+      <c r="J322">
+        <v>0</v>
+      </c>
+      <c r="K322" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>648</v>
+      </c>
+      <c r="B323" t="s">
+        <v>649</v>
+      </c>
+      <c r="C323">
+        <v>1.91</v>
+      </c>
+      <c r="D323">
+        <v>3.4</v>
+      </c>
+      <c r="E323">
+        <v>1.49</v>
+      </c>
+      <c r="F323">
+        <v>1</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+      <c r="H323">
+        <v>1</v>
+      </c>
+      <c r="I323">
+        <v>0</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+      <c r="K323" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>650</v>
+      </c>
+      <c r="B324" t="s">
+        <v>651</v>
+      </c>
+      <c r="C324">
+        <v>4.2</v>
+      </c>
+      <c r="D324">
+        <v>1.58</v>
+      </c>
+      <c r="E324">
+        <v>2.62</v>
+      </c>
+      <c r="F324">
+        <v>1</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
+      <c r="H324">
+        <v>1</v>
+      </c>
+      <c r="I324">
+        <v>0</v>
+      </c>
+      <c r="J324">
+        <v>0</v>
+      </c>
+      <c r="K324" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>652</v>
+      </c>
+      <c r="B325" t="s">
+        <v>653</v>
+      </c>
+      <c r="C325">
+        <v>1.53</v>
+      </c>
+      <c r="D325">
+        <v>4.75</v>
+      </c>
+      <c r="E325">
+        <v>3.22</v>
+      </c>
+      <c r="F325">
+        <v>0</v>
+      </c>
+      <c r="G325">
+        <v>0</v>
+      </c>
+      <c r="H325">
+        <v>1</v>
+      </c>
+      <c r="I325">
+        <v>0</v>
+      </c>
+      <c r="J325">
+        <v>1</v>
+      </c>
+      <c r="K325" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>654</v>
+      </c>
+      <c r="B326" t="s">
+        <v>655</v>
+      </c>
+      <c r="C326">
+        <v>1.97</v>
+      </c>
+      <c r="D326">
+        <v>2.85</v>
+      </c>
+      <c r="E326">
+        <v>0.88000000000000012</v>
+      </c>
+      <c r="F326">
+        <v>0</v>
+      </c>
+      <c r="G326">
+        <v>0</v>
+      </c>
+      <c r="H326">
+        <v>1</v>
+      </c>
+      <c r="I326">
+        <v>0</v>
+      </c>
+      <c r="J326">
+        <v>1</v>
+      </c>
+      <c r="K326" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>656</v>
+      </c>
+      <c r="B327" t="s">
+        <v>657</v>
+      </c>
+      <c r="C327">
+        <v>2.9</v>
+      </c>
+      <c r="D327">
+        <v>1.88</v>
+      </c>
+      <c r="E327">
+        <v>1.02</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+      <c r="G327">
+        <v>0</v>
+      </c>
+      <c r="H327">
+        <v>1</v>
+      </c>
+      <c r="I327">
+        <v>0</v>
+      </c>
+      <c r="J327">
+        <v>1</v>
+      </c>
+      <c r="K327" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>658</v>
+      </c>
+      <c r="B328" t="s">
+        <v>659</v>
+      </c>
+      <c r="C328">
+        <v>2.15</v>
+      </c>
+      <c r="D328">
+        <v>2.65</v>
+      </c>
+      <c r="E328">
+        <v>0.5</v>
+      </c>
+      <c r="F328">
+        <v>0</v>
+      </c>
+      <c r="G328">
+        <v>0</v>
+      </c>
+      <c r="H328">
+        <v>1</v>
+      </c>
+      <c r="I328">
+        <v>1</v>
+      </c>
+      <c r="J328">
+        <v>0</v>
+      </c>
+      <c r="K328" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>660</v>
+      </c>
+      <c r="B329" t="s">
+        <v>661</v>
+      </c>
+      <c r="C329">
+        <v>2.75</v>
+      </c>
+      <c r="D329">
+        <v>2.35</v>
+      </c>
+      <c r="E329">
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
+      <c r="G329">
+        <v>0</v>
+      </c>
+      <c r="H329">
+        <v>1</v>
+      </c>
+      <c r="I329">
+        <v>0</v>
+      </c>
+      <c r="J329">
+        <v>0</v>
+      </c>
+      <c r="K329" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>662</v>
+      </c>
+      <c r="B330" t="s">
+        <v>663</v>
+      </c>
+      <c r="C330">
+        <v>2.15</v>
+      </c>
+      <c r="D330">
+        <v>3.2</v>
+      </c>
+      <c r="E330">
+        <v>1.05</v>
+      </c>
+      <c r="F330">
+        <v>0</v>
+      </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
+      <c r="H330">
+        <v>1</v>
+      </c>
+      <c r="I330">
+        <v>0</v>
+      </c>
+      <c r="J330">
+        <v>1</v>
+      </c>
+      <c r="K330" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>664</v>
+      </c>
+      <c r="B331" t="s">
+        <v>665</v>
+      </c>
+      <c r="C331">
+        <v>2.6</v>
+      </c>
+      <c r="D331">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E331">
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+      <c r="G331">
+        <v>0</v>
+      </c>
+      <c r="H331">
+        <v>1</v>
+      </c>
+      <c r="I331">
+        <v>0</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
+      <c r="K331" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>666</v>
+      </c>
+      <c r="B332" t="s">
+        <v>667</v>
+      </c>
+      <c r="C332">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D332">
+        <v>3.25</v>
+      </c>
+      <c r="E332">
+        <v>1.05</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+      <c r="G332">
+        <v>0</v>
+      </c>
+      <c r="H332">
+        <v>1</v>
+      </c>
+      <c r="I332">
+        <v>0</v>
+      </c>
+      <c r="J332">
+        <v>1</v>
+      </c>
+      <c r="K332" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>668</v>
+      </c>
+      <c r="B333" t="s">
+        <v>669</v>
+      </c>
+      <c r="C333">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D333">
+        <v>1.52</v>
+      </c>
+      <c r="E333">
+        <v>2.88</v>
+      </c>
+      <c r="F333">
+        <v>0</v>
+      </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
+      <c r="H333">
+        <v>1</v>
+      </c>
+      <c r="I333">
+        <v>0</v>
+      </c>
+      <c r="J333">
+        <v>1</v>
+      </c>
+      <c r="K333" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>671</v>
+      </c>
+      <c r="B334" t="s">
+        <v>672</v>
+      </c>
+      <c r="C334">
+        <v>1.21</v>
+      </c>
+      <c r="D334">
+        <v>11.5</v>
+      </c>
+      <c r="E334">
+        <v>10.29</v>
+      </c>
+      <c r="F334">
+        <v>0</v>
+      </c>
+      <c r="G334">
+        <v>0</v>
+      </c>
+      <c r="H334">
+        <v>1</v>
+      </c>
+      <c r="I334">
+        <v>0</v>
+      </c>
+      <c r="J334">
+        <v>1</v>
+      </c>
+      <c r="K334" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>673</v>
+      </c>
+      <c r="B335" t="s">
+        <v>674</v>
+      </c>
+      <c r="C335">
+        <v>3.8</v>
+      </c>
+      <c r="D335">
+        <v>1.97</v>
+      </c>
+      <c r="E335">
+        <v>1.83</v>
+      </c>
+      <c r="F335">
+        <v>0</v>
+      </c>
+      <c r="G335">
+        <v>1</v>
+      </c>
+      <c r="H335">
+        <v>1</v>
+      </c>
+      <c r="I335">
+        <v>0</v>
+      </c>
+      <c r="J335">
+        <v>0</v>
+      </c>
+      <c r="K335" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>675</v>
+      </c>
+      <c r="B336" t="s">
+        <v>281</v>
+      </c>
+      <c r="C336">
+        <v>11</v>
+      </c>
+      <c r="D336">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E336">
+        <v>9.870000000000001</v>
+      </c>
+      <c r="F336">
+        <v>1</v>
+      </c>
+      <c r="G336">
+        <v>0</v>
+      </c>
+      <c r="H336">
+        <v>1</v>
+      </c>
+      <c r="I336">
+        <v>0</v>
+      </c>
+      <c r="J336">
+        <v>0</v>
+      </c>
+      <c r="K336" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>676</v>
+      </c>
+      <c r="B337" t="s">
+        <v>677</v>
+      </c>
+      <c r="C337">
+        <v>12.5</v>
+      </c>
+      <c r="D337">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E337">
+        <v>11.41</v>
+      </c>
+      <c r="F337">
+        <v>0</v>
+      </c>
+      <c r="G337">
+        <v>1</v>
+      </c>
+      <c r="H337">
+        <v>1</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
+      <c r="K337" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>678</v>
+      </c>
+      <c r="B338" t="s">
+        <v>679</v>
+      </c>
+      <c r="C338">
+        <v>7.25</v>
+      </c>
+      <c r="D338">
+        <v>1.29</v>
+      </c>
+      <c r="E338">
+        <v>5.96</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
+      <c r="H338">
+        <v>1</v>
+      </c>
+      <c r="I338">
+        <v>0</v>
+      </c>
+      <c r="J338">
+        <v>1</v>
+      </c>
+      <c r="K338" t="s">
+        <v>670</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
-<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{6ab8a5f6-6513-4c16-9ec5-fb804444ee2e}" enabled="1" method="Privileged" siteId="{2f2105c9-ac89-4578-89dd-1341e163d421}" contentBits="0" removed="0"/>
-</clbl:labelList>
 </file>
--- a/ml.xlsx
+++ b/ml.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K386"/>
+  <dimension ref="A1:K428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15656,7 +15656,7 @@
       </c>
       <c r="K371" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -15697,7 +15697,7 @@
       </c>
       <c r="K372" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -15738,7 +15738,7 @@
       </c>
       <c r="K373" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -15779,7 +15779,7 @@
       </c>
       <c r="K374" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -15820,7 +15820,7 @@
       </c>
       <c r="K375" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -15861,7 +15861,7 @@
       </c>
       <c r="K376" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -15902,7 +15902,7 @@
       </c>
       <c r="K377" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -15943,7 +15943,7 @@
       </c>
       <c r="K378" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -15984,7 +15984,7 @@
       </c>
       <c r="K379" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -16025,7 +16025,7 @@
       </c>
       <c r="K380" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -16066,32 +16066,32 @@
       </c>
       <c r="K381" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adamstown Rosebud FC </t>
+          <t xml:space="preserve">Daegu FC II </t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cooks Hill United</t>
+          <t xml:space="preserve"> Daejeon Korail FC</t>
         </is>
       </c>
       <c r="C382" t="n">
-        <v>4.25</v>
+        <v>2.55</v>
       </c>
       <c r="D382" t="n">
-        <v>1.62</v>
+        <v>2.55</v>
       </c>
       <c r="E382" t="n">
-        <v>2.63</v>
+        <v>0</v>
       </c>
       <c r="F382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G382" t="n">
         <v>0</v>
@@ -16100,36 +16100,36 @@
         <v>1</v>
       </c>
       <c r="I382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J382" t="n">
         <v>0</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t xml:space="preserve">Daegu FC II </t>
+          <t xml:space="preserve">Western United FC </t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Daejeon Korail FC</t>
+          <t xml:space="preserve"> Central Coast Mariners</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="D383" t="n">
-        <v>2.55</v>
+        <v>1.91</v>
       </c>
       <c r="E383" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="F383" t="n">
         <v>0</v>
@@ -16148,29 +16148,29 @@
       </c>
       <c r="K383" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t xml:space="preserve">Western United FC </t>
+          <t xml:space="preserve">Adelaide University </t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Central Coast Mariners</t>
+          <t xml:space="preserve"> Salisbury Inter</t>
         </is>
       </c>
       <c r="C384" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="D384" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="E384" t="n">
-        <v>1.69</v>
+        <v>1.03</v>
       </c>
       <c r="F384" t="n">
         <v>0</v>
@@ -16182,42 +16182,42 @@
         <v>1</v>
       </c>
       <c r="I384" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J384" t="n">
         <v>0</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adelaide University </t>
+          <t xml:space="preserve">Sturt Lions </t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Salisbury Inter</t>
+          <t xml:space="preserve"> West Torrens Birkalla</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="D385" t="n">
-        <v>1.97</v>
+        <v>1.53</v>
       </c>
       <c r="E385" t="n">
-        <v>1.03</v>
+        <v>3.22</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
       </c>
       <c r="G385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H385" t="n">
         <v>1</v>
@@ -16230,46 +16230,1768 @@
       </c>
       <c r="K385" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sturt Lions </t>
+          <t xml:space="preserve">Tokyo Verdy </t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t xml:space="preserve"> West Torrens Birkalla</t>
+          <t xml:space="preserve"> FC Tokyo</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>4.75</v>
+        <v>2.41</v>
       </c>
       <c r="D386" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="E386" t="n">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="F386" t="n">
+        <v>1</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0</v>
+      </c>
+      <c r="H386" t="n">
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>0</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ehime FC </t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kagoshima United</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D387" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E387" t="n">
+        <v>0.1999999999999997</v>
+      </c>
+      <c r="F387" t="n">
+        <v>1</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0</v>
+      </c>
+      <c r="H387" t="n">
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>0</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iwaki FC </t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Shimizu S-Pulse</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D388" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E388" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F388" t="n">
+        <v>1</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0</v>
+      </c>
+      <c r="H388" t="n">
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>0</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Port Melbourne Sharks </t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dandenong Thunder</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="D389" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E389" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F389" t="n">
+        <v>0</v>
+      </c>
+      <c r="G389" t="n">
+        <v>1</v>
+      </c>
+      <c r="H389" t="n">
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>0</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valentine FC </t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Weston Workers FC</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D390" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E390" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="F390" t="n">
+        <v>0</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0</v>
+      </c>
+      <c r="H390" t="n">
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>1</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brisbane City FC </t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wolves FC</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
         <v>1.53</v>
       </c>
-      <c r="E386" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="F386" t="n">
-        <v>0</v>
-      </c>
-      <c r="G386" t="n">
-        <v>1</v>
-      </c>
-      <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>0</v>
-      </c>
-      <c r="J386" t="n">
-        <v>0</v>
-      </c>
-      <c r="K386" t="inlineStr">
+      <c r="D391" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E391" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="F391" t="n">
+        <v>0</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0</v>
+      </c>
+      <c r="H391" t="n">
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>0</v>
+      </c>
+      <c r="J391" t="n">
+        <v>1</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kingborough Lions United FC </t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Launceston City FC</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="D392" t="n">
+        <v>10</v>
+      </c>
+      <c r="E392" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="F392" t="n">
+        <v>0</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0</v>
+      </c>
+      <c r="H392" t="n">
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>1</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Western Knights SC </t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Armadale SC</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D393" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E393" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="F393" t="n">
+        <v>0</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0</v>
+      </c>
+      <c r="H393" t="n">
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>1</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southern District Football Club </t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hong Kong Rangers</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D394" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E394" t="n">
+        <v>3</v>
+      </c>
+      <c r="F394" t="n">
+        <v>0</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0</v>
+      </c>
+      <c r="H394" t="n">
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>1</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chongqing Yongchuan </t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Guangdong Meizhou Hakka FC</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D395" t="n">
+        <v>3</v>
+      </c>
+      <c r="E395" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F395" t="n">
+        <v>0</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0</v>
+      </c>
+      <c r="H395" t="n">
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>1</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wuhan Jianghan University </t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Zhejiang Hangzhou</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D396" t="n">
+        <v>24</v>
+      </c>
+      <c r="E396" t="n">
+        <v>22.99</v>
+      </c>
+      <c r="F396" t="n">
+        <v>0</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0</v>
+      </c>
+      <c r="H396" t="n">
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>1</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brisbane Roar FC </t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Newcastle United Jets FC</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D397" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E397" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F397" t="n">
+        <v>0</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0</v>
+      </c>
+      <c r="H397" t="n">
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>1</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henan Songshan Longmen </t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nantong Zhiyun</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="D398" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="E398" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F398" t="n">
+        <v>0</v>
+      </c>
+      <c r="G398" t="n">
+        <v>1</v>
+      </c>
+      <c r="H398" t="n">
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>0</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jeju United FC </t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gimcheon Sangmu FC</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D399" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E399" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F399" t="n">
+        <v>0</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0</v>
+      </c>
+      <c r="H399" t="n">
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>0</v>
+      </c>
+      <c r="J399" t="n">
+        <v>1</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ulsan Hyundai FC </t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gangwon FC</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D400" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E400" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="F400" t="n">
+        <v>0</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0</v>
+      </c>
+      <c r="H400" t="n">
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>0</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bucheon FC </t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Seongnam Ilhwa</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D401" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E401" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F401" t="n">
+        <v>0</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0</v>
+      </c>
+      <c r="H401" t="n">
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>0</v>
+      </c>
+      <c r="J401" t="n">
+        <v>1</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Busan I Park </t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Anyang</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D402" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E402" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F402" t="n">
+        <v>1</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0</v>
+      </c>
+      <c r="H402" t="n">
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>0</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maitland FC </t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lake Macquarie FC</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="D403" t="n">
+        <v>16</v>
+      </c>
+      <c r="E403" t="n">
+        <v>14.97</v>
+      </c>
+      <c r="F403" t="n">
+        <v>0</v>
+      </c>
+      <c r="G403" t="n">
+        <v>1</v>
+      </c>
+      <c r="H403" t="n">
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>0</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southside Eagles </t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> St George Willawong FC</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D404" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="E404" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="F404" t="n">
+        <v>0</v>
+      </c>
+      <c r="G404" t="n">
+        <v>1</v>
+      </c>
+      <c r="H404" t="n">
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>0</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dalian Zhixing FC </t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Liaoning Shenyang Urban</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D405" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="E405" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="F405" t="n">
+        <v>1</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0</v>
+      </c>
+      <c r="H405" t="n">
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>0</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS Concordia Chiajna </t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSM Slatina</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D406" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E406" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F406" t="n">
+        <v>0</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0</v>
+      </c>
+      <c r="H406" t="n">
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>1</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CSM Alexandria </t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACS Champions FC Arges</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D407" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E407" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="F407" t="n">
+        <v>0</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0</v>
+      </c>
+      <c r="H407" t="n">
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>1</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CSM Resita </t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Metaloglobus Bucuresti</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D408" t="n">
+        <v>3</v>
+      </c>
+      <c r="E408" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="F408" t="n">
+        <v>0</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0</v>
+      </c>
+      <c r="H408" t="n">
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>0</v>
+      </c>
+      <c r="J408" t="n">
+        <v>1</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Altona Magic SC </t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> St Albans Saints</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D409" t="n">
+        <v>3</v>
+      </c>
+      <c r="E409" t="n">
+        <v>0.9500000000000002</v>
+      </c>
+      <c r="F409" t="n">
+        <v>1</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0</v>
+      </c>
+      <c r="H409" t="n">
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>0</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hume City </t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dandenong City SC</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D410" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E410" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F410" t="n">
+        <v>0</v>
+      </c>
+      <c r="G410" t="n">
+        <v>1</v>
+      </c>
+      <c r="H410" t="n">
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>0</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Real Kashmir </t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Namdhari Sports Academy</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D411" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E411" t="n">
+        <v>5.510000000000001</v>
+      </c>
+      <c r="F411" t="n">
+        <v>0</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0</v>
+      </c>
+      <c r="H411" t="n">
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>0</v>
+      </c>
+      <c r="J411" t="n">
+        <v>1</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marconi Stallions </t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Manly United FC</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="D412" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E412" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="F412" t="n">
+        <v>0</v>
+      </c>
+      <c r="G412" t="n">
+        <v>1</v>
+      </c>
+      <c r="H412" t="n">
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>0</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t xml:space="preserve">St George Saints FC </t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wollongong Wolves FC</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D413" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="E413" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F413" t="n">
+        <v>0</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0</v>
+      </c>
+      <c r="H413" t="n">
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>0</v>
+      </c>
+      <c r="J413" t="n">
+        <v>1</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gold Coast United FC </t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Redlands United FC</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D414" t="n">
+        <v>5</v>
+      </c>
+      <c r="E414" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="F414" t="n">
+        <v>0</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0</v>
+      </c>
+      <c r="H414" t="n">
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>1</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AC Milan </t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Empoli FC</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="D415" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E415" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="F415" t="n">
+        <v>1</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0</v>
+      </c>
+      <c r="H415" t="n">
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>0</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cagliari Calcio </t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atalanta BC</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D416" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E416" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F416" t="n">
+        <v>0</v>
+      </c>
+      <c r="G416" t="n">
+        <v>1</v>
+      </c>
+      <c r="H416" t="n">
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>0</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benevento Calcio </t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ternana Calcio U19</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="D417" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E417" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="F417" t="n">
+        <v>1</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0</v>
+      </c>
+      <c r="H417" t="n">
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>0</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spezia Calcio </t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cosenza Calcio</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>2</v>
+      </c>
+      <c r="D418" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E418" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F418" t="n">
+        <v>0</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0</v>
+      </c>
+      <c r="H418" t="n">
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>0</v>
+      </c>
+      <c r="J418" t="n">
+        <v>1</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moreton City Excelsior FC 2 </t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ipswich FC</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D419" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E419" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="F419" t="n">
+        <v>1</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0</v>
+      </c>
+      <c r="H419" t="n">
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>0</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sydney FC </t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Western Sydney Wanderers</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D420" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E420" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="F420" t="n">
+        <v>0</v>
+      </c>
+      <c r="G420" t="n">
+        <v>1</v>
+      </c>
+      <c r="H420" t="n">
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>0</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Obolon Kiev </t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Minaj</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D421" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E421" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F421" t="n">
+        <v>0</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0</v>
+      </c>
+      <c r="H421" t="n">
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>0</v>
+      </c>
+      <c r="J421" t="n">
+        <v>1</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CF Os Belenenses </t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Academico de Viseu FC</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D422" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E422" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F422" t="n">
+        <v>0</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0</v>
+      </c>
+      <c r="H422" t="n">
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>0</v>
+      </c>
+      <c r="J422" t="n">
+        <v>1</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Strasbourg </t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Reims</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="D423" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="E423" t="n">
+        <v>0.4899999999999998</v>
+      </c>
+      <c r="F423" t="n">
+        <v>0</v>
+      </c>
+      <c r="G423" t="n">
+        <v>1</v>
+      </c>
+      <c r="H423" t="n">
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>0</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NK Varazdin </t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NK Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D424" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E424" t="n">
+        <v>0.1500000000000004</v>
+      </c>
+      <c r="F424" t="n">
+        <v>0</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0</v>
+      </c>
+      <c r="H424" t="n">
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>1</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PFC Slavia Sofia </t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Hebar Pazardzhik</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D425" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E425" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="F425" t="n">
+        <v>0</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0</v>
+      </c>
+      <c r="H425" t="n">
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>0</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CD Estepona </t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Cartagena B</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D426" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E426" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="F426" t="n">
+        <v>0</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0</v>
+      </c>
+      <c r="H426" t="n">
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>0</v>
+      </c>
+      <c r="J426" t="n">
+        <v>1</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CD Manchego Ciudad Real </t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA Antoniano</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="D427" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E427" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F427" t="n">
+        <v>0</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0</v>
+      </c>
+      <c r="H427" t="n">
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>1</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Austria Lustenau </t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SCR Altach</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D428" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E428" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F428" t="n">
+        <v>0</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0</v>
+      </c>
+      <c r="H428" t="n">
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>0</v>
+      </c>
+      <c r="J428" t="n">
+        <v>1</v>
+      </c>
+      <c r="K428" t="inlineStr">
         <is>
           <t>pending</t>
         </is>

--- a/ml.xlsx
+++ b/ml.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K428"/>
+  <dimension ref="A1:K505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17788,29 +17788,29 @@
       </c>
       <c r="K423" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t xml:space="preserve">NK Varazdin </t>
+          <t xml:space="preserve">CD Estepona </t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NK Lokomotiva Zagreb</t>
+          <t xml:space="preserve"> FC Cartagena B</t>
         </is>
       </c>
       <c r="C424" t="n">
-        <v>2.55</v>
+        <v>1.33</v>
       </c>
       <c r="D424" t="n">
-        <v>2.7</v>
+        <v>7.3</v>
       </c>
       <c r="E424" t="n">
-        <v>0.1500000000000004</v>
+        <v>5.97</v>
       </c>
       <c r="F424" t="n">
         <v>0</v>
@@ -17822,36 +17822,36 @@
         <v>1</v>
       </c>
       <c r="I424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t xml:space="preserve">PFC Slavia Sofia </t>
+          <t xml:space="preserve">CD Manchego Ciudad Real </t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FK Hebar Pazardzhik</t>
+          <t xml:space="preserve"> CA Antoniano</t>
         </is>
       </c>
       <c r="C425" t="n">
-        <v>1.39</v>
+        <v>1.96</v>
       </c>
       <c r="D425" t="n">
-        <v>7.1</v>
+        <v>3.6</v>
       </c>
       <c r="E425" t="n">
-        <v>5.71</v>
+        <v>1.64</v>
       </c>
       <c r="F425" t="n">
         <v>0</v>
@@ -17863,36 +17863,36 @@
         <v>1</v>
       </c>
       <c r="I425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J425" t="n">
         <v>0</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t xml:space="preserve">CD Estepona </t>
+          <t xml:space="preserve">Austria Lustenau </t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FC Cartagena B</t>
+          <t xml:space="preserve"> SCR Altach</t>
         </is>
       </c>
       <c r="C426" t="n">
-        <v>1.33</v>
+        <v>4.5</v>
       </c>
       <c r="D426" t="n">
-        <v>7.3</v>
+        <v>1.84</v>
       </c>
       <c r="E426" t="n">
-        <v>5.97</v>
+        <v>2.66</v>
       </c>
       <c r="F426" t="n">
         <v>0</v>
@@ -17911,29 +17911,29 @@
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t xml:space="preserve">CD Manchego Ciudad Real </t>
+          <t xml:space="preserve">FC Torino </t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA Antoniano</t>
+          <t xml:space="preserve"> Juventus</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>1.96</v>
+        <v>3.86</v>
       </c>
       <c r="D427" t="n">
-        <v>3.6</v>
+        <v>2.37</v>
       </c>
       <c r="E427" t="n">
-        <v>1.64</v>
+        <v>1.49</v>
       </c>
       <c r="F427" t="n">
         <v>0</v>
@@ -17952,46 +17952,3203 @@
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t xml:space="preserve">Austria Lustenau </t>
+          <t xml:space="preserve">Adana Demirspor </t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SCR Altach</t>
+          <t xml:space="preserve"> Kayserispor</t>
         </is>
       </c>
       <c r="C428" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="D428" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E428" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F428" t="n">
+        <v>0</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0</v>
+      </c>
+      <c r="H428" t="n">
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>1</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Besiktas Istanbul </t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Samsunspor</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D429" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E429" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F429" t="n">
+        <v>1</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0</v>
+      </c>
+      <c r="H429" t="n">
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>0</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vasteras SK </t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Halmstads BK</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D430" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E430" t="n">
+        <v>2.819999999999999</v>
+      </c>
+      <c r="F430" t="n">
+        <v>0</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0</v>
+      </c>
+      <c r="H430" t="n">
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>0</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Baden </t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Sion</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="D431" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="E431" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="F431" t="n">
+        <v>0</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0</v>
+      </c>
+      <c r="H431" t="n">
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>0</v>
+      </c>
+      <c r="J431" t="n">
+        <v>1</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Thun </t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AC Bellinzona</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D432" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E432" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="F432" t="n">
+        <v>0</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0</v>
+      </c>
+      <c r="H432" t="n">
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>0</v>
+      </c>
+      <c r="J432" t="n">
+        <v>1</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dinan-Lehon FC </t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AF Virois</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D433" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E433" t="n">
+        <v>0.9500000000000002</v>
+      </c>
+      <c r="F433" t="n">
+        <v>0</v>
+      </c>
+      <c r="G433" t="n">
+        <v>1</v>
+      </c>
+      <c r="H433" t="n">
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>0</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FCM Aubervilliers </t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lorient 2</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D434" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E434" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="F434" t="n">
+        <v>0</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0</v>
+      </c>
+      <c r="H434" t="n">
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>0</v>
+      </c>
+      <c r="J434" t="n">
+        <v>1</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RC Grasse </t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Le Puy Foot 43 Auvergne</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D435" t="n">
+        <v>3</v>
+      </c>
+      <c r="E435" t="n">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="F435" t="n">
+        <v>0</v>
+      </c>
+      <c r="G435" t="n">
+        <v>1</v>
+      </c>
+      <c r="H435" t="n">
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>0</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SC Toulon </t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Olympique Ales</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D436" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E436" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="F436" t="n">
+        <v>0</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0</v>
+      </c>
+      <c r="H436" t="n">
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>0</v>
+      </c>
+      <c r="J436" t="n">
+        <v>1</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Santiago Morning </t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD Antofagasta</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D437" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E437" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="F437" t="n">
+        <v>0</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0</v>
+      </c>
+      <c r="H437" t="n">
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>1</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arandina CF </t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Real Aviles CF</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D438" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E438" t="n">
+        <v>0.5500000000000003</v>
+      </c>
+      <c r="F438" t="n">
+        <v>0</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0</v>
+      </c>
+      <c r="H438" t="n">
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>1</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Altay Izmir </t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Corum FK</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>29</v>
+      </c>
+      <c r="D439" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E439" t="n">
+        <v>27.93</v>
+      </c>
+      <c r="F439" t="n">
+        <v>0</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0</v>
+      </c>
+      <c r="H439" t="n">
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>1</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Hradec Kralove </t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. FC Slovacko Uherske Hradiste</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D440" t="n">
+        <v>3</v>
+      </c>
+      <c r="E440" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="F440" t="n">
+        <v>0</v>
+      </c>
+      <c r="G440" t="n">
+        <v>1</v>
+      </c>
+      <c r="H440" t="n">
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>0</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maghreb AS de Fes </t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA Youssoufia Berrechid</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D441" t="n">
+        <v>5</v>
+      </c>
+      <c r="E441" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="F441" t="n">
+        <v>0</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0</v>
+      </c>
+      <c r="H441" t="n">
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>0</v>
+      </c>
+      <c r="J441" t="n">
+        <v>1</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Harju JK Laagri </t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tartu JK Welco</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D442" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E442" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F442" t="n">
+        <v>0</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0</v>
+      </c>
+      <c r="H442" t="n">
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>0</v>
+      </c>
+      <c r="J442" t="n">
+        <v>1</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FCI Levadia Tallinn </t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Nomme United</t>
+        </is>
+      </c>
+      <c r="C443" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D443" t="n">
+        <v>22</v>
+      </c>
+      <c r="E443" t="n">
+        <v>20.93</v>
+      </c>
+      <c r="F443" t="n">
+        <v>1</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0</v>
+      </c>
+      <c r="H443" t="n">
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>0</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CF Fuenlabrada </t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CF Rayo Majadahonda</t>
+        </is>
+      </c>
+      <c r="C444" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="D444" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E444" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="F444" t="n">
+        <v>0</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0</v>
+      </c>
+      <c r="H444" t="n">
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>0</v>
+      </c>
+      <c r="J444" t="n">
+        <v>1</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cultural Leonesa </t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Real Sociedad San Sebastian B</t>
+        </is>
+      </c>
+      <c r="C445" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D445" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E445" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F445" t="n">
+        <v>0</v>
+      </c>
+      <c r="G445" t="n">
+        <v>1</v>
+      </c>
+      <c r="H445" t="n">
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>0</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AS Trencin </t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Vion Zlate Moravce - Vrable</t>
+        </is>
+      </c>
+      <c r="C446" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="D446" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="E446" t="n">
+        <v>6.279999999999999</v>
+      </c>
+      <c r="F446" t="n">
+        <v>0</v>
+      </c>
+      <c r="G446" t="n">
+        <v>1</v>
+      </c>
+      <c r="H446" t="n">
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>0</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Kosice </t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MFK Skalica</t>
+        </is>
+      </c>
+      <c r="C447" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="D447" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E447" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F447" t="n">
+        <v>0</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0</v>
+      </c>
+      <c r="H447" t="n">
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>0</v>
+      </c>
+      <c r="J447" t="n">
+        <v>1</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFk Dukla Banska Bystrica </t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MFK Zemplin Michalovce</t>
+        </is>
+      </c>
+      <c r="C448" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D448" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E448" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F448" t="n">
+        <v>0</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0</v>
+      </c>
+      <c r="H448" t="n">
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>1</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CODM Meknes </t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ASS Association Sportive de Sale</t>
+        </is>
+      </c>
+      <c r="C449" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D449" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="E449" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="F449" t="n">
+        <v>0</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0</v>
+      </c>
+      <c r="H449" t="n">
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>0</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wisla Plock </t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wisla Krakow</t>
+        </is>
+      </c>
+      <c r="C450" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D450" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E450" t="n">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="F450" t="n">
+        <v>0</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0</v>
+      </c>
+      <c r="H450" t="n">
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>0</v>
+      </c>
+      <c r="J450" t="n">
+        <v>1</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Almere City FC </t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sparta Rotterdam</t>
+        </is>
+      </c>
+      <c r="C451" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D451" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E451" t="n">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="F451" t="n">
+        <v>0</v>
+      </c>
+      <c r="G451" t="n">
+        <v>1</v>
+      </c>
+      <c r="H451" t="n">
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>0</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estoril Praia </t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Braga</t>
+        </is>
+      </c>
+      <c r="C452" t="n">
         <v>4.5</v>
       </c>
-      <c r="D428" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="E428" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="F428" t="n">
-        <v>0</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0</v>
-      </c>
-      <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>0</v>
-      </c>
-      <c r="J428" t="n">
-        <v>1</v>
-      </c>
-      <c r="K428" t="inlineStr">
+      <c r="D452" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E452" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="F452" t="n">
+        <v>0</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0</v>
+      </c>
+      <c r="H452" t="n">
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>0</v>
+      </c>
+      <c r="J452" t="n">
+        <v>1</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Levante </t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SD Amorebieta</t>
+        </is>
+      </c>
+      <c r="C453" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D453" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E453" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F453" t="n">
+        <v>0</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0</v>
+      </c>
+      <c r="H453" t="n">
+        <v>1</v>
+      </c>
+      <c r="I453" t="n">
+        <v>0</v>
+      </c>
+      <c r="J453" t="n">
+        <v>1</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alianza Atletico </t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Union Comercio</t>
+        </is>
+      </c>
+      <c r="C454" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D454" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E454" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="F454" t="n">
+        <v>0</v>
+      </c>
+      <c r="G454" t="n">
+        <v>1</v>
+      </c>
+      <c r="H454" t="n">
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>0</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estoril Praia </t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Braga</t>
+        </is>
+      </c>
+      <c r="C455" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D455" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E455" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="F455" t="n">
+        <v>0</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0</v>
+      </c>
+      <c r="H455" t="n">
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>0</v>
+      </c>
+      <c r="J455" t="n">
+        <v>1</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Porto Velho Ec/Ro </t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ji-Parana FC RO</t>
+        </is>
+      </c>
+      <c r="C456" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D456" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E456" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="F456" t="n">
+        <v>0</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0</v>
+      </c>
+      <c r="H456" t="n">
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>1</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vanraure Hachinohe FC </t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Imabari</t>
+        </is>
+      </c>
+      <c r="C457" t="n">
+        <v>3</v>
+      </c>
+      <c r="D457" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E457" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="F457" t="n">
+        <v>0</v>
+      </c>
+      <c r="G457" t="n">
+        <v>1</v>
+      </c>
+      <c r="H457" t="n">
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>0</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iga FC Kunoichi </t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sfida Setagaya FC</t>
+        </is>
+      </c>
+      <c r="C458" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="D458" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E458" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F458" t="n">
+        <v>1</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0</v>
+      </c>
+      <c r="H458" t="n">
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>0</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albirex Niigata </t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Omiya Ardija Ventus</t>
+        </is>
+      </c>
+      <c r="C459" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D459" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E459" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="F459" t="n">
+        <v>1</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0</v>
+      </c>
+      <c r="H459" t="n">
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>0</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JEF United Ichihara Chiba </t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AC Nagano Parceiro</t>
+        </is>
+      </c>
+      <c r="C460" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D460" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E460" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F460" t="n">
+        <v>0</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0</v>
+      </c>
+      <c r="H460" t="n">
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>0</v>
+      </c>
+      <c r="J460" t="n">
+        <v>1</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Orenburg </t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Nizhny Novgorod</t>
+        </is>
+      </c>
+      <c r="C461" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D461" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E461" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F461" t="n">
+        <v>0</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0</v>
+      </c>
+      <c r="H461" t="n">
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>0</v>
+      </c>
+      <c r="J461" t="n">
+        <v>1</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Carl Zeiss Jena </t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hamburger SV</t>
+        </is>
+      </c>
+      <c r="C462" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D462" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E462" t="n">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="F462" t="n">
+        <v>1</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0</v>
+      </c>
+      <c r="H462" t="n">
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>0</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Ingolstadt 04 </t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bayern Munich II</t>
+        </is>
+      </c>
+      <c r="C463" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="D463" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E463" t="n">
+        <v>0.8000000000000003</v>
+      </c>
+      <c r="F463" t="n">
+        <v>1</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0</v>
+      </c>
+      <c r="H463" t="n">
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>0</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Logan Lightning </t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eastern Suburbs FC</t>
+        </is>
+      </c>
+      <c r="C464" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D464" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E464" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="F464" t="n">
+        <v>0</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0</v>
+      </c>
+      <c r="H464" t="n">
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>1</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SD Formentera </t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UE Sant Andreu</t>
+        </is>
+      </c>
+      <c r="C465" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D465" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E465" t="n">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="F465" t="n">
+        <v>0</v>
+      </c>
+      <c r="G465" t="n">
+        <v>0</v>
+      </c>
+      <c r="H465" t="n">
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>0</v>
+      </c>
+      <c r="J465" t="n">
+        <v>1</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Getafe CF B </t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> San Sebastian Reyes</t>
+        </is>
+      </c>
+      <c r="C466" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="D466" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E466" t="n">
+        <v>0.5500000000000003</v>
+      </c>
+      <c r="F466" t="n">
+        <v>0</v>
+      </c>
+      <c r="G466" t="n">
+        <v>0</v>
+      </c>
+      <c r="H466" t="n">
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>1</v>
+      </c>
+      <c r="J466" t="n">
+        <v>0</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Viimsi JK </t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Elva</t>
+        </is>
+      </c>
+      <c r="C467" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="D467" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E467" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="F467" t="n">
+        <v>1</v>
+      </c>
+      <c r="G467" t="n">
+        <v>0</v>
+      </c>
+      <c r="H467" t="n">
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>0</v>
+      </c>
+      <c r="J467" t="n">
+        <v>0</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CD Basconia </t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SD Deusto</t>
+        </is>
+      </c>
+      <c r="C468" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D468" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E468" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F468" t="n">
+        <v>0</v>
+      </c>
+      <c r="G468" t="n">
+        <v>0</v>
+      </c>
+      <c r="H468" t="n">
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>1</v>
+      </c>
+      <c r="J468" t="n">
+        <v>0</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Patacona CF </t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Jove Espanol San Vicente</t>
+        </is>
+      </c>
+      <c r="C469" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D469" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="E469" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="F469" t="n">
+        <v>1</v>
+      </c>
+      <c r="G469" t="n">
+        <v>0</v>
+      </c>
+      <c r="H469" t="n">
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>0</v>
+      </c>
+      <c r="J469" t="n">
+        <v>0</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AD Parla </t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CF Pozuelo de Alarcon</t>
+        </is>
+      </c>
+      <c r="C470" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D470" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E470" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F470" t="n">
+        <v>0</v>
+      </c>
+      <c r="G470" t="n">
+        <v>0</v>
+      </c>
+      <c r="H470" t="n">
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>1</v>
+      </c>
+      <c r="J470" t="n">
+        <v>0</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CD Canillas </t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cuc Villalba</t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D471" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E471" t="n">
+        <v>0.8000000000000003</v>
+      </c>
+      <c r="F471" t="n">
+        <v>0</v>
+      </c>
+      <c r="G471" t="n">
+        <v>0</v>
+      </c>
+      <c r="H471" t="n">
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>0</v>
+      </c>
+      <c r="J471" t="n">
+        <v>0</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atletic Club d'Escaldes </t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Ordino</t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D472" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="E472" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F472" t="n">
+        <v>1</v>
+      </c>
+      <c r="G472" t="n">
+        <v>0</v>
+      </c>
+      <c r="H472" t="n">
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>0</v>
+      </c>
+      <c r="J472" t="n">
+        <v>0</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liverpool </t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Crystal Palace</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D473" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="E473" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="F473" t="n">
+        <v>1</v>
+      </c>
+      <c r="G473" t="n">
+        <v>0</v>
+      </c>
+      <c r="H473" t="n">
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>0</v>
+      </c>
+      <c r="J473" t="n">
+        <v>0</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t xml:space="preserve">West Ham </t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fulham</t>
+        </is>
+      </c>
+      <c r="C474" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D474" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="E474" t="n">
+        <v>0.3399999999999999</v>
+      </c>
+      <c r="F474" t="n">
+        <v>0</v>
+      </c>
+      <c r="G474" t="n">
+        <v>0</v>
+      </c>
+      <c r="H474" t="n">
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>0</v>
+      </c>
+      <c r="J474" t="n">
+        <v>1</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sassuolo </t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Milan</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="D475" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E475" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F475" t="n">
+        <v>0</v>
+      </c>
+      <c r="G475" t="n">
+        <v>0</v>
+      </c>
+      <c r="H475" t="n">
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>0</v>
+      </c>
+      <c r="J475" t="n">
+        <v>1</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clermont Foot 63 </t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Montpellier</t>
+        </is>
+      </c>
+      <c r="C476" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="D476" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="E476" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="F476" t="n">
+        <v>0</v>
+      </c>
+      <c r="G476" t="n">
+        <v>0</v>
+      </c>
+      <c r="H476" t="n">
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>0</v>
+      </c>
+      <c r="J476" t="n">
+        <v>1</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Utrecht </t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Go Ahead Eagles</t>
+        </is>
+      </c>
+      <c r="C477" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D477" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E477" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="F477" t="n">
+        <v>1</v>
+      </c>
+      <c r="G477" t="n">
+        <v>0</v>
+      </c>
+      <c r="H477" t="n">
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>0</v>
+      </c>
+      <c r="J477" t="n">
+        <v>0</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fortuna Sittard </t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Feyenoord Rotterdam</t>
+        </is>
+      </c>
+      <c r="C478" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="D478" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E478" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="F478" t="n">
+        <v>0</v>
+      </c>
+      <c r="G478" t="n">
+        <v>0</v>
+      </c>
+      <c r="H478" t="n">
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>0</v>
+      </c>
+      <c r="J478" t="n">
+        <v>0</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caykur Rizespor </t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Antalyaspor</t>
+        </is>
+      </c>
+      <c r="C479" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D479" t="n">
+        <v>4</v>
+      </c>
+      <c r="E479" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F479" t="n">
+        <v>0</v>
+      </c>
+      <c r="G479" t="n">
+        <v>0</v>
+      </c>
+      <c r="H479" t="n">
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>1</v>
+      </c>
+      <c r="J479" t="n">
+        <v>0</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hatayspor Antakya </t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="C480" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D480" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E480" t="n">
+        <v>6</v>
+      </c>
+      <c r="F480" t="n">
+        <v>0</v>
+      </c>
+      <c r="G480" t="n">
+        <v>1</v>
+      </c>
+      <c r="H480" t="n">
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>0</v>
+      </c>
+      <c r="J480" t="n">
+        <v>0</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Viking FK </t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SK Brann</t>
+        </is>
+      </c>
+      <c r="C481" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D481" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E481" t="n">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="F481" t="n">
+        <v>0</v>
+      </c>
+      <c r="G481" t="n">
+        <v>1</v>
+      </c>
+      <c r="H481" t="n">
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>0</v>
+      </c>
+      <c r="J481" t="n">
+        <v>0</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Zorya Lugansk </t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Chernomorets Odessa</t>
+        </is>
+      </c>
+      <c r="C482" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D482" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E482" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F482" t="n">
+        <v>0</v>
+      </c>
+      <c r="G482" t="n">
+        <v>1</v>
+      </c>
+      <c r="H482" t="n">
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>0</v>
+      </c>
+      <c r="J482" t="n">
+        <v>0</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asd Alcione Milano </t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AC Bra</t>
+        </is>
+      </c>
+      <c r="C483" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="D483" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E483" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="F483" t="n">
+        <v>0</v>
+      </c>
+      <c r="G483" t="n">
+        <v>0</v>
+      </c>
+      <c r="H483" t="n">
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>1</v>
+      </c>
+      <c r="J483" t="n">
+        <v>0</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asti Calcio </t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AC Gozzano</t>
+        </is>
+      </c>
+      <c r="C484" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D484" t="n">
+        <v>4</v>
+      </c>
+      <c r="E484" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="F484" t="n">
+        <v>0</v>
+      </c>
+      <c r="G484" t="n">
+        <v>1</v>
+      </c>
+      <c r="H484" t="n">
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>0</v>
+      </c>
+      <c r="J484" t="n">
+        <v>0</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Citta Di Varese </t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pinerolo</t>
+        </is>
+      </c>
+      <c r="C485" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="D485" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E485" t="n">
+        <v>4.890000000000001</v>
+      </c>
+      <c r="F485" t="n">
+        <v>0</v>
+      </c>
+      <c r="G485" t="n">
+        <v>0</v>
+      </c>
+      <c r="H485" t="n">
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>1</v>
+      </c>
+      <c r="J485" t="n">
+        <v>0</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Scd Ligorna 1922 </t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SSD Sanremese Calcio</t>
+        </is>
+      </c>
+      <c r="C486" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D486" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E486" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="F486" t="n">
+        <v>1</v>
+      </c>
+      <c r="G486" t="n">
+        <v>0</v>
+      </c>
+      <c r="H486" t="n">
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>0</v>
+      </c>
+      <c r="J486" t="n">
+        <v>0</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Real Sociedad </t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UD Almeria</t>
+        </is>
+      </c>
+      <c r="C487" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="D487" t="n">
+        <v>10.18</v>
+      </c>
+      <c r="E487" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="F487" t="n">
+        <v>1</v>
+      </c>
+      <c r="G487" t="n">
+        <v>0</v>
+      </c>
+      <c r="H487" t="n">
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>0</v>
+      </c>
+      <c r="J487" t="n">
+        <v>0</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inter </t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cagliari</t>
+        </is>
+      </c>
+      <c r="C488" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D488" t="n">
+        <v>16</v>
+      </c>
+      <c r="E488" t="n">
+        <v>14.79</v>
+      </c>
+      <c r="F488" t="n">
+        <v>0</v>
+      </c>
+      <c r="G488" t="n">
+        <v>0</v>
+      </c>
+      <c r="H488" t="n">
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>0</v>
+      </c>
+      <c r="J488" t="n">
+        <v>1</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lyon </t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brest</t>
+        </is>
+      </c>
+      <c r="C489" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="D489" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="E489" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="F489" t="n">
+        <v>1</v>
+      </c>
+      <c r="G489" t="n">
+        <v>0</v>
+      </c>
+      <c r="H489" t="n">
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>0</v>
+      </c>
+      <c r="J489" t="n">
+        <v>0</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Racing Club de Ferrol </t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SD Huesca</t>
+        </is>
+      </c>
+      <c r="C490" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D490" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E490" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F490" t="n">
+        <v>1</v>
+      </c>
+      <c r="G490" t="n">
+        <v>0</v>
+      </c>
+      <c r="H490" t="n">
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>0</v>
+      </c>
+      <c r="J490" t="n">
+        <v>0</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AC Goianiense GO </t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CR Flamengo RJ</t>
+        </is>
+      </c>
+      <c r="C491" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="D491" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E491" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="F491" t="n">
+        <v>1</v>
+      </c>
+      <c r="G491" t="n">
+        <v>0</v>
+      </c>
+      <c r="H491" t="n">
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>0</v>
+      </c>
+      <c r="J491" t="n">
+        <v>0</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Paranaense PR </t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cuiaba Esporte Clube MT</t>
+        </is>
+      </c>
+      <c r="C492" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D492" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="E492" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="F492" t="n">
+        <v>0</v>
+      </c>
+      <c r="G492" t="n">
+        <v>0</v>
+      </c>
+      <c r="H492" t="n">
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>0</v>
+      </c>
+      <c r="J492" t="n">
+        <v>1</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CR Vasco da Gama RJ </t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gremio FB Porto Alegrense RS</t>
+        </is>
+      </c>
+      <c r="C493" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="D493" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E493" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F493" t="n">
+        <v>1</v>
+      </c>
+      <c r="G493" t="n">
+        <v>0</v>
+      </c>
+      <c r="H493" t="n">
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>0</v>
+      </c>
+      <c r="J493" t="n">
+        <v>0</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SC Corinthians SP </t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atletico Mineiro MG</t>
+        </is>
+      </c>
+      <c r="C494" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="D494" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="E494" t="n">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="F494" t="n">
+        <v>0</v>
+      </c>
+      <c r="G494" t="n">
+        <v>1</v>
+      </c>
+      <c r="H494" t="n">
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>0</v>
+      </c>
+      <c r="J494" t="n">
+        <v>0</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Sarmiento </t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA Platense</t>
+        </is>
+      </c>
+      <c r="C495" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D495" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E495" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F495" t="n">
+        <v>0</v>
+      </c>
+      <c r="G495" t="n">
+        <v>0</v>
+      </c>
+      <c r="H495" t="n">
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>0</v>
+      </c>
+      <c r="J495" t="n">
+        <v>0</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atlanta United FC </t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Philadelphia Union</t>
+        </is>
+      </c>
+      <c r="C496" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D496" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="E496" t="n">
+        <v>0.5800000000000001</v>
+      </c>
+      <c r="F496" t="n">
+        <v>0</v>
+      </c>
+      <c r="G496" t="n">
+        <v>0</v>
+      </c>
+      <c r="H496" t="n">
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>0</v>
+      </c>
+      <c r="J496" t="n">
+        <v>1</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rayo Zuliano </t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Deportivo La Guaira</t>
+        </is>
+      </c>
+      <c r="C497" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D497" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E497" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F497" t="n">
+        <v>0</v>
+      </c>
+      <c r="G497" t="n">
+        <v>0</v>
+      </c>
+      <c r="H497" t="n">
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>1</v>
+      </c>
+      <c r="J497" t="n">
+        <v>0</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boyaca Chico FC </t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Boyaca Patriotas</t>
+        </is>
+      </c>
+      <c r="C498" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D498" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E498" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F498" t="n">
+        <v>1</v>
+      </c>
+      <c r="G498" t="n">
+        <v>0</v>
+      </c>
+      <c r="H498" t="n">
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>0</v>
+      </c>
+      <c r="J498" t="n">
+        <v>0</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nublense </t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD Palestino</t>
+        </is>
+      </c>
+      <c r="C499" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D499" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E499" t="n">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="F499" t="n">
+        <v>0</v>
+      </c>
+      <c r="G499" t="n">
+        <v>0</v>
+      </c>
+      <c r="H499" t="n">
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>0</v>
+      </c>
+      <c r="J499" t="n">
+        <v>1</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CD de Pronunciamiento </t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Def. de Belgrano de Villa Ramallo</t>
+        </is>
+      </c>
+      <c r="C500" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D500" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E500" t="n">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="F500" t="n">
+        <v>0</v>
+      </c>
+      <c r="G500" t="n">
+        <v>0</v>
+      </c>
+      <c r="H500" t="n">
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>0</v>
+      </c>
+      <c r="J500" t="n">
+        <v>0</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crucero del Norte </t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA Sarmiento de la Banda</t>
+        </is>
+      </c>
+      <c r="C501" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="D501" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E501" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F501" t="n">
+        <v>0</v>
+      </c>
+      <c r="G501" t="n">
+        <v>1</v>
+      </c>
+      <c r="H501" t="n">
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>0</v>
+      </c>
+      <c r="J501" t="n">
+        <v>0</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gimnasia Y Esgrima </t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Douglas Haig</t>
+        </is>
+      </c>
+      <c r="C502" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D502" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E502" t="n">
+        <v>0.04999999999999982</v>
+      </c>
+      <c r="F502" t="n">
+        <v>0</v>
+      </c>
+      <c r="G502" t="n">
+        <v>0</v>
+      </c>
+      <c r="H502" t="n">
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>0</v>
+      </c>
+      <c r="J502" t="n">
+        <v>1</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gutierrez SC </t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CS Estudiantes San Luis</t>
+        </is>
+      </c>
+      <c r="C503" t="n">
+        <v>2</v>
+      </c>
+      <c r="D503" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E503" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F503" t="n">
+        <v>0</v>
+      </c>
+      <c r="G503" t="n">
+        <v>0</v>
+      </c>
+      <c r="H503" t="n">
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>1</v>
+      </c>
+      <c r="J503" t="n">
+        <v>0</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Linqueno </t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sp. Belgrano de S. F.</t>
+        </is>
+      </c>
+      <c r="C504" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D504" t="n">
+        <v>3</v>
+      </c>
+      <c r="E504" t="n">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="F504" t="n">
+        <v>0</v>
+      </c>
+      <c r="G504" t="n">
+        <v>0</v>
+      </c>
+      <c r="H504" t="n">
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>0</v>
+      </c>
+      <c r="J504" t="n">
+        <v>1</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS Italiano </t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Argentino de Quilmes</t>
+        </is>
+      </c>
+      <c r="C505" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D505" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E505" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F505" t="n">
+        <v>0</v>
+      </c>
+      <c r="G505" t="n">
+        <v>0</v>
+      </c>
+      <c r="H505" t="n">
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>1</v>
+      </c>
+      <c r="J505" t="n">
+        <v>0</v>
+      </c>
+      <c r="K505" t="inlineStr">
         <is>
           <t>pending</t>
         </is>

--- a/ml.xlsx
+++ b/ml.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajeyemi.alajede\PycharmProjects\bettingPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A074588-E150-4860-8C14-B8971D9E9585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4F6516-C764-4E5E-8522-898AE5D761AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1901" uniqueCount="1199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1994" uniqueCount="1253">
   <si>
     <t>home</t>
   </si>
@@ -3617,6 +3617,168 @@
   </si>
   <si>
     <t xml:space="preserve"> Avaí U20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zaqatala FK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Araz Saatli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokyo Verdy Beleza </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kanagawa Sagamihara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omiya Ardija Ventus </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Urawa Red Diamonds</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Viktoria Plzen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shakhtar D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FS Jelgava </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Valmiera FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maroons FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Busoga United FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al-Seeb </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Wehda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL Nasr SC (OMA) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oman Club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shabab AL Ahli Club U21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AL Nasr SC U21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hapoel Petach-Tikva </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hapoel Katamon Jerusalem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES Setif U21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Js Saoura U21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cr Belouizdad U21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> US Biskra U21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nc Magra U21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MC Alger U21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Js Kabylie U21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MC Oran U21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usm Alger U21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ES Ben Aknoun U21</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Liverpool</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Leverkusen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fenerbahce Istanbul </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Olympiacos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAOK Thessaloniki </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brugge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botafogo FR RJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AC Goianiense GO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">America de Cali </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AD Pasto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alianza Lima </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sport Boys Association</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSD Independiente del Valle </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mushuc Runa SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barcelona SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CD El Nacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club Aurora </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Independiente Petrolero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Independente EC AP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oratorio AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC Humaita AC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brazil</t>
   </si>
 </sst>
 </file>
@@ -3979,10 +4141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K631"/>
+  <dimension ref="A1:K662"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A612" workbookViewId="0">
-      <selection activeCell="L612" sqref="L1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A650" workbookViewId="0">
+      <selection activeCell="L623" sqref="L1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26070,6 +26232,1091 @@
       </c>
       <c r="K631" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B632" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C632">
+        <v>1.34</v>
+      </c>
+      <c r="D632">
+        <v>6.5</v>
+      </c>
+      <c r="E632">
+        <v>5.16</v>
+      </c>
+      <c r="F632">
+        <v>0</v>
+      </c>
+      <c r="G632">
+        <v>1</v>
+      </c>
+      <c r="H632">
+        <v>1</v>
+      </c>
+      <c r="I632">
+        <v>0</v>
+      </c>
+      <c r="J632">
+        <v>0</v>
+      </c>
+      <c r="K632" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B633" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C633">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D633">
+        <v>12</v>
+      </c>
+      <c r="E633">
+        <v>10.85</v>
+      </c>
+      <c r="F633">
+        <v>0</v>
+      </c>
+      <c r="G633">
+        <v>0</v>
+      </c>
+      <c r="H633">
+        <v>1</v>
+      </c>
+      <c r="I633">
+        <v>0</v>
+      </c>
+      <c r="J633">
+        <v>1</v>
+      </c>
+      <c r="K633" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B634" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C634">
+        <v>8</v>
+      </c>
+      <c r="D634">
+        <v>1.28</v>
+      </c>
+      <c r="E634">
+        <v>6.72</v>
+      </c>
+      <c r="F634">
+        <v>0</v>
+      </c>
+      <c r="G634">
+        <v>0</v>
+      </c>
+      <c r="H634">
+        <v>1</v>
+      </c>
+      <c r="I634">
+        <v>1</v>
+      </c>
+      <c r="J634">
+        <v>0</v>
+      </c>
+      <c r="K634" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>982</v>
+      </c>
+      <c r="B635" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C635">
+        <v>1.41</v>
+      </c>
+      <c r="D635">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="E635">
+        <v>7.56</v>
+      </c>
+      <c r="F635">
+        <v>0</v>
+      </c>
+      <c r="G635">
+        <v>0</v>
+      </c>
+      <c r="H635">
+        <v>1</v>
+      </c>
+      <c r="I635">
+        <v>1</v>
+      </c>
+      <c r="J635">
+        <v>0</v>
+      </c>
+      <c r="K635" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>934</v>
+      </c>
+      <c r="B636" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C636">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D636">
+        <v>1.32</v>
+      </c>
+      <c r="E636">
+        <v>6.879999999999999</v>
+      </c>
+      <c r="F636">
+        <v>0</v>
+      </c>
+      <c r="G636">
+        <v>0</v>
+      </c>
+      <c r="H636">
+        <v>1</v>
+      </c>
+      <c r="I636">
+        <v>0</v>
+      </c>
+      <c r="J636">
+        <v>1</v>
+      </c>
+      <c r="K636" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B637" t="s">
+        <v>515</v>
+      </c>
+      <c r="C637">
+        <v>8</v>
+      </c>
+      <c r="D637">
+        <v>1.3</v>
+      </c>
+      <c r="E637">
+        <v>6.7</v>
+      </c>
+      <c r="F637">
+        <v>1</v>
+      </c>
+      <c r="G637">
+        <v>0</v>
+      </c>
+      <c r="H637">
+        <v>1</v>
+      </c>
+      <c r="I637">
+        <v>0</v>
+      </c>
+      <c r="J637">
+        <v>0</v>
+      </c>
+      <c r="K637" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B638" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C638">
+        <v>6.1</v>
+      </c>
+      <c r="D638">
+        <v>1.53</v>
+      </c>
+      <c r="E638">
+        <v>4.5699999999999994</v>
+      </c>
+      <c r="F638">
+        <v>0</v>
+      </c>
+      <c r="G638">
+        <v>0</v>
+      </c>
+      <c r="H638">
+        <v>1</v>
+      </c>
+      <c r="I638">
+        <v>0</v>
+      </c>
+      <c r="J638">
+        <v>1</v>
+      </c>
+      <c r="K638" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B639" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C639">
+        <v>1.62</v>
+      </c>
+      <c r="D639">
+        <v>5.2</v>
+      </c>
+      <c r="E639">
+        <v>3.58</v>
+      </c>
+      <c r="F639">
+        <v>0</v>
+      </c>
+      <c r="G639">
+        <v>1</v>
+      </c>
+      <c r="H639">
+        <v>1</v>
+      </c>
+      <c r="I639">
+        <v>0</v>
+      </c>
+      <c r="J639">
+        <v>0</v>
+      </c>
+      <c r="K639" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B640" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C640">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D640">
+        <v>14.5</v>
+      </c>
+      <c r="E640">
+        <v>13.36</v>
+      </c>
+      <c r="F640">
+        <v>0</v>
+      </c>
+      <c r="G640">
+        <v>0</v>
+      </c>
+      <c r="H640">
+        <v>1</v>
+      </c>
+      <c r="I640">
+        <v>0</v>
+      </c>
+      <c r="J640">
+        <v>1</v>
+      </c>
+      <c r="K640" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B641" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C641">
+        <v>2.25</v>
+      </c>
+      <c r="D641">
+        <v>3.1</v>
+      </c>
+      <c r="E641">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="F641">
+        <v>0</v>
+      </c>
+      <c r="G641">
+        <v>0</v>
+      </c>
+      <c r="H641">
+        <v>1</v>
+      </c>
+      <c r="I641">
+        <v>0</v>
+      </c>
+      <c r="J641">
+        <v>1</v>
+      </c>
+      <c r="K641" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B642" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C642">
+        <v>2</v>
+      </c>
+      <c r="D642">
+        <v>3.2</v>
+      </c>
+      <c r="E642">
+        <v>1.2</v>
+      </c>
+      <c r="F642">
+        <v>0</v>
+      </c>
+      <c r="G642">
+        <v>0</v>
+      </c>
+      <c r="H642">
+        <v>1</v>
+      </c>
+      <c r="I642">
+        <v>0</v>
+      </c>
+      <c r="J642">
+        <v>1</v>
+      </c>
+      <c r="K642" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B643" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C643">
+        <v>6</v>
+      </c>
+      <c r="D643">
+        <v>1.37</v>
+      </c>
+      <c r="E643">
+        <v>4.63</v>
+      </c>
+      <c r="F643">
+        <v>1</v>
+      </c>
+      <c r="G643">
+        <v>0</v>
+      </c>
+      <c r="H643">
+        <v>1</v>
+      </c>
+      <c r="I643">
+        <v>0</v>
+      </c>
+      <c r="J643">
+        <v>0</v>
+      </c>
+      <c r="K643" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B644" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C644">
+        <v>1.84</v>
+      </c>
+      <c r="D644">
+        <v>3.75</v>
+      </c>
+      <c r="E644">
+        <v>1.91</v>
+      </c>
+      <c r="F644">
+        <v>0</v>
+      </c>
+      <c r="G644">
+        <v>1</v>
+      </c>
+      <c r="H644">
+        <v>1</v>
+      </c>
+      <c r="I644">
+        <v>0</v>
+      </c>
+      <c r="J644">
+        <v>0</v>
+      </c>
+      <c r="K644" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B645" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C645">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D645">
+        <v>16</v>
+      </c>
+      <c r="E645">
+        <v>14.87</v>
+      </c>
+      <c r="F645">
+        <v>0</v>
+      </c>
+      <c r="G645">
+        <v>0</v>
+      </c>
+      <c r="H645">
+        <v>1</v>
+      </c>
+      <c r="I645">
+        <v>1</v>
+      </c>
+      <c r="J645">
+        <v>0</v>
+      </c>
+      <c r="K645" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B646" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C646">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D646">
+        <v>1.3</v>
+      </c>
+      <c r="E646">
+        <v>7.5000000000000009</v>
+      </c>
+      <c r="F646">
+        <v>0</v>
+      </c>
+      <c r="G646">
+        <v>0</v>
+      </c>
+      <c r="H646">
+        <v>1</v>
+      </c>
+      <c r="I646">
+        <v>1</v>
+      </c>
+      <c r="J646">
+        <v>0</v>
+      </c>
+      <c r="K646" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B647" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C647">
+        <v>1.36</v>
+      </c>
+      <c r="D647">
+        <v>6.8</v>
+      </c>
+      <c r="E647">
+        <v>5.44</v>
+      </c>
+      <c r="F647">
+        <v>0</v>
+      </c>
+      <c r="G647">
+        <v>0</v>
+      </c>
+      <c r="H647">
+        <v>1</v>
+      </c>
+      <c r="I647">
+        <v>0</v>
+      </c>
+      <c r="J647">
+        <v>1</v>
+      </c>
+      <c r="K647" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B648" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C648">
+        <v>2</v>
+      </c>
+      <c r="D648">
+        <v>3.33</v>
+      </c>
+      <c r="E648">
+        <v>1.33</v>
+      </c>
+      <c r="F648">
+        <v>0</v>
+      </c>
+      <c r="G648">
+        <v>0</v>
+      </c>
+      <c r="H648">
+        <v>1</v>
+      </c>
+      <c r="I648">
+        <v>1</v>
+      </c>
+      <c r="J648">
+        <v>0</v>
+      </c>
+      <c r="K648" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>983</v>
+      </c>
+      <c r="B649" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C649">
+        <v>5.19</v>
+      </c>
+      <c r="D649">
+        <v>1.58</v>
+      </c>
+      <c r="E649">
+        <v>3.61</v>
+      </c>
+      <c r="F649">
+        <v>0</v>
+      </c>
+      <c r="G649">
+        <v>0</v>
+      </c>
+      <c r="H649">
+        <v>1</v>
+      </c>
+      <c r="I649">
+        <v>0</v>
+      </c>
+      <c r="J649">
+        <v>0</v>
+      </c>
+      <c r="K649" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>137</v>
+      </c>
+      <c r="B650" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C650">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="D650">
+        <v>1.92</v>
+      </c>
+      <c r="E650">
+        <v>2.1</v>
+      </c>
+      <c r="F650">
+        <v>0</v>
+      </c>
+      <c r="G650">
+        <v>0</v>
+      </c>
+      <c r="H650">
+        <v>1</v>
+      </c>
+      <c r="I650">
+        <v>1</v>
+      </c>
+      <c r="J650">
+        <v>0</v>
+      </c>
+      <c r="K650" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B651" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C651">
+        <v>1.62</v>
+      </c>
+      <c r="D651">
+        <v>5.41</v>
+      </c>
+      <c r="E651">
+        <v>3.79</v>
+      </c>
+      <c r="F651">
+        <v>0</v>
+      </c>
+      <c r="G651">
+        <v>1</v>
+      </c>
+      <c r="H651">
+        <v>1</v>
+      </c>
+      <c r="I651">
+        <v>0</v>
+      </c>
+      <c r="J651">
+        <v>0</v>
+      </c>
+      <c r="K651" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B652" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C652">
+        <v>1.97</v>
+      </c>
+      <c r="D652">
+        <v>3.88</v>
+      </c>
+      <c r="E652">
+        <v>1.91</v>
+      </c>
+      <c r="F652">
+        <v>0</v>
+      </c>
+      <c r="G652">
+        <v>0</v>
+      </c>
+      <c r="H652">
+        <v>1</v>
+      </c>
+      <c r="I652">
+        <v>1</v>
+      </c>
+      <c r="J652">
+        <v>0</v>
+      </c>
+      <c r="K652" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>331</v>
+      </c>
+      <c r="B653" t="s">
+        <v>338</v>
+      </c>
+      <c r="C653">
+        <v>1.9</v>
+      </c>
+      <c r="D653">
+        <v>3.6</v>
+      </c>
+      <c r="E653">
+        <v>1.7</v>
+      </c>
+      <c r="F653">
+        <v>0</v>
+      </c>
+      <c r="G653">
+        <v>0</v>
+      </c>
+      <c r="H653">
+        <v>1</v>
+      </c>
+      <c r="I653">
+        <v>0</v>
+      </c>
+      <c r="J653">
+        <v>0</v>
+      </c>
+      <c r="K653" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B654" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C654">
+        <v>1.84</v>
+      </c>
+      <c r="D654">
+        <v>4.74</v>
+      </c>
+      <c r="E654">
+        <v>2.9</v>
+      </c>
+      <c r="F654">
+        <v>0</v>
+      </c>
+      <c r="G654">
+        <v>0</v>
+      </c>
+      <c r="H654">
+        <v>1</v>
+      </c>
+      <c r="I654">
+        <v>0</v>
+      </c>
+      <c r="J654">
+        <v>1</v>
+      </c>
+      <c r="K654" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B655" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C655">
+        <v>1.42</v>
+      </c>
+      <c r="D655">
+        <v>7.5</v>
+      </c>
+      <c r="E655">
+        <v>6.08</v>
+      </c>
+      <c r="F655">
+        <v>0</v>
+      </c>
+      <c r="G655">
+        <v>0</v>
+      </c>
+      <c r="H655">
+        <v>1</v>
+      </c>
+      <c r="I655">
+        <v>1</v>
+      </c>
+      <c r="J655">
+        <v>0</v>
+      </c>
+      <c r="K655" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B656" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C656">
+        <v>1.29</v>
+      </c>
+      <c r="D656">
+        <v>9.75</v>
+      </c>
+      <c r="E656">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="F656">
+        <v>1</v>
+      </c>
+      <c r="G656">
+        <v>0</v>
+      </c>
+      <c r="H656">
+        <v>1</v>
+      </c>
+      <c r="I656">
+        <v>0</v>
+      </c>
+      <c r="J656">
+        <v>0</v>
+      </c>
+      <c r="K656" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B657" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C657">
+        <v>1.32</v>
+      </c>
+      <c r="D657">
+        <v>7.4</v>
+      </c>
+      <c r="E657">
+        <v>6.08</v>
+      </c>
+      <c r="F657">
+        <v>0</v>
+      </c>
+      <c r="G657">
+        <v>0</v>
+      </c>
+      <c r="H657">
+        <v>1</v>
+      </c>
+      <c r="I657">
+        <v>0</v>
+      </c>
+      <c r="J657">
+        <v>1</v>
+      </c>
+      <c r="K657" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B658" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C658">
+        <v>1.43</v>
+      </c>
+      <c r="D658">
+        <v>6.5</v>
+      </c>
+      <c r="E658">
+        <v>5.07</v>
+      </c>
+      <c r="F658">
+        <v>0</v>
+      </c>
+      <c r="G658">
+        <v>0</v>
+      </c>
+      <c r="H658">
+        <v>1</v>
+      </c>
+      <c r="I658">
+        <v>1</v>
+      </c>
+      <c r="J658">
+        <v>0</v>
+      </c>
+      <c r="K658" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B659" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C659">
+        <v>1.52</v>
+      </c>
+      <c r="D659">
+        <v>5.2</v>
+      </c>
+      <c r="E659">
+        <v>3.68</v>
+      </c>
+      <c r="F659">
+        <v>0</v>
+      </c>
+      <c r="G659">
+        <v>0</v>
+      </c>
+      <c r="H659">
+        <v>1</v>
+      </c>
+      <c r="I659">
+        <v>0</v>
+      </c>
+      <c r="J659">
+        <v>1</v>
+      </c>
+      <c r="K659" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B660" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C660">
+        <v>1.77</v>
+      </c>
+      <c r="D660">
+        <v>4</v>
+      </c>
+      <c r="E660">
+        <v>2.23</v>
+      </c>
+      <c r="F660">
+        <v>0</v>
+      </c>
+      <c r="G660">
+        <v>0</v>
+      </c>
+      <c r="H660">
+        <v>1</v>
+      </c>
+      <c r="I660">
+        <v>0</v>
+      </c>
+      <c r="J660">
+        <v>0</v>
+      </c>
+      <c r="K660" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B661" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C661">
+        <v>1.62</v>
+      </c>
+      <c r="D661">
+        <v>4.2</v>
+      </c>
+      <c r="E661">
+        <v>2.58</v>
+      </c>
+      <c r="F661">
+        <v>0</v>
+      </c>
+      <c r="G661">
+        <v>1</v>
+      </c>
+      <c r="H661">
+        <v>1</v>
+      </c>
+      <c r="I661">
+        <v>0</v>
+      </c>
+      <c r="J661">
+        <v>0</v>
+      </c>
+      <c r="K661" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B662" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C662">
+        <v>17.5</v>
+      </c>
+      <c r="D662">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E662">
+        <v>16.41</v>
+      </c>
+      <c r="F662">
+        <v>0</v>
+      </c>
+      <c r="G662">
+        <v>1</v>
+      </c>
+      <c r="H662">
+        <v>1</v>
+      </c>
+      <c r="I662">
+        <v>0</v>
+      </c>
+      <c r="J662">
+        <v>0</v>
+      </c>
+      <c r="K662" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/ml.xlsx
+++ b/ml.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -2659,7 +2659,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -2700,7 +2700,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2823,7 +2823,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2864,7 +2864,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2945,6 +2945,4352 @@
         <v>0</v>
       </c>
       <c r="K61" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Lorient </t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PSG</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E62" t="n">
+        <v>5.87</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Twente Enschede </t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Almere City FC</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="D63" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="E63" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AIK </t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IFK Varnamo</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="D64" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E64" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IF Brommapojkarna </t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IK Sirius</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IFK Goteborg </t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hacken Gothenburg</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.3000000000000003</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Orenburg </t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Dinamo Moscow</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.1999999999999997</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Nizhny Novgorod </t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lokomotiv Moscow</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Krasnodar </t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Baltika Kaliningrad</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D69" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E69" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Zenit Saint Petersburg </t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Rubin Kazan</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D70" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>6.699999999999999</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Talaea El Gaish </t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Enppi Club</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D71" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pyramids FC </t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> National Bank of Egypt SC</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="D72" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E72" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PAS Lamia 1964 </t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PAOK Thessaloniki</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>13</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E73" t="n">
+        <v>11.81</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aris Thessaloniki </t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Olympiacos</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E74" t="n">
+        <v>6.39</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AEK Athens </t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Panathinaikos Athens</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D75" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trabzonspor </t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fatih Karagumruk Istanbul</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D76" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Stade Nyonnais </t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Vaduz</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Goa </t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mumbai City FC</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>2</v>
+      </c>
+      <c r="D78" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Universitatea Cluj </t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSM Politehnica Iasi</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D79" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E79" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Farul Constanta </t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rapid Bucuresti 1923</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Al Bukiryah </t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AL Qadisiyah</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AL Jabalain FC </t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AL Najma</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Solihull Moors FC </t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Halifax Town</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SK Austria Klagenfurt </t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Salzburg</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E84" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TSV Hartberg </t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LASK</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.8000000000000003</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baerum SK </t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Stabaek IF</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>11</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E86" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eidsvold TF </t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mjondalen IF</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elverum </t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hamarkameratene</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>11</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E88" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Mandalskameratene </t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bryne FK</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E89" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fram IF </t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Arendal FK</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Froya Fotball </t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sogndal IL</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E91" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IF Floeya </t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tromsoe IL</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>15</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E92" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Radnicki 1923 Kragujevac </t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Vojvodina Novi Sad</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Crvena Zvezda Belgrade </t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Partizan Belgrade</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D94" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="E94" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seinajoen JK </t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HJK Helsinki</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ludogorets </t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Hebar Pazardzhik</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D96" t="n">
+        <v>18</v>
+      </c>
+      <c r="E96" t="n">
+        <v>16.89</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MKS Znicz Pruszkow </t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MKS Arka Gdynia</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wisla Plock </t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Miedz Legnica</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D98" t="n">
+        <v>3</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC KTP Kotka </t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SJK Akatemia</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="D99" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E99" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FF Jaro </t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KaPa Kapylan Pallo</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="D100" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E100" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JAPS </t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SalPa</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mikkelin Palloilijat </t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> JIPPO</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.5499999999999998</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PK-35 Helsinki </t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Turun Palloseura</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.05000000000000027</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Alania Vladikavkaz </t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PFC Kuban Krasnodar</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D104" t="n">
+        <v>4</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Volgar Astrakhan </t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Torpedo Moscow</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Akron Tolyatti </t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Leningradets</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="D106" t="n">
+        <v>6</v>
+      </c>
+      <c r="E106" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Neftekhimik Nizhnekamsk </t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Shinnik Yaroslavl</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D107" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Sokol Saratov </t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Yenisey Krasnoyarsk</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.4500000000000002</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Khimki </t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Kamaz Naberezhnye Chelny</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D109" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="E109" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Dynamo-Makhachkala </t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PFK Arsenal Tula</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Karmiotissa FC </t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Othellos Athienou</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D111" t="n">
+        <v>4</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AEL Limassol </t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nea Salamina Famagusta</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D112" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.9500000000000002</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFK Dolny Kubin </t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Humenne</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFK Tatran Liptovsky Mikulas </t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Slavoj Trebisov</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D114" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E114" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSK Povazska Bystrica </t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KFC Komarno</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MSK Puchov </t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. FC Tatran Presov</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spartak Myjava </t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Pohronie Ziar Nad Hronom Dolna Zdana</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D117" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Viktoria Plzen </t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Fastav Zlin</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="D118" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="E118" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hapoel Be`er Sheva FC </t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Maccabi Netanya FC</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D119" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS Mioveni </t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Unirea 2004 Slobozia</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.8000000000000003</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Al Arabi Doha SC </t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AL Markhiya</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D121" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Al Rayyan SC </t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Al Ahli Doha SC</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D122" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E122" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AL Wakrah </t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Al-Gharafa SC</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Al-Shamal </t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Al-Sadd SC</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E124" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Muaither SC </t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Qatar SC</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Umm-Salal SC </t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AL Duhail</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E126" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>1</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1. FC Saarbrucken </t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rot-Weiss Essen</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D127" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Borac Banja Luka </t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NK Posusje</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="D128" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E128" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Columbus Crew </t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CF Monterrey</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D129" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.5500000000000003</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Botafogo FR RJ </t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Universitario de Deportes</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="D130" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E130" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club Nacional de Football </t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Deportivo Tachira</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D131" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E131" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Huachipato </t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The Strongest</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D132" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E132" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club Bolivar </t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CR Flamengo RJ</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D133" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CSD Independiente del Valle </t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SE Palmeiras SP</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D134" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Libertad Asuncion </t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA River Plate (ARG)</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D135" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Real Cartagena FC </t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD Atletico Huila</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="D136" t="n">
+        <v>4</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Itagui Leones FC </t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CS Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D137" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Independiente Santa Fe </t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD Cortulua</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="D138" t="n">
+        <v>10</v>
+      </c>
+      <c r="E138" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coquimbo Unido </t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Racing Club Avellaneda</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E139" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Danubio FC </t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA Paranaense PR</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D140" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Red Bull Bragantino SP </t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sportivo Luqueno</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="D141" t="n">
+        <v>8</v>
+      </c>
+      <c r="E141" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CD Real Tomayapo </t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA Belgrano</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atlanta United 2 </t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chattanooga FC</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Carlos Stein </t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pirata FC</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.04999999999999982</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club Celaya FC </t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD Tapatio</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D145" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E145" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club Leones Del Norte </t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> San Antonio FC</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D146" t="n">
+        <v>4</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olancho FC </t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD Vida La Ceiba</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D147" t="n">
+        <v>12</v>
+      </c>
+      <c r="E147" t="n">
+        <v>10.79</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AA Aparecidense GO </t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sampaio Correa FC MA</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D148" t="n">
+        <v>3</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deportivo Achuapa </t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Deportivo Mixco</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D149" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CD Ocotal </t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HYH Sebaco FC</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D150" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E150" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alianza FC San Salvador </t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD Dragon</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="D151" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="E151" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Veranopolis RS </t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CE Bento Goncalves RS</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>1</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Passo Fundo </t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gremio Esportivo Gloria RS</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D153" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E153" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Talleres de Cordoba Reserve </t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA Tigre Reserve</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>2</v>
+      </c>
+      <c r="D154" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E154" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adamstown Rosebud FC </t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Weston Workers FC</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E155" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">White City FK Beograd </t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Campbelltown City SC</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="E156" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barito Putera </t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bhayangkara FC</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D157" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E157" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adamstown Rosebud FC </t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Weston Workers FC</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E158" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">White City FK Beograd </t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Campbelltown City SC</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="E159" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adamstown Rosebud FC </t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Weston Workers FC</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E160" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">White City FK Beograd </t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Campbelltown City SC</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="E161" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adamstown Rosebud FC </t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Weston Workers FC</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E162" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">White City FK Beograd </t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Campbelltown City SC</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="E163" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adamstown Rosebud FC </t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Weston Workers FC</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E164" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">White City FK Beograd </t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Campbelltown City SC</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="E165" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adamstown Rosebud FC </t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Weston Workers FC</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E166" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">White City FK Beograd </t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Campbelltown City SC</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="E167" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
+      <c r="K167" t="inlineStr">
         <is>
           <t>pending</t>
         </is>

--- a/ml.xlsx
+++ b/ml.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K167"/>
+  <dimension ref="A1:K267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6800,7 +6800,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -6841,7 +6841,7 @@
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -6882,70 +6882,70 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adamstown Rosebud FC </t>
+          <t xml:space="preserve">FK Ural Yekaterinburg </t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Weston Workers FC</t>
+          <t xml:space="preserve"> FK Rostov</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>5.4</v>
+        <v>2.6</v>
       </c>
       <c r="D158" t="n">
-        <v>1.41</v>
+        <v>2.8</v>
       </c>
       <c r="E158" t="n">
-        <v>3.99</v>
+        <v>0.1999999999999997</v>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t xml:space="preserve">White City FK Beograd </t>
+          <t xml:space="preserve">Qatar </t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Campbelltown City SC</t>
+          <t xml:space="preserve"> Japan</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>4.6</v>
+        <v>5.25</v>
       </c>
       <c r="D159" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="E159" t="n">
-        <v>3.04</v>
+        <v>3.62</v>
       </c>
       <c r="F159" t="n">
         <v>0</v>
@@ -6960,74 +6960,74 @@
         <v>1</v>
       </c>
       <c r="J159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adamstown Rosebud FC </t>
+          <t xml:space="preserve">SC Heerenveen </t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Weston Workers FC</t>
+          <t xml:space="preserve"> PSV Eindhoven</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>5.4</v>
+        <v>7.6</v>
       </c>
       <c r="D160" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="E160" t="n">
-        <v>3.99</v>
+        <v>6.25</v>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t xml:space="preserve">White City FK Beograd </t>
+          <t xml:space="preserve">Halmstads BK </t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Campbelltown City SC</t>
+          <t xml:space="preserve"> Hammarby IF</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="D161" t="n">
-        <v>1.56</v>
+        <v>1.91</v>
       </c>
       <c r="E161" t="n">
-        <v>3.04</v>
+        <v>2.09</v>
       </c>
       <c r="F161" t="n">
         <v>0</v>
@@ -7042,33 +7042,33 @@
         <v>1</v>
       </c>
       <c r="J161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adamstown Rosebud FC </t>
+          <t xml:space="preserve">Kalmar FF </t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Weston Workers FC</t>
+          <t xml:space="preserve"> GAIS</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>5.4</v>
+        <v>2.3</v>
       </c>
       <c r="D162" t="n">
-        <v>1.41</v>
+        <v>3.25</v>
       </c>
       <c r="E162" t="n">
-        <v>3.99</v>
+        <v>0.9500000000000002</v>
       </c>
       <c r="F162" t="n">
         <v>0</v>
@@ -7077,80 +7077,80 @@
         <v>0</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J162" t="n">
         <v>1</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t xml:space="preserve">White City FK Beograd </t>
+          <t xml:space="preserve">Vasteras SK </t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Campbelltown City SC</t>
+          <t xml:space="preserve"> Mjallby AIF</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="D163" t="n">
-        <v>1.56</v>
+        <v>3.33</v>
       </c>
       <c r="E163" t="n">
-        <v>3.04</v>
+        <v>1.13</v>
       </c>
       <c r="F163" t="n">
         <v>0</v>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adamstown Rosebud FC </t>
+          <t xml:space="preserve">FC Fakel Voronezh </t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Weston Workers FC</t>
+          <t xml:space="preserve"> PFK Krylia Sovetov Samara</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>5.4</v>
+        <v>2.5</v>
       </c>
       <c r="D164" t="n">
-        <v>1.41</v>
+        <v>2.95</v>
       </c>
       <c r="E164" t="n">
-        <v>3.99</v>
+        <v>0.4500000000000002</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
@@ -7169,73 +7169,73 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t xml:space="preserve">White City FK Beograd </t>
+          <t xml:space="preserve">FC Uta Arad </t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Campbelltown City SC</t>
+          <t xml:space="preserve"> ASC Otelul Galati</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>4.6</v>
+        <v>2.35</v>
       </c>
       <c r="D165" t="n">
-        <v>1.56</v>
+        <v>3.1</v>
       </c>
       <c r="E165" t="n">
-        <v>3.04</v>
+        <v>0.75</v>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adamstown Rosebud FC </t>
+          <t xml:space="preserve">AFC Hermannstadt </t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Weston Workers FC</t>
+          <t xml:space="preserve"> FC Petrolul Ploiesti</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>5.4</v>
+        <v>2.15</v>
       </c>
       <c r="D166" t="n">
-        <v>1.41</v>
+        <v>3.5</v>
       </c>
       <c r="E166" t="n">
-        <v>3.99</v>
+        <v>1.35</v>
       </c>
       <c r="F166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G166" t="n">
         <v>0</v>
@@ -7244,53 +7244,4153 @@
         <v>1</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t xml:space="preserve">White City FK Beograd </t>
+          <t xml:space="preserve">AL Fayha FC </t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Campbelltown City SC</t>
+          <t xml:space="preserve"> AL Tai</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>4.6</v>
+        <v>2.25</v>
       </c>
       <c r="D167" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oppsal IF </t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Valerenga IF Oslo</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>19</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E168" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Eik Toensberg 871 </t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fredrikstad FK</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>8</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E169" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>1</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bruk-Bet Termalica Nieciecza </t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Odra Opole</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="D170" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LKP Motor Lublin </t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chrobry Glogow</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D171" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E171" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cordoba CF B </t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD Ciudad de Lucena</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D172" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Urartu Yerevan 2 </t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Noah Yerevan 2</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D173" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haukar Hafnarfjordur </t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IF Vestri</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="E174" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afturelding </t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dalvik Reynir</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="D175" t="n">
+        <v>24</v>
+      </c>
+      <c r="E175" t="n">
+        <v>22.98</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vikingur Reykjavik </t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UMF Vidir</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D176" t="n">
+        <v>17</v>
+      </c>
+      <c r="E176" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>1</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IH Hafnarfjordur </t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hafnir</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D177" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E177" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AL Bahrain </t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Qalali Club</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="D178" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E178" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club Omnisports de Korhogo </t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ASEC Mimosas</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="E179" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1</v>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gadafi FC </t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SC Villa</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E180" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arenel Movers FC </t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Manica Diamonds FC</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D181" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kultsu FC </t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KJP</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E182" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MP/2 </t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Union Plaani</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="D183" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E183" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Töölön Taisto </t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> HIFK</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="D184" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E184" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>1</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brisbane Roar FC </t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Adelaide United FC</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D185" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>1</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Melbourne Knights </t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Oakleigh Cannons</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="E186" t="n">
+        <v>2.489999999999999</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Manly United FC </t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NWS Spirit</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D187" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sydney FC </t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sydney United</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="E188" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0</v>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelaide City FC </t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Adelaide United FC</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D189" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E189" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1</v>
+      </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>1</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">South Adelaide FC </t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Croydon Kings FC</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E190" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>1</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bentleigh Greens </t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Melbourne City FC</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D191" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E191" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Real Sociedad </t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Real Madrid</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="D192" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.4100000000000001</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VfL Bochum </t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hoffenheim</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D193" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1</v>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frosinone </t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> US Salernitana</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="D194" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="E194" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1</v>
+      </c>
+      <c r="G194" t="n">
+        <v>0</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>1</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Montpellier </t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nantes</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="D195" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>1</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Queens Park Rangers </t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Leeds United</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="E196" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1</v>
+      </c>
+      <c r="H196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="n">
+        <v>1</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gil Vicente Barcelos </t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Arouca</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D197" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0.1500000000000004</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>1</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC St. Pauli </t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="D198" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="E198" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hertha </t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hannover</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D199" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mamelodi Sundowns </t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Esperance Sportive de Tunis</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D200" t="n">
+        <v>5</v>
+      </c>
+      <c r="E200" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AL Ahly SC (Egy) </t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TP Mazembe</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D201" t="n">
+        <v>9</v>
+      </c>
+      <c r="E201" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Andorra </t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Racing Santander</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D202" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E202" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SC Pisa </t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> US Catanzaro</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D203" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Venezia FC </t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> US Cremonese</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D204" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adana Demirspor </t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Galatasaray Istanbul</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>6</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E205" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>1</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De Graafschap </t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MVV Maastricht</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D206" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1</v>
+      </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>1</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jong Ajax Amsterdam </t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Roda JC Kerkrade</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="E207" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0</v>
+      </c>
+      <c r="G207" t="n">
+        <v>1</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SC Cambuur </t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Dordrecht</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D208" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0</v>
+      </c>
+      <c r="G208" t="n">
+        <v>1</v>
+      </c>
+      <c r="H208" t="n">
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="n">
+        <v>1</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TOP Oss </t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jong AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D209" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.5499999999999998</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>1</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VVV Venlo </t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Den Bosch</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D210" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E210" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>1</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Willem II Tilburg </t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Groningen</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D211" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
+      <c r="H211" t="n">
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Remo Stars </t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Niger Tornadoes FC</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="D212" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E212" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" t="n">
+        <v>1</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KAS Eupen </t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Royal Charleroi SC</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D213" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E213" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lyngby BK </t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vejle BK</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D214" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Airdrieonians FC </t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dundee United</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D215" t="n">
         <v>1.56</v>
       </c>
-      <c r="E167" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="F167" t="n">
-        <v>0</v>
-      </c>
-      <c r="G167" t="n">
-        <v>1</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
-      <c r="J167" t="n">
-        <v>1</v>
-      </c>
-      <c r="K167" t="inlineStr">
+      <c r="E215" t="n">
+        <v>4.039999999999999</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NK Istra 1961 </t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NK Slaven Belupo</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D216" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0</v>
+      </c>
+      <c r="G216" t="n">
+        <v>1</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chamois Niort FC </t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Martigues</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D217" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>1</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dijon </t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Goal</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D218" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E218" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0</v>
+      </c>
+      <c r="H218" t="n">
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>1</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Versailles 78 </t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> US Orleans</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D219" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0</v>
+      </c>
+      <c r="H219" t="n">
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Villefranche-Beaujolais </t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> US Avranches</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="D220" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E220" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LB Chateauroux </t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Epinal</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D221" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E221" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marignane Gignac FC </t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sochaux-Montbeliard</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D222" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0.3499999999999996</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nancy-Lorraine </t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Le Mans FC</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D223" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stade Olympique Choletais </t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Rouen</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D224" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0</v>
+      </c>
+      <c r="G224" t="n">
+        <v>1</v>
+      </c>
+      <c r="H224" t="n">
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uzbekistan </t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D225" t="n">
+        <v>3</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1</v>
+      </c>
+      <c r="G225" t="n">
+        <v>1</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iraq </t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vietnam</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D226" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E226" t="n">
+        <v>4.069999999999999</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Aarau </t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AC Bellinzona</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D227" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">US Granville </t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Stade Briochin</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D228" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saumur Olympique </t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Les Herbiers</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D229" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.9500000000000002</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0</v>
+      </c>
+      <c r="G229" t="n">
+        <v>1</v>
+      </c>
+      <c r="H229" t="n">
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Pirin Blagoevgrad </t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> POFC Botev Vratsa</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D230" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E230" t="n">
+        <v>1</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0</v>
+      </c>
+      <c r="G230" t="n">
+        <v>1</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Real Sociedad </t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Real Madrid</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="D231" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.3400000000000003</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0</v>
+      </c>
+      <c r="G231" t="n">
+        <v>1</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>1</v>
+      </c>
+      <c r="J231" t="n">
+        <v>1</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VfL Bochum </t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hoffenheim</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D232" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0</v>
+      </c>
+      <c r="G232" t="n">
+        <v>1</v>
+      </c>
+      <c r="H232" t="n">
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frosinone </t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> US Salernitana</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="D233" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="E233" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0</v>
+      </c>
+      <c r="H233" t="n">
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>1</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Montpellier </t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nantes</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="D234" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>1</v>
+      </c>
+      <c r="J234" t="n">
+        <v>1</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Queens Park Rangers </t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Leeds United</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="E235" t="n">
+        <v>4.039999999999999</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0</v>
+      </c>
+      <c r="G235" t="n">
+        <v>1</v>
+      </c>
+      <c r="H235" t="n">
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>1</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gil Vicente Barcelos </t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Arouca</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D236" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0.1500000000000004</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0</v>
+      </c>
+      <c r="G236" t="n">
+        <v>1</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>1</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC St. Pauli </t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hansa Rostock</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="D237" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="E237" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1</v>
+      </c>
+      <c r="G237" t="n">
+        <v>1</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hertha </t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hannover</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D238" t="n">
+        <v>3</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1</v>
+      </c>
+      <c r="G238" t="n">
+        <v>0</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>1</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mamelodi Sundowns </t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Esperance Sportive de Tunis</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D239" t="n">
+        <v>5</v>
+      </c>
+      <c r="E239" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1</v>
+      </c>
+      <c r="G239" t="n">
+        <v>0</v>
+      </c>
+      <c r="H239" t="n">
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AL Ahly SC (Egy) </t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TP Mazembe</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="D240" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E240" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1</v>
+      </c>
+      <c r="G240" t="n">
+        <v>0</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>1</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Andorra </t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Racing Santander</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D241" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0</v>
+      </c>
+      <c r="G241" t="n">
+        <v>1</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SC Pisa </t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> US Catanzaro</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D242" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E242" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1</v>
+      </c>
+      <c r="G242" t="n">
+        <v>0</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Venezia FC </t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> US Cremonese</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D243" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E243" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1</v>
+      </c>
+      <c r="G243" t="n">
+        <v>0</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>1</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adana Demirspor </t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Galatasaray Istanbul</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>6</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E244" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1</v>
+      </c>
+      <c r="G244" t="n">
+        <v>0</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>1</v>
+      </c>
+      <c r="J244" t="n">
+        <v>1</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De Graafschap </t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MVV Maastricht</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D245" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E245" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>1</v>
+      </c>
+      <c r="J245" t="n">
+        <v>1</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jong Ajax Amsterdam </t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Roda JC Kerkrade</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="E246" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0</v>
+      </c>
+      <c r="G246" t="n">
+        <v>0</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>1</v>
+      </c>
+      <c r="J246" t="n">
+        <v>1</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SC Cambuur </t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Dordrecht</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D247" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E247" t="n">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0</v>
+      </c>
+      <c r="G247" t="n">
+        <v>1</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>1</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TOP Oss </t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jong AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D248" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.5499999999999998</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0</v>
+      </c>
+      <c r="G248" t="n">
+        <v>1</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>1</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VVV Venlo </t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Den Bosch</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D249" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E249" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1</v>
+      </c>
+      <c r="G249" t="n">
+        <v>1</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>1</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Willem II Tilburg </t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Groningen</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D250" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E250" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="F250" t="n">
+        <v>1</v>
+      </c>
+      <c r="G250" t="n">
+        <v>0</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>1</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KAS Eupen </t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Royal Charleroi SC</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D251" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E251" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F251" t="n">
+        <v>1</v>
+      </c>
+      <c r="G251" t="n">
+        <v>0</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lyngby BK </t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vejle BK</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D252" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E252" t="n">
+        <v>0.5500000000000003</v>
+      </c>
+      <c r="F252" t="n">
+        <v>1</v>
+      </c>
+      <c r="G252" t="n">
+        <v>0</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>1</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Airdrieonians FC </t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dundee United</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="E253" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1</v>
+      </c>
+      <c r="G253" t="n">
+        <v>0</v>
+      </c>
+      <c r="H253" t="n">
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NK Istra 1961 </t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NK Slaven Belupo</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D254" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E254" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0</v>
+      </c>
+      <c r="G254" t="n">
+        <v>1</v>
+      </c>
+      <c r="H254" t="n">
+        <v>0</v>
+      </c>
+      <c r="I254" t="n">
+        <v>1</v>
+      </c>
+      <c r="J254" t="n">
+        <v>1</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chamois Niort FC </t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Martigues</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D255" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E255" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F255" t="n">
+        <v>1</v>
+      </c>
+      <c r="G255" t="n">
+        <v>0</v>
+      </c>
+      <c r="H255" t="n">
+        <v>0</v>
+      </c>
+      <c r="I255" t="n">
+        <v>1</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dijon </t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Goal</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D256" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0</v>
+      </c>
+      <c r="H256" t="n">
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>1</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Versailles 78 </t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> US Orleans</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D257" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0</v>
+      </c>
+      <c r="G257" t="n">
+        <v>0</v>
+      </c>
+      <c r="H257" t="n">
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>1</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Villefranche-Beaujolais </t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> US Avranches</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="D258" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E258" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0</v>
+      </c>
+      <c r="G258" t="n">
+        <v>1</v>
+      </c>
+      <c r="H258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>1</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LB Chateauroux </t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Epinal</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D259" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="E259" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0</v>
+      </c>
+      <c r="G259" t="n">
+        <v>0</v>
+      </c>
+      <c r="H259" t="n">
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>1</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marignane Gignac FC </t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sochaux-Montbeliard</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D260" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E260" t="n">
+        <v>0.3499999999999996</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0</v>
+      </c>
+      <c r="G260" t="n">
+        <v>1</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="n">
+        <v>1</v>
+      </c>
+      <c r="J260" t="n">
+        <v>1</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nancy-Lorraine </t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Le Mans FC</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D261" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E261" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F261" t="n">
+        <v>1</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>1</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stade Olympique Choletais </t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Rouen</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D262" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0</v>
+      </c>
+      <c r="G262" t="n">
+        <v>1</v>
+      </c>
+      <c r="H262" t="n">
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>1</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iraq </t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vietnam</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D263" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E263" t="n">
+        <v>4.069999999999999</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1</v>
+      </c>
+      <c r="G263" t="n">
+        <v>1</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Aarau </t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AC Bellinzona</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D264" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E264" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1</v>
+      </c>
+      <c r="G264" t="n">
+        <v>1</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">US Granville </t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Stade Briochin</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D265" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="n">
+        <v>1</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saumur Olympique </t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Les Herbiers</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D266" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0.9500000000000002</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0</v>
+      </c>
+      <c r="G266" t="n">
+        <v>1</v>
+      </c>
+      <c r="H266" t="n">
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>1</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Pirin Blagoevgrad </t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> POFC Botev Vratsa</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D267" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0</v>
+      </c>
+      <c r="G267" t="n">
+        <v>1</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="n">
+        <v>1</v>
+      </c>
+      <c r="K267" t="inlineStr">
         <is>
           <t>pending</t>
         </is>

--- a/ml.xlsx
+++ b/ml.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K388"/>
+  <dimension ref="A1:K505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10654,7 +10654,7 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -16271,7 +16271,7 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -16312,7 +16312,7 @@
       </c>
       <c r="K387" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -16352,6 +16352,4803 @@
         <v>0</v>
       </c>
       <c r="K388" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Rubin Kazan </t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Ural Yekaterinburg</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D389" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E389" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="F389" t="n">
+        <v>0</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0</v>
+      </c>
+      <c r="H389" t="n">
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>1</v>
+      </c>
+      <c r="J389" t="n">
+        <v>1</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Sochi </t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Fakel Voronezh</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>2</v>
+      </c>
+      <c r="D390" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E390" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F390" t="n">
+        <v>1</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0</v>
+      </c>
+      <c r="I390" t="n">
+        <v>1</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bayelsa United FC </t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rivers United FC</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D391" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E391" t="n">
+        <v>2.239999999999999</v>
+      </c>
+      <c r="F391" t="n">
+        <v>1</v>
+      </c>
+      <c r="G391" t="n">
+        <v>1</v>
+      </c>
+      <c r="H391" t="n">
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>0</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Polissya </t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Vorskla Poltava</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D392" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E392" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="F392" t="n">
+        <v>0</v>
+      </c>
+      <c r="G392" t="n">
+        <v>1</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0</v>
+      </c>
+      <c r="I392" t="n">
+        <v>1</v>
+      </c>
+      <c r="J392" t="n">
+        <v>1</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceramica Cleopatra </t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pharco FC</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D393" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E393" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="F393" t="n">
+        <v>0</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0</v>
+      </c>
+      <c r="I393" t="n">
+        <v>1</v>
+      </c>
+      <c r="J393" t="n">
+        <v>1</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indonesia </t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Uzbekistan</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D394" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="E394" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="F394" t="n">
+        <v>0</v>
+      </c>
+      <c r="G394" t="n">
+        <v>1</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0</v>
+      </c>
+      <c r="I394" t="n">
+        <v>0</v>
+      </c>
+      <c r="J394" t="n">
+        <v>1</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mumbai City FC </t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Goa</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D395" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E395" t="n">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="F395" t="n">
+        <v>1</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0</v>
+      </c>
+      <c r="H395" t="n">
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>0</v>
+      </c>
+      <c r="J395" t="n">
+        <v>1</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Petrolul Ploiesti </t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Botosani</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D396" t="n">
+        <v>3</v>
+      </c>
+      <c r="E396" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F396" t="n">
+        <v>1</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0</v>
+      </c>
+      <c r="H396" t="n">
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>0</v>
+      </c>
+      <c r="J396" t="n">
+        <v>1</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gazl Kafr Eldwar </t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Proxy SC</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D397" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E397" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F397" t="n">
+        <v>1</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0</v>
+      </c>
+      <c r="H397" t="n">
+        <v>0</v>
+      </c>
+      <c r="I397" t="n">
+        <v>0</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Petrojet FC </t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wadi Degla SC</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D398" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E398" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F398" t="n">
+        <v>1</v>
+      </c>
+      <c r="G398" t="n">
+        <v>1</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0</v>
+      </c>
+      <c r="I398" t="n">
+        <v>1</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tanta FC </t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D399" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E399" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="F399" t="n">
+        <v>1</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0</v>
+      </c>
+      <c r="I399" t="n">
+        <v>1</v>
+      </c>
+      <c r="J399" t="n">
+        <v>1</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AL Arabi (SA) </t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ohud Medina</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D400" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E400" t="n">
+        <v>4.359999999999999</v>
+      </c>
+      <c r="F400" t="n">
+        <v>1</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0</v>
+      </c>
+      <c r="H400" t="n">
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>0</v>
+      </c>
+      <c r="J400" t="n">
+        <v>1</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AL Faisaly FC </t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AL Ain FC</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D401" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E401" t="n">
+        <v>4.359999999999999</v>
+      </c>
+      <c r="F401" t="n">
+        <v>0</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0</v>
+      </c>
+      <c r="H401" t="n">
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>0</v>
+      </c>
+      <c r="J401" t="n">
+        <v>1</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UC Sampdoria </t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AS Roma</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="D402" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="E402" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="F402" t="n">
+        <v>1</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0</v>
+      </c>
+      <c r="I402" t="n">
+        <v>1</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juventus Turin </t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Torino FC</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D403" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E403" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F403" t="n">
+        <v>1</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0</v>
+      </c>
+      <c r="H403" t="n">
+        <v>0</v>
+      </c>
+      <c r="I403" t="n">
+        <v>1</v>
+      </c>
+      <c r="J403" t="n">
+        <v>1</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Southampton U21 </t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Manchester United FC</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D404" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E404" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="F404" t="n">
+        <v>1</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0</v>
+      </c>
+      <c r="H404" t="n">
+        <v>0</v>
+      </c>
+      <c r="I404" t="n">
+        <v>1</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ionikos Nikea FC </t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kallithea FC AthÃ©n</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="D405" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E405" t="n">
+        <v>7.899999999999999</v>
+      </c>
+      <c r="F405" t="n">
+        <v>1</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0</v>
+      </c>
+      <c r="H405" t="n">
+        <v>0</v>
+      </c>
+      <c r="I405" t="n">
+        <v>1</v>
+      </c>
+      <c r="J405" t="n">
+        <v>1</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chrobry Glogow </t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wisla Plock</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>3</v>
+      </c>
+      <c r="D406" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E406" t="n">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="F406" t="n">
+        <v>1</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0</v>
+      </c>
+      <c r="H406" t="n">
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>0</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Odra Opole </t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LKP Motor Lublin</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D407" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E407" t="n">
+        <v>0.3499999999999996</v>
+      </c>
+      <c r="F407" t="n">
+        <v>1</v>
+      </c>
+      <c r="G407" t="n">
+        <v>1</v>
+      </c>
+      <c r="H407" t="n">
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>0</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SJK Akatemia </t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Turun Palloseura</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D408" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E408" t="n">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="F408" t="n">
+        <v>1</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0</v>
+      </c>
+      <c r="H408" t="n">
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>0</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Chernomorets Novorossiysk </t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Dynamo-Makhachkala</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D409" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E409" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F409" t="n">
+        <v>0</v>
+      </c>
+      <c r="G409" t="n">
+        <v>1</v>
+      </c>
+      <c r="H409" t="n">
+        <v>0</v>
+      </c>
+      <c r="I409" t="n">
+        <v>1</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LKS Lodz II </t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Olimpia Grudziadz</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>3</v>
+      </c>
+      <c r="D410" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E410" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="F410" t="n">
+        <v>0</v>
+      </c>
+      <c r="G410" t="n">
+        <v>1</v>
+      </c>
+      <c r="H410" t="n">
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>1</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stomil Olsztyn </t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lech II Poznan</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D411" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E411" t="n">
+        <v>1</v>
+      </c>
+      <c r="F411" t="n">
+        <v>0</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0</v>
+      </c>
+      <c r="I411" t="n">
+        <v>0</v>
+      </c>
+      <c r="J411" t="n">
+        <v>1</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mura Murska Sobota </t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Aluminij Kidricevo</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="D412" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E412" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="F412" t="n">
+        <v>1</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0</v>
+      </c>
+      <c r="H412" t="n">
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>1</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Tuzla City </t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Igman Konjic</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D413" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E413" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="F413" t="n">
+        <v>1</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0</v>
+      </c>
+      <c r="H413" t="n">
+        <v>0</v>
+      </c>
+      <c r="I413" t="n">
+        <v>1</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bangkok United </t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Prachuap FC</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D414" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E414" t="n">
+        <v>5</v>
+      </c>
+      <c r="F414" t="n">
+        <v>1</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0</v>
+      </c>
+      <c r="H414" t="n">
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>0</v>
+      </c>
+      <c r="J414" t="n">
+        <v>1</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Banga B </t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Panevezys B</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D415" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E415" t="n">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="F415" t="n">
+        <v>0</v>
+      </c>
+      <c r="G415" t="n">
+        <v>1</v>
+      </c>
+      <c r="H415" t="n">
+        <v>0</v>
+      </c>
+      <c r="I415" t="n">
+        <v>0</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hegelmann Litauen B </t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Kauno Zalgiris B</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D416" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E416" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="F416" t="n">
+        <v>1</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0</v>
+      </c>
+      <c r="H416" t="n">
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>0</v>
+      </c>
+      <c r="J416" t="n">
+        <v>1</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sola FK </t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Odds BK 2</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D417" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E417" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F417" t="n">
+        <v>1</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0</v>
+      </c>
+      <c r="H417" t="n">
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>0</v>
+      </c>
+      <c r="J417" t="n">
+        <v>1</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lillestrom SK 2 </t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Stroemsgodset 2</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="D418" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E418" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F418" t="n">
+        <v>1</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0</v>
+      </c>
+      <c r="H418" t="n">
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>0</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jkt Tanzania </t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mtibwa Sugar FC</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D419" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="E419" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F419" t="n">
+        <v>0</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0</v>
+      </c>
+      <c r="H419" t="n">
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>0</v>
+      </c>
+      <c r="J419" t="n">
+        <v>1</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kazma SC </t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Al Shabab Kuwait</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="D420" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E420" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="F420" t="n">
+        <v>1</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0</v>
+      </c>
+      <c r="H420" t="n">
+        <v>0</v>
+      </c>
+      <c r="I420" t="n">
+        <v>1</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zira FK </t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Araz Nakhchivan PFK</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D421" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="E421" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="F421" t="n">
+        <v>1</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0</v>
+      </c>
+      <c r="H421" t="n">
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>0</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sao Paulo FC SP </t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SE Palmeiras SP</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="D422" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="E422" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F422" t="n">
+        <v>1</v>
+      </c>
+      <c r="G422" t="n">
+        <v>1</v>
+      </c>
+      <c r="H422" t="n">
+        <v>0</v>
+      </c>
+      <c r="I422" t="n">
+        <v>1</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mirassol FC SP </t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ceara SC CE</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D423" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E423" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F423" t="n">
+        <v>1</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0</v>
+      </c>
+      <c r="H423" t="n">
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>0</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Audax Italiano </t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cobresal</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D424" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E424" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="F424" t="n">
+        <v>1</v>
+      </c>
+      <c r="G424" t="n">
+        <v>1</v>
+      </c>
+      <c r="H424" t="n">
+        <v>0</v>
+      </c>
+      <c r="I424" t="n">
+        <v>1</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deportes Limache </t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Deportes La Serena</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D425" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E425" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F425" t="n">
+        <v>0</v>
+      </c>
+      <c r="G425" t="n">
+        <v>1</v>
+      </c>
+      <c r="H425" t="n">
+        <v>0</v>
+      </c>
+      <c r="I425" t="n">
+        <v>0</v>
+      </c>
+      <c r="J425" t="n">
+        <v>1</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CA Penarol Montevideo </t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA River Plate (URU)</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="D426" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="E426" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="F426" t="n">
+        <v>1</v>
+      </c>
+      <c r="G426" t="n">
+        <v>1</v>
+      </c>
+      <c r="H426" t="n">
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>0</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC San Marcos </t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Carlos Stein</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D427" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E427" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="F427" t="n">
+        <v>1</v>
+      </c>
+      <c r="G427" t="n">
+        <v>1</v>
+      </c>
+      <c r="H427" t="n">
+        <v>0</v>
+      </c>
+      <c r="I427" t="n">
+        <v>0</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CD El Nacional </t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Delfin SC</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D428" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E428" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="F428" t="n">
+        <v>1</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0</v>
+      </c>
+      <c r="H428" t="n">
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>1</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club Olimpia </t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D429" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E429" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="F429" t="n">
+        <v>1</v>
+      </c>
+      <c r="G429" t="n">
+        <v>1</v>
+      </c>
+      <c r="H429" t="n">
+        <v>1</v>
+      </c>
+      <c r="I429" t="n">
+        <v>0</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EC Sao Jose RS </t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AD Confianca SE</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D430" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E430" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="F430" t="n">
+        <v>0</v>
+      </c>
+      <c r="G430" t="n">
+        <v>1</v>
+      </c>
+      <c r="H430" t="n">
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>1</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ferroviario AC CE </t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AA Aparecidense GO</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D431" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E431" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F431" t="n">
+        <v>1</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0</v>
+      </c>
+      <c r="H431" t="n">
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>0</v>
+      </c>
+      <c r="J431" t="n">
+        <v>1</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maringa FC </t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> EC Santo Andre SP</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="D432" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E432" t="n">
+        <v>5.619999999999999</v>
+      </c>
+      <c r="F432" t="n">
+        <v>1</v>
+      </c>
+      <c r="G432" t="n">
+        <v>1</v>
+      </c>
+      <c r="H432" t="n">
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>0</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peru </t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Venezuela</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="D433" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E433" t="n">
+        <v>5.449999999999999</v>
+      </c>
+      <c r="F433" t="n">
+        <v>1</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0</v>
+      </c>
+      <c r="H433" t="n">
+        <v>0</v>
+      </c>
+      <c r="I433" t="n">
+        <v>1</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brazil </t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Colombia</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D434" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E434" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="F434" t="n">
+        <v>1</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0</v>
+      </c>
+      <c r="I434" t="n">
+        <v>1</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Portmore United </t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Arnett Gardens FC</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D435" t="n">
+        <v>3</v>
+      </c>
+      <c r="E435" t="n">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="F435" t="n">
+        <v>0</v>
+      </c>
+      <c r="G435" t="n">
+        <v>1</v>
+      </c>
+      <c r="H435" t="n">
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>0</v>
+      </c>
+      <c r="J435" t="n">
+        <v>1</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deportivo Toluca FC </t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Club Tijuana de Caliente</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D436" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E436" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="F436" t="n">
+        <v>1</v>
+      </c>
+      <c r="G436" t="n">
+        <v>1</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0</v>
+      </c>
+      <c r="I436" t="n">
+        <v>1</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Queretaro FC </t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atlas FC</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D437" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E437" t="n">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="F437" t="n">
+        <v>1</v>
+      </c>
+      <c r="G437" t="n">
+        <v>1</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0</v>
+      </c>
+      <c r="I437" t="n">
+        <v>0</v>
+      </c>
+      <c r="J437" t="n">
+        <v>1</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shandong Taishan </t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nantong Zhiyun</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="D438" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="E438" t="n">
+        <v>7.579999999999999</v>
+      </c>
+      <c r="F438" t="n">
+        <v>1</v>
+      </c>
+      <c r="G438" t="n">
+        <v>1</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0</v>
+      </c>
+      <c r="I438" t="n">
+        <v>0</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maitland FC </t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Lambton Jaffas FC</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D439" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="E439" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F439" t="n">
+        <v>1</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0</v>
+      </c>
+      <c r="I439" t="n">
+        <v>1</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bhayangkara FC </t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Persis Solo</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="D440" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E440" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F440" t="n">
+        <v>1</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0</v>
+      </c>
+      <c r="I440" t="n">
+        <v>0</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dewa United </t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Borneo Samarinda</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="D441" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E441" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F441" t="n">
+        <v>1</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0</v>
+      </c>
+      <c r="H441" t="n">
+        <v>0</v>
+      </c>
+      <c r="I441" t="n">
+        <v>1</v>
+      </c>
+      <c r="J441" t="n">
+        <v>1</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Madura United </t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Arema FC</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="D442" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E442" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F442" t="n">
+        <v>0</v>
+      </c>
+      <c r="G442" t="n">
+        <v>1</v>
+      </c>
+      <c r="H442" t="n">
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>0</v>
+      </c>
+      <c r="J442" t="n">
+        <v>1</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Persita Tangerang </t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bali United FC</t>
+        </is>
+      </c>
+      <c r="C443" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="D443" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E443" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="F443" t="n">
+        <v>1</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0</v>
+      </c>
+      <c r="H443" t="n">
+        <v>0</v>
+      </c>
+      <c r="I443" t="n">
+        <v>0</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PSM Makassar </t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rans Nusantara</t>
+        </is>
+      </c>
+      <c r="C444" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="D444" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E444" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="F444" t="n">
+        <v>1</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0</v>
+      </c>
+      <c r="H444" t="n">
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>0</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PSS Sleman </t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Persib Bandung</t>
+        </is>
+      </c>
+      <c r="C445" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D445" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E445" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F445" t="n">
+        <v>1</v>
+      </c>
+      <c r="G445" t="n">
+        <v>1</v>
+      </c>
+      <c r="H445" t="n">
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>0</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tianjin Jinmen Tiger </t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Beijing Guoan</t>
+        </is>
+      </c>
+      <c r="C446" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D446" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E446" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F446" t="n">
+        <v>0</v>
+      </c>
+      <c r="G446" t="n">
+        <v>1</v>
+      </c>
+      <c r="H446" t="n">
+        <v>1</v>
+      </c>
+      <c r="I446" t="n">
+        <v>0</v>
+      </c>
+      <c r="J446" t="n">
+        <v>1</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Meizhou Hakka </t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Qingdao Zhongchuang Hengtai</t>
+        </is>
+      </c>
+      <c r="C447" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="D447" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="E447" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="F447" t="n">
+        <v>0</v>
+      </c>
+      <c r="G447" t="n">
+        <v>1</v>
+      </c>
+      <c r="H447" t="n">
+        <v>0</v>
+      </c>
+      <c r="I447" t="n">
+        <v>0</v>
+      </c>
+      <c r="J447" t="n">
+        <v>1</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zhejiang Professional </t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Henan Songshan Longmen</t>
+        </is>
+      </c>
+      <c r="C448" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="D448" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="E448" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F448" t="n">
+        <v>0</v>
+      </c>
+      <c r="G448" t="n">
+        <v>1</v>
+      </c>
+      <c r="H448" t="n">
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>0</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AL Qadisiyah </t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AL Qaisoma FC</t>
+        </is>
+      </c>
+      <c r="C449" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D449" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="E449" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="F449" t="n">
+        <v>1</v>
+      </c>
+      <c r="G449" t="n">
+        <v>1</v>
+      </c>
+      <c r="H449" t="n">
+        <v>0</v>
+      </c>
+      <c r="I449" t="n">
+        <v>0</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sheffield United </t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Queens Park Rangers</t>
+        </is>
+      </c>
+      <c r="C450" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="D450" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E450" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F450" t="n">
+        <v>1</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0</v>
+      </c>
+      <c r="H450" t="n">
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>0</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fleetwood Town Reserve </t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Colchester United</t>
+        </is>
+      </c>
+      <c r="C451" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D451" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E451" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F451" t="n">
+        <v>1</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0</v>
+      </c>
+      <c r="H451" t="n">
+        <v>0</v>
+      </c>
+      <c r="I451" t="n">
+        <v>1</v>
+      </c>
+      <c r="J451" t="n">
+        <v>1</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Al-Wasl FC </t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Al-Ittihad Kalba</t>
+        </is>
+      </c>
+      <c r="C452" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D452" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E452" t="n">
+        <v>4.359999999999999</v>
+      </c>
+      <c r="F452" t="n">
+        <v>1</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0</v>
+      </c>
+      <c r="H452" t="n">
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>0</v>
+      </c>
+      <c r="J452" t="n">
+        <v>1</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rodina Moscow </t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Tyumen</t>
+        </is>
+      </c>
+      <c r="C453" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="D453" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="E453" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="F453" t="n">
+        <v>1</v>
+      </c>
+      <c r="G453" t="n">
+        <v>1</v>
+      </c>
+      <c r="H453" t="n">
+        <v>0</v>
+      </c>
+      <c r="I453" t="n">
+        <v>0</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nam Dinh FC </t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> B. Binh Duong</t>
+        </is>
+      </c>
+      <c r="C454" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="D454" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="E454" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="F454" t="n">
+        <v>0</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0</v>
+      </c>
+      <c r="H454" t="n">
+        <v>1</v>
+      </c>
+      <c r="I454" t="n">
+        <v>1</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Namungo FC </t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Simba SC</t>
+        </is>
+      </c>
+      <c r="C455" t="n">
+        <v>4</v>
+      </c>
+      <c r="D455" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E455" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="F455" t="n">
+        <v>0</v>
+      </c>
+      <c r="G455" t="n">
+        <v>1</v>
+      </c>
+      <c r="H455" t="n">
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>0</v>
+      </c>
+      <c r="J455" t="n">
+        <v>1</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tampere United </t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TPV Tampere</t>
+        </is>
+      </c>
+      <c r="C456" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D456" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E456" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="F456" t="n">
+        <v>1</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0</v>
+      </c>
+      <c r="H456" t="n">
+        <v>0</v>
+      </c>
+      <c r="I456" t="n">
+        <v>0</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Alfa Modrica </t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Leotar Trebinje</t>
+        </is>
+      </c>
+      <c r="C457" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="D457" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E457" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="F457" t="n">
+        <v>1</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0</v>
+      </c>
+      <c r="H457" t="n">
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>0</v>
+      </c>
+      <c r="J457" t="n">
+        <v>1</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CF Pachuca </t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CF America</t>
+        </is>
+      </c>
+      <c r="C458" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D458" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E458" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="F458" t="n">
+        <v>1</v>
+      </c>
+      <c r="G458" t="n">
+        <v>1</v>
+      </c>
+      <c r="H458" t="n">
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>0</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EC Bahia BA </t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Criciuma EC SC</t>
+        </is>
+      </c>
+      <c r="C459" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="D459" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E459" t="n">
+        <v>4.390000000000001</v>
+      </c>
+      <c r="F459" t="n">
+        <v>1</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0</v>
+      </c>
+      <c r="H459" t="n">
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>1</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Operario Ferroviario EC PR </t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gremio FB Porto Alegrense RS</t>
+        </is>
+      </c>
+      <c r="C460" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D460" t="n">
+        <v>2</v>
+      </c>
+      <c r="E460" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F460" t="n">
+        <v>0</v>
+      </c>
+      <c r="G460" t="n">
+        <v>1</v>
+      </c>
+      <c r="H460" t="n">
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>0</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CD Cortulua </t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atletico FC Cali</t>
+        </is>
+      </c>
+      <c r="C461" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="D461" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E461" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="F461" t="n">
+        <v>0</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0</v>
+      </c>
+      <c r="H461" t="n">
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>1</v>
+      </c>
+      <c r="J461" t="n">
+        <v>1</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tigres FC </t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bogota FC</t>
+        </is>
+      </c>
+      <c r="C462" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D462" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="E462" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F462" t="n">
+        <v>1</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0</v>
+      </c>
+      <c r="H462" t="n">
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>0</v>
+      </c>
+      <c r="J462" t="n">
+        <v>1</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pirata FC </t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Club Ada Jaen</t>
+        </is>
+      </c>
+      <c r="C463" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D463" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E463" t="n">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="F463" t="n">
+        <v>1</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0</v>
+      </c>
+      <c r="H463" t="n">
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>0</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cuniburo FC </t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Manta FC</t>
+        </is>
+      </c>
+      <c r="C464" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="D464" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="E464" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="F464" t="n">
+        <v>1</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0</v>
+      </c>
+      <c r="H464" t="n">
+        <v>0</v>
+      </c>
+      <c r="I464" t="n">
+        <v>0</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Real RR </t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sao Raimundo EC RR</t>
+        </is>
+      </c>
+      <c r="C465" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="D465" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="E465" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="F465" t="n">
+        <v>1</v>
+      </c>
+      <c r="G465" t="n">
+        <v>1</v>
+      </c>
+      <c r="H465" t="n">
+        <v>0</v>
+      </c>
+      <c r="I465" t="n">
+        <v>0</v>
+      </c>
+      <c r="J465" t="n">
+        <v>0</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afturelding/Hviti/Alaf U19 </t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fylkir/Ellidi U19</t>
+        </is>
+      </c>
+      <c r="C466" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D466" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E466" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F466" t="n">
+        <v>0</v>
+      </c>
+      <c r="G466" t="n">
+        <v>1</v>
+      </c>
+      <c r="H466" t="n">
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>1</v>
+      </c>
+      <c r="J466" t="n">
+        <v>0</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t xml:space="preserve">US Cremonese </t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SC Pisa</t>
+        </is>
+      </c>
+      <c r="C467" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D467" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E467" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="F467" t="n">
+        <v>0</v>
+      </c>
+      <c r="G467" t="n">
+        <v>0</v>
+      </c>
+      <c r="H467" t="n">
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>0</v>
+      </c>
+      <c r="J467" t="n">
+        <v>1</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Central Coast Mariners </t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Adelaide United FC</t>
+        </is>
+      </c>
+      <c r="C468" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D468" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E468" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="F468" t="n">
+        <v>0</v>
+      </c>
+      <c r="G468" t="n">
+        <v>0</v>
+      </c>
+      <c r="H468" t="n">
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>1</v>
+      </c>
+      <c r="J468" t="n">
+        <v>1</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Changchun Yatai </t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sichuan Jiuniu</t>
+        </is>
+      </c>
+      <c r="C469" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="D469" t="n">
+        <v>3</v>
+      </c>
+      <c r="E469" t="n">
+        <v>0.6099999999999999</v>
+      </c>
+      <c r="F469" t="n">
+        <v>0</v>
+      </c>
+      <c r="G469" t="n">
+        <v>1</v>
+      </c>
+      <c r="H469" t="n">
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>1</v>
+      </c>
+      <c r="J469" t="n">
+        <v>0</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Qingdao Hainiu FC </t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Shanghai Port FC</t>
+        </is>
+      </c>
+      <c r="C470" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="D470" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E470" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="F470" t="n">
+        <v>1</v>
+      </c>
+      <c r="G470" t="n">
+        <v>1</v>
+      </c>
+      <c r="H470" t="n">
+        <v>0</v>
+      </c>
+      <c r="I470" t="n">
+        <v>0</v>
+      </c>
+      <c r="J470" t="n">
+        <v>0</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daegu FC </t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ulsan Hyundai FC</t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D471" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E471" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="F471" t="n">
+        <v>1</v>
+      </c>
+      <c r="G471" t="n">
+        <v>0</v>
+      </c>
+      <c r="H471" t="n">
+        <v>0</v>
+      </c>
+      <c r="I471" t="n">
+        <v>1</v>
+      </c>
+      <c r="J471" t="n">
+        <v>1</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gangwon FC </t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pohang Steelers FC</t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="D472" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E472" t="n">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="F472" t="n">
+        <v>1</v>
+      </c>
+      <c r="G472" t="n">
+        <v>0</v>
+      </c>
+      <c r="H472" t="n">
+        <v>0</v>
+      </c>
+      <c r="I472" t="n">
+        <v>0</v>
+      </c>
+      <c r="J472" t="n">
+        <v>0</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Incheon United FC </t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jeonbuk Hyundai Motors</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D473" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E473" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="F473" t="n">
+        <v>1</v>
+      </c>
+      <c r="G473" t="n">
+        <v>1</v>
+      </c>
+      <c r="H473" t="n">
+        <v>0</v>
+      </c>
+      <c r="I473" t="n">
+        <v>1</v>
+      </c>
+      <c r="J473" t="n">
+        <v>0</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jeju United FC </t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gwangju FC</t>
+        </is>
+      </c>
+      <c r="C474" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D474" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E474" t="n">
+        <v>0</v>
+      </c>
+      <c r="F474" t="n">
+        <v>0</v>
+      </c>
+      <c r="G474" t="n">
+        <v>1</v>
+      </c>
+      <c r="H474" t="n">
+        <v>0</v>
+      </c>
+      <c r="I474" t="n">
+        <v>1</v>
+      </c>
+      <c r="J474" t="n">
+        <v>1</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CD Varea </t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SD Oyonesa</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D475" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E475" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="F475" t="n">
+        <v>1</v>
+      </c>
+      <c r="G475" t="n">
+        <v>1</v>
+      </c>
+      <c r="H475" t="n">
+        <v>0</v>
+      </c>
+      <c r="I475" t="n">
+        <v>0</v>
+      </c>
+      <c r="J475" t="n">
+        <v>0</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AE Prat </t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Girona FC B</t>
+        </is>
+      </c>
+      <c r="C476" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="D476" t="n">
+        <v>4</v>
+      </c>
+      <c r="E476" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="F476" t="n">
+        <v>1</v>
+      </c>
+      <c r="G476" t="n">
+        <v>0</v>
+      </c>
+      <c r="H476" t="n">
+        <v>0</v>
+      </c>
+      <c r="I476" t="n">
+        <v>1</v>
+      </c>
+      <c r="J476" t="n">
+        <v>1</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UE Rapitenca </t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> UE Tona</t>
+        </is>
+      </c>
+      <c r="C477" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D477" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E477" t="n">
+        <v>0.04999999999999982</v>
+      </c>
+      <c r="F477" t="n">
+        <v>1</v>
+      </c>
+      <c r="G477" t="n">
+        <v>1</v>
+      </c>
+      <c r="H477" t="n">
+        <v>0</v>
+      </c>
+      <c r="I477" t="n">
+        <v>0</v>
+      </c>
+      <c r="J477" t="n">
+        <v>1</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Patacona CF </t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Athletic Torrellano</t>
+        </is>
+      </c>
+      <c r="C478" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D478" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E478" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F478" t="n">
+        <v>1</v>
+      </c>
+      <c r="G478" t="n">
+        <v>0</v>
+      </c>
+      <c r="H478" t="n">
+        <v>0</v>
+      </c>
+      <c r="I478" t="n">
+        <v>0</v>
+      </c>
+      <c r="J478" t="n">
+        <v>0</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CF Gandia </t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD Burriana</t>
+        </is>
+      </c>
+      <c r="C479" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D479" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E479" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="F479" t="n">
+        <v>1</v>
+      </c>
+      <c r="G479" t="n">
+        <v>0</v>
+      </c>
+      <c r="H479" t="n">
+        <v>0</v>
+      </c>
+      <c r="I479" t="n">
+        <v>1</v>
+      </c>
+      <c r="J479" t="n">
+        <v>0</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trival Valderas A. </t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CDF Tres Cantos</t>
+        </is>
+      </c>
+      <c r="C480" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D480" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E480" t="n">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="F480" t="n">
+        <v>0</v>
+      </c>
+      <c r="G480" t="n">
+        <v>0</v>
+      </c>
+      <c r="H480" t="n">
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>1</v>
+      </c>
+      <c r="J480" t="n">
+        <v>0</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colonia Moscardo </t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD Canillas</t>
+        </is>
+      </c>
+      <c r="C481" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D481" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E481" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F481" t="n">
+        <v>0</v>
+      </c>
+      <c r="G481" t="n">
+        <v>1</v>
+      </c>
+      <c r="H481" t="n">
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>0</v>
+      </c>
+      <c r="J481" t="n">
+        <v>1</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RSD Alcala </t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AD Torrejon CF</t>
+        </is>
+      </c>
+      <c r="C482" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D482" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E482" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F482" t="n">
+        <v>1</v>
+      </c>
+      <c r="G482" t="n">
+        <v>1</v>
+      </c>
+      <c r="H482" t="n">
+        <v>0</v>
+      </c>
+      <c r="I482" t="n">
+        <v>0</v>
+      </c>
+      <c r="J482" t="n">
+        <v>0</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gedania Gdansk </t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pogon Szczecin II</t>
+        </is>
+      </c>
+      <c r="C483" t="n">
+        <v>3</v>
+      </c>
+      <c r="D483" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E483" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F483" t="n">
+        <v>1</v>
+      </c>
+      <c r="G483" t="n">
+        <v>1</v>
+      </c>
+      <c r="H483" t="n">
+        <v>0</v>
+      </c>
+      <c r="I483" t="n">
+        <v>0</v>
+      </c>
+      <c r="J483" t="n">
+        <v>1</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFk Karvina B </t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. SC Znojmo FK</t>
+        </is>
+      </c>
+      <c r="C484" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D484" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E484" t="n">
+        <v>0.1999999999999997</v>
+      </c>
+      <c r="F484" t="n">
+        <v>1</v>
+      </c>
+      <c r="G484" t="n">
+        <v>0</v>
+      </c>
+      <c r="H484" t="n">
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>0</v>
+      </c>
+      <c r="J484" t="n">
+        <v>0</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wofoo Tai Po </t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sham Shui Po SA</t>
+        </is>
+      </c>
+      <c r="C485" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D485" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="E485" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="F485" t="n">
+        <v>0</v>
+      </c>
+      <c r="G485" t="n">
+        <v>1</v>
+      </c>
+      <c r="H485" t="n">
+        <v>0</v>
+      </c>
+      <c r="I485" t="n">
+        <v>0</v>
+      </c>
+      <c r="J485" t="n">
+        <v>1</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wurzburger FV </t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. SC Feucht</t>
+        </is>
+      </c>
+      <c r="C486" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D486" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E486" t="n">
+        <v>6.959999999999999</v>
+      </c>
+      <c r="F486" t="n">
+        <v>0</v>
+      </c>
+      <c r="G486" t="n">
+        <v>1</v>
+      </c>
+      <c r="H486" t="n">
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>0</v>
+      </c>
+      <c r="J486" t="n">
+        <v>1</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blumenthaler SV </t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KSV Vatan Sport</t>
+        </is>
+      </c>
+      <c r="C487" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D487" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E487" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="F487" t="n">
+        <v>0</v>
+      </c>
+      <c r="G487" t="n">
+        <v>1</v>
+      </c>
+      <c r="H487" t="n">
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>0</v>
+      </c>
+      <c r="J487" t="n">
+        <v>0</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Borussia Monchengladbach </t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MSV Duisburg</t>
+        </is>
+      </c>
+      <c r="C488" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="D488" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="E488" t="n">
+        <v>3.970000000000001</v>
+      </c>
+      <c r="F488" t="n">
+        <v>0</v>
+      </c>
+      <c r="G488" t="n">
+        <v>0</v>
+      </c>
+      <c r="H488" t="n">
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>1</v>
+      </c>
+      <c r="J488" t="n">
+        <v>1</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Slavia Prague </t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Zbrojovka Brno</t>
+        </is>
+      </c>
+      <c r="C489" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D489" t="n">
+        <v>5</v>
+      </c>
+      <c r="E489" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="F489" t="n">
+        <v>1</v>
+      </c>
+      <c r="G489" t="n">
+        <v>0</v>
+      </c>
+      <c r="H489" t="n">
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>0</v>
+      </c>
+      <c r="J489" t="n">
+        <v>1</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ASD Pomigliano </t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AC Milan</t>
+        </is>
+      </c>
+      <c r="C490" t="n">
+        <v>12</v>
+      </c>
+      <c r="D490" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="E490" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="F490" t="n">
+        <v>1</v>
+      </c>
+      <c r="G490" t="n">
+        <v>0</v>
+      </c>
+      <c r="H490" t="n">
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>0</v>
+      </c>
+      <c r="J490" t="n">
+        <v>0</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inter Milano </t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACF Fiorentina</t>
+        </is>
+      </c>
+      <c r="C491" t="n">
+        <v>2</v>
+      </c>
+      <c r="D491" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E491" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F491" t="n">
+        <v>1</v>
+      </c>
+      <c r="G491" t="n">
+        <v>0</v>
+      </c>
+      <c r="H491" t="n">
+        <v>0</v>
+      </c>
+      <c r="I491" t="n">
+        <v>1</v>
+      </c>
+      <c r="J491" t="n">
+        <v>1</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rp FC </t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CS Maritimo Madeira</t>
+        </is>
+      </c>
+      <c r="C492" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D492" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="E492" t="n">
+        <v>7.969999999999999</v>
+      </c>
+      <c r="F492" t="n">
+        <v>0</v>
+      </c>
+      <c r="G492" t="n">
+        <v>0</v>
+      </c>
+      <c r="H492" t="n">
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>1</v>
+      </c>
+      <c r="J492" t="n">
+        <v>0</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malmo FF </t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mallbackens IF</t>
+        </is>
+      </c>
+      <c r="C493" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="D493" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="E493" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="F493" t="n">
+        <v>0</v>
+      </c>
+      <c r="G493" t="n">
+        <v>1</v>
+      </c>
+      <c r="H493" t="n">
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>1</v>
+      </c>
+      <c r="J493" t="n">
+        <v>0</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bollstanas SK </t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> IK Uppsala Fotboll</t>
+        </is>
+      </c>
+      <c r="C494" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D494" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E494" t="n">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="F494" t="n">
+        <v>0</v>
+      </c>
+      <c r="G494" t="n">
+        <v>1</v>
+      </c>
+      <c r="H494" t="n">
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>0</v>
+      </c>
+      <c r="J494" t="n">
+        <v>0</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eskilstuna United DFF </t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Umea IK</t>
+        </is>
+      </c>
+      <c r="C495" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="D495" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E495" t="n">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="F495" t="n">
+        <v>1</v>
+      </c>
+      <c r="G495" t="n">
+        <v>0</v>
+      </c>
+      <c r="H495" t="n">
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>0</v>
+      </c>
+      <c r="J495" t="n">
+        <v>0</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gamla Upsala SK </t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jitex Molndal BK</t>
+        </is>
+      </c>
+      <c r="C496" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D496" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E496" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F496" t="n">
+        <v>1</v>
+      </c>
+      <c r="G496" t="n">
+        <v>1</v>
+      </c>
+      <c r="H496" t="n">
+        <v>0</v>
+      </c>
+      <c r="I496" t="n">
+        <v>0</v>
+      </c>
+      <c r="J496" t="n">
+        <v>1</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lidkopings FK </t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sunnanaa SK</t>
+        </is>
+      </c>
+      <c r="C497" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="D497" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="E497" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="F497" t="n">
+        <v>1</v>
+      </c>
+      <c r="G497" t="n">
+        <v>1</v>
+      </c>
+      <c r="H497" t="n">
+        <v>0</v>
+      </c>
+      <c r="I497" t="n">
+        <v>0</v>
+      </c>
+      <c r="J497" t="n">
+        <v>0</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t xml:space="preserve">US Cremonese </t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SC Pisa</t>
+        </is>
+      </c>
+      <c r="C498" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D498" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E498" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="F498" t="n">
+        <v>0</v>
+      </c>
+      <c r="G498" t="n">
+        <v>0</v>
+      </c>
+      <c r="H498" t="n">
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>0</v>
+      </c>
+      <c r="J498" t="n">
+        <v>1</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Central Coast Mariners </t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Adelaide United FC</t>
+        </is>
+      </c>
+      <c r="C499" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D499" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E499" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="F499" t="n">
+        <v>0</v>
+      </c>
+      <c r="G499" t="n">
+        <v>0</v>
+      </c>
+      <c r="H499" t="n">
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>1</v>
+      </c>
+      <c r="J499" t="n">
+        <v>1</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Changchun Yatai </t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sichuan Jiuniu</t>
+        </is>
+      </c>
+      <c r="C500" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="D500" t="n">
+        <v>3</v>
+      </c>
+      <c r="E500" t="n">
+        <v>0.6099999999999999</v>
+      </c>
+      <c r="F500" t="n">
+        <v>0</v>
+      </c>
+      <c r="G500" t="n">
+        <v>1</v>
+      </c>
+      <c r="H500" t="n">
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>1</v>
+      </c>
+      <c r="J500" t="n">
+        <v>0</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Qingdao Hainiu FC </t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Shanghai Port FC</t>
+        </is>
+      </c>
+      <c r="C501" t="n">
+        <v>9.73</v>
+      </c>
+      <c r="D501" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E501" t="n">
+        <v>8.41</v>
+      </c>
+      <c r="F501" t="n">
+        <v>1</v>
+      </c>
+      <c r="G501" t="n">
+        <v>1</v>
+      </c>
+      <c r="H501" t="n">
+        <v>0</v>
+      </c>
+      <c r="I501" t="n">
+        <v>0</v>
+      </c>
+      <c r="J501" t="n">
+        <v>0</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daegu FC </t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ulsan Hyundai FC</t>
+        </is>
+      </c>
+      <c r="C502" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D502" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E502" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="F502" t="n">
+        <v>1</v>
+      </c>
+      <c r="G502" t="n">
+        <v>0</v>
+      </c>
+      <c r="H502" t="n">
+        <v>0</v>
+      </c>
+      <c r="I502" t="n">
+        <v>1</v>
+      </c>
+      <c r="J502" t="n">
+        <v>1</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gangwon FC </t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pohang Steelers FC</t>
+        </is>
+      </c>
+      <c r="C503" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="D503" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E503" t="n">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="F503" t="n">
+        <v>1</v>
+      </c>
+      <c r="G503" t="n">
+        <v>0</v>
+      </c>
+      <c r="H503" t="n">
+        <v>0</v>
+      </c>
+      <c r="I503" t="n">
+        <v>0</v>
+      </c>
+      <c r="J503" t="n">
+        <v>0</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Incheon United FC </t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jeonbuk Hyundai Motors</t>
+        </is>
+      </c>
+      <c r="C504" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D504" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E504" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="F504" t="n">
+        <v>1</v>
+      </c>
+      <c r="G504" t="n">
+        <v>0</v>
+      </c>
+      <c r="H504" t="n">
+        <v>0</v>
+      </c>
+      <c r="I504" t="n">
+        <v>1</v>
+      </c>
+      <c r="J504" t="n">
+        <v>0</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jeju United FC </t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gwangju FC</t>
+        </is>
+      </c>
+      <c r="C505" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D505" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E505" t="n">
+        <v>0</v>
+      </c>
+      <c r="F505" t="n">
+        <v>0</v>
+      </c>
+      <c r="G505" t="n">
+        <v>1</v>
+      </c>
+      <c r="H505" t="n">
+        <v>0</v>
+      </c>
+      <c r="I505" t="n">
+        <v>1</v>
+      </c>
+      <c r="J505" t="n">
+        <v>1</v>
+      </c>
+      <c r="K505" t="inlineStr">
         <is>
           <t>pending</t>
         </is>

--- a/ml.xlsx
+++ b/ml.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K505"/>
+  <dimension ref="A1:K692"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19592,7 +19592,7 @@
       </c>
       <c r="K467" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -19633,7 +19633,7 @@
       </c>
       <c r="K468" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -19674,7 +19674,7 @@
       </c>
       <c r="K469" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -19715,7 +19715,7 @@
       </c>
       <c r="K470" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -19756,7 +19756,7 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -19797,7 +19797,7 @@
       </c>
       <c r="K472" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -19838,7 +19838,7 @@
       </c>
       <c r="K473" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -19879,7 +19879,7 @@
       </c>
       <c r="K474" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -19920,7 +19920,7 @@
       </c>
       <c r="K475" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -19961,7 +19961,7 @@
       </c>
       <c r="K476" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -20002,7 +20002,7 @@
       </c>
       <c r="K477" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -20043,7 +20043,7 @@
       </c>
       <c r="K478" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -20084,7 +20084,7 @@
       </c>
       <c r="K479" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -20125,7 +20125,7 @@
       </c>
       <c r="K480" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -20166,7 +20166,7 @@
       </c>
       <c r="K481" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -20207,7 +20207,7 @@
       </c>
       <c r="K482" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -20248,7 +20248,7 @@
       </c>
       <c r="K483" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -20289,7 +20289,7 @@
       </c>
       <c r="K484" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -20330,7 +20330,7 @@
       </c>
       <c r="K485" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -20371,7 +20371,7 @@
       </c>
       <c r="K486" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -20412,7 +20412,7 @@
       </c>
       <c r="K487" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -20453,7 +20453,7 @@
       </c>
       <c r="K488" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -20494,7 +20494,7 @@
       </c>
       <c r="K489" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -20535,7 +20535,7 @@
       </c>
       <c r="K490" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -20576,7 +20576,7 @@
       </c>
       <c r="K491" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -20617,7 +20617,7 @@
       </c>
       <c r="K492" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -20658,7 +20658,7 @@
       </c>
       <c r="K493" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -20699,7 +20699,7 @@
       </c>
       <c r="K494" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -20740,7 +20740,7 @@
       </c>
       <c r="K495" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -20781,7 +20781,7 @@
       </c>
       <c r="K496" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -20822,120 +20822,120 @@
       </c>
       <c r="K497" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t xml:space="preserve">US Cremonese </t>
+          <t xml:space="preserve">Portuguesa FC </t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SC Pisa</t>
+          <t xml:space="preserve"> Academia Puerto Cabello</t>
         </is>
       </c>
       <c r="C498" t="n">
-        <v>1.83</v>
+        <v>3.2</v>
       </c>
       <c r="D498" t="n">
-        <v>4.3</v>
+        <v>2.35</v>
       </c>
       <c r="E498" t="n">
-        <v>2.47</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K498" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t xml:space="preserve">Central Coast Mariners </t>
+          <t xml:space="preserve">Angostura FC </t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Adelaide United FC</t>
+          <t xml:space="preserve"> Carabobo FC</t>
         </is>
       </c>
       <c r="C499" t="n">
-        <v>1.59</v>
+        <v>3</v>
       </c>
       <c r="D499" t="n">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
       <c r="E499" t="n">
-        <v>3.11</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="F499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G499" t="n">
         <v>0</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I499" t="n">
         <v>1</v>
       </c>
       <c r="J499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K499" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t xml:space="preserve">Changchun Yatai </t>
+          <t xml:space="preserve">Brusque FC SC </t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sichuan Jiuniu</t>
+          <t xml:space="preserve"> AC Goianiense GO</t>
         </is>
       </c>
       <c r="C500" t="n">
-        <v>2.39</v>
+        <v>3.6</v>
       </c>
       <c r="D500" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="E500" t="n">
-        <v>0.6099999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="F500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G500" t="n">
         <v>1</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I500" t="n">
         <v>1</v>
@@ -20945,76 +20945,76 @@
       </c>
       <c r="K500" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t xml:space="preserve">Qingdao Hainiu FC </t>
+          <t xml:space="preserve">Sampaio Correa FC MA </t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Shanghai Port FC</t>
+          <t xml:space="preserve"> Fluminense FC RJ</t>
         </is>
       </c>
       <c r="C501" t="n">
-        <v>9.73</v>
+        <v>7.75</v>
       </c>
       <c r="D501" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="E501" t="n">
-        <v>8.41</v>
+        <v>6.38</v>
       </c>
       <c r="F501" t="n">
         <v>1</v>
       </c>
       <c r="G501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H501" t="n">
         <v>0</v>
       </c>
       <c r="I501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t xml:space="preserve">Daegu FC </t>
+          <t xml:space="preserve">Sousa EC PB </t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ulsan Hyundai FC</t>
+          <t xml:space="preserve"> Red Bull Bragantino SP</t>
         </is>
       </c>
       <c r="C502" t="n">
-        <v>3.9</v>
+        <v>5.7</v>
       </c>
       <c r="D502" t="n">
-        <v>1.95</v>
+        <v>1.54</v>
       </c>
       <c r="E502" t="n">
-        <v>1.95</v>
+        <v>4.16</v>
       </c>
       <c r="F502" t="n">
         <v>1</v>
       </c>
       <c r="G502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H502" t="n">
         <v>0</v>
@@ -21023,33 +21023,33 @@
         <v>1</v>
       </c>
       <c r="J502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K502" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gangwon FC </t>
+          <t xml:space="preserve">Ypiranga FC RS </t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pohang Steelers FC</t>
+          <t xml:space="preserve"> CA Paranaense PR</t>
         </is>
       </c>
       <c r="C503" t="n">
-        <v>2.95</v>
+        <v>5.8</v>
       </c>
       <c r="D503" t="n">
-        <v>2.6</v>
+        <v>1.57</v>
       </c>
       <c r="E503" t="n">
-        <v>0.3500000000000001</v>
+        <v>4.23</v>
       </c>
       <c r="F503" t="n">
         <v>1</v>
@@ -21058,39 +21058,39 @@
         <v>0</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J503" t="n">
         <v>0</v>
       </c>
       <c r="K503" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t xml:space="preserve">Incheon United FC </t>
+          <t xml:space="preserve">Fortaleza EC CE </t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Jeonbuk Hyundai Motors</t>
+          <t xml:space="preserve"> CR Vasco da Gama RJ</t>
         </is>
       </c>
       <c r="C504" t="n">
-        <v>2.75</v>
+        <v>1.62</v>
       </c>
       <c r="D504" t="n">
-        <v>2.65</v>
+        <v>4.9</v>
       </c>
       <c r="E504" t="n">
-        <v>0.1000000000000001</v>
+        <v>3.28</v>
       </c>
       <c r="F504" t="n">
         <v>1</v>
@@ -21102,53 +21102,7720 @@
         <v>0</v>
       </c>
       <c r="I504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K504" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeju United FC </t>
+          <t xml:space="preserve">America FC RN </t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gwangju FC</t>
+          <t xml:space="preserve"> SC Corinthians SP</t>
         </is>
       </c>
       <c r="C505" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="D505" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="E505" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="F505" t="n">
+        <v>1</v>
+      </c>
+      <c r="G505" t="n">
+        <v>0</v>
+      </c>
+      <c r="H505" t="n">
+        <v>0</v>
+      </c>
+      <c r="I505" t="n">
+        <v>0</v>
+      </c>
+      <c r="J505" t="n">
+        <v>1</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CR Flamengo RJ </t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Amazonas FC AM</t>
+        </is>
+      </c>
+      <c r="C506" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D506" t="n">
+        <v>18</v>
+      </c>
+      <c r="E506" t="n">
+        <v>16.89</v>
+      </c>
+      <c r="F506" t="n">
+        <v>0</v>
+      </c>
+      <c r="G506" t="n">
+        <v>1</v>
+      </c>
+      <c r="H506" t="n">
+        <v>0</v>
+      </c>
+      <c r="I506" t="n">
+        <v>0</v>
+      </c>
+      <c r="J506" t="n">
+        <v>1</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CD Universidad Catolica del Ecuador </t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Barcelona SC</t>
+        </is>
+      </c>
+      <c r="C507" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D507" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E507" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="F507" t="n">
+        <v>0</v>
+      </c>
+      <c r="G507" t="n">
+        <v>1</v>
+      </c>
+      <c r="H507" t="n">
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>1</v>
+      </c>
+      <c r="J507" t="n">
+        <v>0</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gualaceo SC </t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Guayaquil City FC</t>
+        </is>
+      </c>
+      <c r="C508" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D508" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="E508" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="F508" t="n">
+        <v>0</v>
+      </c>
+      <c r="G508" t="n">
+        <v>1</v>
+      </c>
+      <c r="H508" t="n">
+        <v>0</v>
+      </c>
+      <c r="I508" t="n">
+        <v>1</v>
+      </c>
+      <c r="J508" t="n">
+        <v>1</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS Cartagines </t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Perez Zeledon</t>
+        </is>
+      </c>
+      <c r="C509" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D509" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E509" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="F509" t="n">
+        <v>1</v>
+      </c>
+      <c r="G509" t="n">
+        <v>0</v>
+      </c>
+      <c r="H509" t="n">
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>0</v>
+      </c>
+      <c r="J509" t="n">
+        <v>0</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atletico Ottawa </t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Valour FC</t>
+        </is>
+      </c>
+      <c r="C510" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D510" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E510" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F510" t="n">
+        <v>0</v>
+      </c>
+      <c r="G510" t="n">
+        <v>1</v>
+      </c>
+      <c r="H510" t="n">
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>0</v>
+      </c>
+      <c r="J510" t="n">
+        <v>0</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CD Dragon </t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Once Deportivo de Ahuachapan</t>
+        </is>
+      </c>
+      <c r="C511" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D511" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E511" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F511" t="n">
+        <v>1</v>
+      </c>
+      <c r="G511" t="n">
+        <v>0</v>
+      </c>
+      <c r="H511" t="n">
+        <v>0</v>
+      </c>
+      <c r="I511" t="n">
+        <v>0</v>
+      </c>
+      <c r="J511" t="n">
+        <v>0</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Santa Tecla FC </t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AD Isidro Metapan</t>
+        </is>
+      </c>
+      <c r="C512" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D512" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E512" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="F512" t="n">
+        <v>1</v>
+      </c>
+      <c r="G512" t="n">
+        <v>1</v>
+      </c>
+      <c r="H512" t="n">
+        <v>0</v>
+      </c>
+      <c r="I512" t="n">
+        <v>0</v>
+      </c>
+      <c r="J512" t="n">
+        <v>0</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alianza FC San Salvador </t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD FAS Santa Ana</t>
+        </is>
+      </c>
+      <c r="C513" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D513" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E513" t="n">
+        <v>3.350000000000001</v>
+      </c>
+      <c r="F513" t="n">
+        <v>1</v>
+      </c>
+      <c r="G513" t="n">
+        <v>0</v>
+      </c>
+      <c r="H513" t="n">
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>0</v>
+      </c>
+      <c r="J513" t="n">
+        <v>1</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atlántico FC </t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Delfines Del Este</t>
+        </is>
+      </c>
+      <c r="C514" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="D514" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E514" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F514" t="n">
+        <v>0</v>
+      </c>
+      <c r="G514" t="n">
+        <v>1</v>
+      </c>
+      <c r="H514" t="n">
+        <v>0</v>
+      </c>
+      <c r="I514" t="n">
+        <v>1</v>
+      </c>
+      <c r="J514" t="n">
+        <v>0</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cibao CF </t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Universidad O&amp;M</t>
+        </is>
+      </c>
+      <c r="C515" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D515" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E515" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="F515" t="n">
+        <v>1</v>
+      </c>
+      <c r="G515" t="n">
+        <v>0</v>
+      </c>
+      <c r="H515" t="n">
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>0</v>
+      </c>
+      <c r="J515" t="n">
+        <v>0</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moca FC </t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Club Atletico Pantoja</t>
+        </is>
+      </c>
+      <c r="C516" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D516" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E516" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="F516" t="n">
+        <v>1</v>
+      </c>
+      <c r="G516" t="n">
+        <v>0</v>
+      </c>
+      <c r="H516" t="n">
+        <v>0</v>
+      </c>
+      <c r="I516" t="n">
+        <v>0</v>
+      </c>
+      <c r="J516" t="n">
+        <v>0</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atletico Mineiro MG </t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gremio FB Porto Alegrense RS</t>
+        </is>
+      </c>
+      <c r="C517" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D517" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E517" t="n">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="F517" t="n">
+        <v>0</v>
+      </c>
+      <c r="G517" t="n">
+        <v>1</v>
+      </c>
+      <c r="H517" t="n">
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>1</v>
+      </c>
+      <c r="J517" t="n">
+        <v>0</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orlando Pride </t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> North Carolina Courage</t>
+        </is>
+      </c>
+      <c r="C518" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D518" t="n">
+        <v>3</v>
+      </c>
+      <c r="E518" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F518" t="n">
+        <v>1</v>
+      </c>
+      <c r="G518" t="n">
+        <v>0</v>
+      </c>
+      <c r="H518" t="n">
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>1</v>
+      </c>
+      <c r="J518" t="n">
+        <v>0</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chicago Red Stars </t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Washington Spirit</t>
+        </is>
+      </c>
+      <c r="C519" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="D519" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E519" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F519" t="n">
+        <v>1</v>
+      </c>
+      <c r="G519" t="n">
+        <v>1</v>
+      </c>
+      <c r="H519" t="n">
+        <v>0</v>
+      </c>
+      <c r="I519" t="n">
+        <v>1</v>
+      </c>
+      <c r="J519" t="n">
+        <v>0</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inter Playa Del Carmen </t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tampico Madero FC</t>
+        </is>
+      </c>
+      <c r="C520" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="D520" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E520" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F520" t="n">
+        <v>0</v>
+      </c>
+      <c r="G520" t="n">
+        <v>0</v>
+      </c>
+      <c r="H520" t="n">
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>1</v>
+      </c>
+      <c r="J520" t="n">
+        <v>1</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Artesanos Metepec FC </t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Aguacateros CD Uruapan</t>
+        </is>
+      </c>
+      <c r="C521" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D521" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E521" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="F521" t="n">
+        <v>1</v>
+      </c>
+      <c r="G521" t="n">
+        <v>0</v>
+      </c>
+      <c r="H521" t="n">
+        <v>0</v>
+      </c>
+      <c r="I521" t="n">
+        <v>0</v>
+      </c>
+      <c r="J521" t="n">
+        <v>0</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CD Inca </t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Csd Vendaval</t>
+        </is>
+      </c>
+      <c r="C522" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D522" t="n">
+        <v>21</v>
+      </c>
+      <c r="E522" t="n">
+        <v>19.93</v>
+      </c>
+      <c r="F522" t="n">
+        <v>1</v>
+      </c>
+      <c r="G522" t="n">
+        <v>1</v>
+      </c>
+      <c r="H522" t="n">
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>0</v>
+      </c>
+      <c r="J522" t="n">
+        <v>0</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Campbelltown City SC </t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Adelaide Croatia Raiders SC</t>
+        </is>
+      </c>
+      <c r="C523" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="D523" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E523" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="F523" t="n">
+        <v>0</v>
+      </c>
+      <c r="G523" t="n">
+        <v>1</v>
+      </c>
+      <c r="H523" t="n">
+        <v>0</v>
+      </c>
+      <c r="I523" t="n">
+        <v>0</v>
+      </c>
+      <c r="J523" t="n">
+        <v>1</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FK Zenit St. Petersburg </t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Orenburg Youth</t>
+        </is>
+      </c>
+      <c r="C524" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="D524" t="n">
+        <v>13</v>
+      </c>
+      <c r="E524" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="F524" t="n">
+        <v>0</v>
+      </c>
+      <c r="G524" t="n">
+        <v>1</v>
+      </c>
+      <c r="H524" t="n">
+        <v>0</v>
+      </c>
+      <c r="I524" t="n">
+        <v>0</v>
+      </c>
+      <c r="J524" t="n">
+        <v>1</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gyeongju FC </t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Siheung Citizen FC</t>
+        </is>
+      </c>
+      <c r="C525" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D525" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E525" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="F525" t="n">
+        <v>1</v>
+      </c>
+      <c r="G525" t="n">
+        <v>1</v>
+      </c>
+      <c r="H525" t="n">
+        <v>0</v>
+      </c>
+      <c r="I525" t="n">
+        <v>1</v>
+      </c>
+      <c r="J525" t="n">
+        <v>0</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Casuarina FC </t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> University Azzurri FC</t>
+        </is>
+      </c>
+      <c r="C526" t="n">
+        <v>3</v>
+      </c>
+      <c r="D526" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="E526" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="F526" t="n">
+        <v>1</v>
+      </c>
+      <c r="G526" t="n">
+        <v>0</v>
+      </c>
+      <c r="H526" t="n">
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>1</v>
+      </c>
+      <c r="J526" t="n">
+        <v>0</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barnsley FC </t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hull City</t>
+        </is>
+      </c>
+      <c r="C527" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="D527" t="n">
+        <v>4</v>
+      </c>
+      <c r="E527" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="F527" t="n">
+        <v>0</v>
+      </c>
+      <c r="G527" t="n">
+        <v>0</v>
+      </c>
+      <c r="H527" t="n">
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>1</v>
+      </c>
+      <c r="J527" t="n">
+        <v>1</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pilica Bialobrzegi </t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Concordia Elblag</t>
+        </is>
+      </c>
+      <c r="C528" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D528" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E528" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F528" t="n">
+        <v>1</v>
+      </c>
+      <c r="G528" t="n">
+        <v>0</v>
+      </c>
+      <c r="H528" t="n">
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>1</v>
+      </c>
+      <c r="J528" t="n">
+        <v>0</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ACS Champions FC Arges </t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSC Dumbravita</t>
+        </is>
+      </c>
+      <c r="C529" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="D529" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E529" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="F529" t="n">
+        <v>0</v>
+      </c>
+      <c r="G529" t="n">
+        <v>0</v>
+      </c>
+      <c r="H529" t="n">
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>1</v>
+      </c>
+      <c r="J529" t="n">
+        <v>0</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS Concordia Chiajna </t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Viitorul Pandurii Targu Jiu</t>
+        </is>
+      </c>
+      <c r="C530" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="D530" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="E530" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="F530" t="n">
+        <v>1</v>
+      </c>
+      <c r="G530" t="n">
+        <v>1</v>
+      </c>
+      <c r="H530" t="n">
+        <v>0</v>
+      </c>
+      <c r="I530" t="n">
+        <v>0</v>
+      </c>
+      <c r="J530" t="n">
+        <v>1</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS Tunari </t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Csa Steaua Bucuresti</t>
+        </is>
+      </c>
+      <c r="C531" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="D531" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E531" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="F531" t="n">
+        <v>1</v>
+      </c>
+      <c r="G531" t="n">
+        <v>0</v>
+      </c>
+      <c r="H531" t="n">
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>0</v>
+      </c>
+      <c r="J531" t="n">
+        <v>1</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CSC 1599 Selimbar </t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Buzau</t>
+        </is>
+      </c>
+      <c r="C532" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D532" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E532" t="n">
+        <v>0.9500000000000002</v>
+      </c>
+      <c r="F532" t="n">
+        <v>0</v>
+      </c>
+      <c r="G532" t="n">
+        <v>0</v>
+      </c>
+      <c r="H532" t="n">
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>1</v>
+      </c>
+      <c r="J532" t="n">
+        <v>0</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CSM Alexandria </t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSM Resita</t>
+        </is>
+      </c>
+      <c r="C533" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D533" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="E533" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F533" t="n">
+        <v>1</v>
+      </c>
+      <c r="G533" t="n">
+        <v>0</v>
+      </c>
+      <c r="H533" t="n">
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>1</v>
+      </c>
+      <c r="J533" t="n">
+        <v>0</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CSM Ceahlaul Piatra Neamt </t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Unirea Dej</t>
+        </is>
+      </c>
+      <c r="C534" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="D534" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E534" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F534" t="n">
+        <v>1</v>
+      </c>
+      <c r="G534" t="n">
+        <v>0</v>
+      </c>
+      <c r="H534" t="n">
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>0</v>
+      </c>
+      <c r="J534" t="n">
+        <v>1</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CSM Slatina </t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AFC Progresul 1944 Spartac</t>
+        </is>
+      </c>
+      <c r="C535" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="D535" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E535" t="n">
+        <v>10.36</v>
+      </c>
+      <c r="F535" t="n">
+        <v>1</v>
+      </c>
+      <c r="G535" t="n">
+        <v>1</v>
+      </c>
+      <c r="H535" t="n">
+        <v>0</v>
+      </c>
+      <c r="I535" t="n">
+        <v>0</v>
+      </c>
+      <c r="J535" t="n">
+        <v>1</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hapoel Migdal Haemeq </t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Tzeirey Um El Fahem</t>
+        </is>
+      </c>
+      <c r="C536" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D536" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E536" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F536" t="n">
+        <v>1</v>
+      </c>
+      <c r="G536" t="n">
+        <v>1</v>
+      </c>
+      <c r="H536" t="n">
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>0</v>
+      </c>
+      <c r="J536" t="n">
+        <v>0</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chittagong Abahani </t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mohammedan SC Dhaka</t>
+        </is>
+      </c>
+      <c r="C537" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="D537" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E537" t="n">
+        <v>8.040000000000001</v>
+      </c>
+      <c r="F537" t="n">
+        <v>0</v>
+      </c>
+      <c r="G537" t="n">
+        <v>1</v>
+      </c>
+      <c r="H537" t="n">
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>0</v>
+      </c>
+      <c r="J537" t="n">
+        <v>0</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ulytau FC </t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Ekibastuz</t>
+        </is>
+      </c>
+      <c r="C538" t="n">
+        <v>5</v>
+      </c>
+      <c r="D538" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="E538" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="F538" t="n">
+        <v>1</v>
+      </c>
+      <c r="G538" t="n">
+        <v>0</v>
+      </c>
+      <c r="H538" t="n">
+        <v>0</v>
+      </c>
+      <c r="I538" t="n">
+        <v>1</v>
+      </c>
+      <c r="J538" t="n">
+        <v>1</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NK Veres Rivne </t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Minaj U19</t>
+        </is>
+      </c>
+      <c r="C539" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="D539" t="n">
+        <v>4</v>
+      </c>
+      <c r="E539" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F539" t="n">
+        <v>0</v>
+      </c>
+      <c r="G539" t="n">
+        <v>1</v>
+      </c>
+      <c r="H539" t="n">
+        <v>0</v>
+      </c>
+      <c r="I539" t="n">
+        <v>0</v>
+      </c>
+      <c r="J539" t="n">
+        <v>0</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salisbury Inter </t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> West Torrens Birkalla</t>
+        </is>
+      </c>
+      <c r="C540" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="D540" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E540" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="F540" t="n">
+        <v>1</v>
+      </c>
+      <c r="G540" t="n">
+        <v>1</v>
+      </c>
+      <c r="H540" t="n">
+        <v>0</v>
+      </c>
+      <c r="I540" t="n">
+        <v>0</v>
+      </c>
+      <c r="J540" t="n">
+        <v>0</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Box Hill United </t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Heidelberg United FC</t>
+        </is>
+      </c>
+      <c r="C541" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D541" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E541" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="F541" t="n">
+        <v>1</v>
+      </c>
+      <c r="G541" t="n">
+        <v>1</v>
+      </c>
+      <c r="H541" t="n">
+        <v>0</v>
+      </c>
+      <c r="I541" t="n">
+        <v>0</v>
+      </c>
+      <c r="J541" t="n">
+        <v>1</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Akhmat Grozny </t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chertanovo Moscow</t>
+        </is>
+      </c>
+      <c r="C542" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="D542" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E542" t="n">
+        <v>0.9000000000000004</v>
+      </c>
+      <c r="F542" t="n">
+        <v>0</v>
+      </c>
+      <c r="G542" t="n">
+        <v>1</v>
+      </c>
+      <c r="H542" t="n">
+        <v>0</v>
+      </c>
+      <c r="I542" t="n">
+        <v>0</v>
+      </c>
+      <c r="J542" t="n">
+        <v>1</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ipswich Town </t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sheffield Wednesday</t>
+        </is>
+      </c>
+      <c r="C543" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D543" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E543" t="n">
+        <v>0.4499999999999997</v>
+      </c>
+      <c r="F543" t="n">
+        <v>1</v>
+      </c>
+      <c r="G543" t="n">
+        <v>0</v>
+      </c>
+      <c r="H543" t="n">
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>0</v>
+      </c>
+      <c r="J543" t="n">
+        <v>0</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Millwall </t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wigan Athletic</t>
+        </is>
+      </c>
+      <c r="C544" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="D544" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E544" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="F544" t="n">
+        <v>1</v>
+      </c>
+      <c r="G544" t="n">
+        <v>0</v>
+      </c>
+      <c r="H544" t="n">
+        <v>1</v>
+      </c>
+      <c r="I544" t="n">
+        <v>1</v>
+      </c>
+      <c r="J544" t="n">
+        <v>0</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Watford FC </t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Burnley FC</t>
+        </is>
+      </c>
+      <c r="C545" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D545" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E545" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="F545" t="n">
+        <v>0</v>
+      </c>
+      <c r="G545" t="n">
+        <v>1</v>
+      </c>
+      <c r="H545" t="n">
+        <v>0</v>
+      </c>
+      <c r="I545" t="n">
+        <v>0</v>
+      </c>
+      <c r="J545" t="n">
+        <v>1</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dibba Al-Hisn SC </t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dibba</t>
+        </is>
+      </c>
+      <c r="C546" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D546" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E546" t="n">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="F546" t="n">
+        <v>0</v>
+      </c>
+      <c r="G546" t="n">
+        <v>1</v>
+      </c>
+      <c r="H546" t="n">
+        <v>0</v>
+      </c>
+      <c r="I546" t="n">
+        <v>0</v>
+      </c>
+      <c r="J546" t="n">
+        <v>1</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Al-Hamriyah </t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> City Football Club</t>
+        </is>
+      </c>
+      <c r="C547" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D547" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="E547" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F547" t="n">
+        <v>0</v>
+      </c>
+      <c r="G547" t="n">
+        <v>1</v>
+      </c>
+      <c r="H547" t="n">
+        <v>0</v>
+      </c>
+      <c r="I547" t="n">
+        <v>1</v>
+      </c>
+      <c r="J547" t="n">
+        <v>1</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KS Polonia Bytom SA </t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sandecja Nowy Sacz</t>
+        </is>
+      </c>
+      <c r="C548" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D548" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E548" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F548" t="n">
+        <v>1</v>
+      </c>
+      <c r="G548" t="n">
+        <v>0</v>
+      </c>
+      <c r="H548" t="n">
+        <v>0</v>
+      </c>
+      <c r="I548" t="n">
+        <v>1</v>
+      </c>
+      <c r="J548" t="n">
+        <v>0</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Swit Nowy Dwor Mazowiecki </t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MKS Mlawianka Mlawa</t>
+        </is>
+      </c>
+      <c r="C549" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D549" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E549" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F549" t="n">
+        <v>0</v>
+      </c>
+      <c r="G549" t="n">
+        <v>0</v>
+      </c>
+      <c r="H549" t="n">
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>1</v>
+      </c>
+      <c r="J549" t="n">
+        <v>0</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rakow II Czestochowa </t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gornik Zabrze II</t>
+        </is>
+      </c>
+      <c r="C550" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D550" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E550" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="F550" t="n">
+        <v>1</v>
+      </c>
+      <c r="G550" t="n">
+        <v>0</v>
+      </c>
+      <c r="H550" t="n">
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>0</v>
+      </c>
+      <c r="J550" t="n">
+        <v>0</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mkp Carina Gubin </t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Unia Turza Slaska</t>
+        </is>
+      </c>
+      <c r="C551" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D551" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E551" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F551" t="n">
+        <v>1</v>
+      </c>
+      <c r="G551" t="n">
+        <v>1</v>
+      </c>
+      <c r="H551" t="n">
+        <v>0</v>
+      </c>
+      <c r="I551" t="n">
+        <v>1</v>
+      </c>
+      <c r="J551" t="n">
+        <v>0</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Swidniczanka Swidnik </t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KSZO Ostrowiec Swietokrzyski</t>
+        </is>
+      </c>
+      <c r="C552" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D552" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E552" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="F552" t="n">
+        <v>0</v>
+      </c>
+      <c r="G552" t="n">
+        <v>1</v>
+      </c>
+      <c r="H552" t="n">
+        <v>0</v>
+      </c>
+      <c r="I552" t="n">
+        <v>0</v>
+      </c>
+      <c r="J552" t="n">
+        <v>1</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CSC 1599 Selimbar </t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Buzau</t>
+        </is>
+      </c>
+      <c r="C553" t="n">
         <v>2.7</v>
       </c>
-      <c r="D505" t="n">
+      <c r="D553" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E553" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="F553" t="n">
+        <v>0</v>
+      </c>
+      <c r="G553" t="n">
+        <v>0</v>
+      </c>
+      <c r="H553" t="n">
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>1</v>
+      </c>
+      <c r="J553" t="n">
+        <v>0</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hapoel Ironi Kiryat Shmona FC </t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hapoel Nof Hagalil FC</t>
+        </is>
+      </c>
+      <c r="C554" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="D554" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E554" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="F554" t="n">
+        <v>0</v>
+      </c>
+      <c r="G554" t="n">
+        <v>1</v>
+      </c>
+      <c r="H554" t="n">
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>0</v>
+      </c>
+      <c r="J554" t="n">
+        <v>1</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hapoel Ramat Gan Givatayim FC </t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hapoel Afula FC</t>
+        </is>
+      </c>
+      <c r="C555" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="D555" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E555" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F555" t="n">
+        <v>1</v>
+      </c>
+      <c r="G555" t="n">
+        <v>0</v>
+      </c>
+      <c r="H555" t="n">
+        <v>0</v>
+      </c>
+      <c r="I555" t="n">
+        <v>1</v>
+      </c>
+      <c r="J555" t="n">
+        <v>0</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hapoel Rishon Lezion FC </t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hapoel Acre FC</t>
+        </is>
+      </c>
+      <c r="C556" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D556" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E556" t="n">
+        <v>0.5499999999999998</v>
+      </c>
+      <c r="F556" t="n">
+        <v>1</v>
+      </c>
+      <c r="G556" t="n">
+        <v>1</v>
+      </c>
+      <c r="H556" t="n">
+        <v>0</v>
+      </c>
+      <c r="I556" t="n">
+        <v>1</v>
+      </c>
+      <c r="J556" t="n">
+        <v>0</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ihud Bnei Shfaram </t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hapoel Kfar Saba FC</t>
+        </is>
+      </c>
+      <c r="C557" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D557" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="E557" t="n">
+        <v>4.220000000000001</v>
+      </c>
+      <c r="F557" t="n">
+        <v>1</v>
+      </c>
+      <c r="G557" t="n">
+        <v>0</v>
+      </c>
+      <c r="H557" t="n">
+        <v>0</v>
+      </c>
+      <c r="I557" t="n">
+        <v>1</v>
+      </c>
+      <c r="J557" t="n">
+        <v>1</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ironi Tiberias </t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bnei Yehuda Tel Aviv FC</t>
+        </is>
+      </c>
+      <c r="C558" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D558" t="n">
         <v>2.7</v>
       </c>
-      <c r="E505" t="n">
-        <v>0</v>
-      </c>
-      <c r="F505" t="n">
-        <v>0</v>
-      </c>
-      <c r="G505" t="n">
-        <v>1</v>
-      </c>
-      <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="n">
-        <v>1</v>
-      </c>
-      <c r="J505" t="n">
-        <v>1</v>
-      </c>
-      <c r="K505" t="inlineStr">
+      <c r="E558" t="n">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="F558" t="n">
+        <v>1</v>
+      </c>
+      <c r="G558" t="n">
+        <v>1</v>
+      </c>
+      <c r="H558" t="n">
+        <v>0</v>
+      </c>
+      <c r="I558" t="n">
+        <v>0</v>
+      </c>
+      <c r="J558" t="n">
+        <v>1</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maccabi Kabilio Jaffa </t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hapoel Umm AL Fahm</t>
+        </is>
+      </c>
+      <c r="C559" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D559" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E559" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="F559" t="n">
+        <v>1</v>
+      </c>
+      <c r="G559" t="n">
+        <v>0</v>
+      </c>
+      <c r="H559" t="n">
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>0</v>
+      </c>
+      <c r="J559" t="n">
+        <v>0</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC BKMA Vagharshapat </t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ararat Yerevan FC</t>
+        </is>
+      </c>
+      <c r="C560" t="n">
+        <v>3</v>
+      </c>
+      <c r="D560" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E560" t="n">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="F560" t="n">
+        <v>1</v>
+      </c>
+      <c r="G560" t="n">
+        <v>0</v>
+      </c>
+      <c r="H560" t="n">
+        <v>0</v>
+      </c>
+      <c r="I560" t="n">
+        <v>0</v>
+      </c>
+      <c r="J560" t="n">
+        <v>0</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Syunik </t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Mika Yerevan</t>
+        </is>
+      </c>
+      <c r="C561" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D561" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E561" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="F561" t="n">
+        <v>1</v>
+      </c>
+      <c r="G561" t="n">
+        <v>1</v>
+      </c>
+      <c r="H561" t="n">
+        <v>0</v>
+      </c>
+      <c r="I561" t="n">
+        <v>0</v>
+      </c>
+      <c r="J561" t="n">
+        <v>1</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HNK Vukovar 1991 </t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NK Sesvete</t>
+        </is>
+      </c>
+      <c r="C562" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="D562" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E562" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="F562" t="n">
+        <v>0</v>
+      </c>
+      <c r="G562" t="n">
+        <v>1</v>
+      </c>
+      <c r="H562" t="n">
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>0</v>
+      </c>
+      <c r="J562" t="n">
+        <v>0</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Biolog Novokubansk </t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Nart Cherkessk</t>
+        </is>
+      </c>
+      <c r="C563" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D563" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E563" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F563" t="n">
+        <v>1</v>
+      </c>
+      <c r="G563" t="n">
+        <v>1</v>
+      </c>
+      <c r="H563" t="n">
+        <v>0</v>
+      </c>
+      <c r="I563" t="n">
+        <v>0</v>
+      </c>
+      <c r="J563" t="n">
+        <v>0</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Amkar Perm </t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Dynamo Barnaul</t>
+        </is>
+      </c>
+      <c r="C564" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="D564" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E564" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F564" t="n">
+        <v>1</v>
+      </c>
+      <c r="G564" t="n">
+        <v>1</v>
+      </c>
+      <c r="H564" t="n">
+        <v>0</v>
+      </c>
+      <c r="I564" t="n">
+        <v>0</v>
+      </c>
+      <c r="J564" t="n">
+        <v>1</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uthai Thani FC </t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Trat FC</t>
+        </is>
+      </c>
+      <c r="C565" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D565" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E565" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="F565" t="n">
+        <v>1</v>
+      </c>
+      <c r="G565" t="n">
+        <v>1</v>
+      </c>
+      <c r="H565" t="n">
+        <v>0</v>
+      </c>
+      <c r="I565" t="n">
+        <v>1</v>
+      </c>
+      <c r="J565" t="n">
+        <v>0</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Simba SC </t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mtibwa Sugar FC</t>
+        </is>
+      </c>
+      <c r="C566" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="D566" t="n">
+        <v>11</v>
+      </c>
+      <c r="E566" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="F566" t="n">
+        <v>0</v>
+      </c>
+      <c r="G566" t="n">
+        <v>0</v>
+      </c>
+      <c r="H566" t="n">
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>1</v>
+      </c>
+      <c r="J566" t="n">
+        <v>1</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ethiopian Medhin </t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hambericho Durame</t>
+        </is>
+      </c>
+      <c r="C567" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D567" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E567" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="F567" t="n">
+        <v>1</v>
+      </c>
+      <c r="G567" t="n">
+        <v>0</v>
+      </c>
+      <c r="H567" t="n">
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>0</v>
+      </c>
+      <c r="J567" t="n">
+        <v>1</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PFC Dobrudzha Dobrich </t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Septemvri Sofia</t>
+        </is>
+      </c>
+      <c r="C568" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D568" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E568" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F568" t="n">
+        <v>1</v>
+      </c>
+      <c r="G568" t="n">
+        <v>0</v>
+      </c>
+      <c r="H568" t="n">
+        <v>0</v>
+      </c>
+      <c r="I568" t="n">
+        <v>1</v>
+      </c>
+      <c r="J568" t="n">
+        <v>0</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kairat-Zhastar </t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Kaspii Aktau</t>
+        </is>
+      </c>
+      <c r="C569" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D569" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E569" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F569" t="n">
+        <v>1</v>
+      </c>
+      <c r="G569" t="n">
+        <v>0</v>
+      </c>
+      <c r="H569" t="n">
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>1</v>
+      </c>
+      <c r="J569" t="n">
+        <v>0</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Metalist 1925 Kharkiv U19 </t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Vorskla Poltava</t>
+        </is>
+      </c>
+      <c r="C570" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D570" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E570" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="F570" t="n">
+        <v>1</v>
+      </c>
+      <c r="G570" t="n">
+        <v>0</v>
+      </c>
+      <c r="H570" t="n">
+        <v>0</v>
+      </c>
+      <c r="I570" t="n">
+        <v>0</v>
+      </c>
+      <c r="J570" t="n">
+        <v>1</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Akhmat Grozny </t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chertanovo Moscow</t>
+        </is>
+      </c>
+      <c r="C571" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="D571" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E571" t="n">
+        <v>0.9000000000000004</v>
+      </c>
+      <c r="F571" t="n">
+        <v>0</v>
+      </c>
+      <c r="G571" t="n">
+        <v>1</v>
+      </c>
+      <c r="H571" t="n">
+        <v>0</v>
+      </c>
+      <c r="I571" t="n">
+        <v>0</v>
+      </c>
+      <c r="J571" t="n">
+        <v>0</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ipswich Town </t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sheffield Wednesday</t>
+        </is>
+      </c>
+      <c r="C572" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D572" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E572" t="n">
+        <v>0.4499999999999997</v>
+      </c>
+      <c r="F572" t="n">
+        <v>1</v>
+      </c>
+      <c r="G572" t="n">
+        <v>0</v>
+      </c>
+      <c r="H572" t="n">
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>0</v>
+      </c>
+      <c r="J572" t="n">
+        <v>0</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Millwall </t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Wigan Athletic</t>
+        </is>
+      </c>
+      <c r="C573" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="D573" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E573" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="F573" t="n">
+        <v>1</v>
+      </c>
+      <c r="G573" t="n">
+        <v>0</v>
+      </c>
+      <c r="H573" t="n">
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>1</v>
+      </c>
+      <c r="J573" t="n">
+        <v>0</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Watford FC </t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Burnley FC</t>
+        </is>
+      </c>
+      <c r="C574" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D574" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E574" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="F574" t="n">
+        <v>0</v>
+      </c>
+      <c r="G574" t="n">
+        <v>1</v>
+      </c>
+      <c r="H574" t="n">
+        <v>0</v>
+      </c>
+      <c r="I574" t="n">
+        <v>0</v>
+      </c>
+      <c r="J574" t="n">
+        <v>1</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dibba Al-Hisn SC </t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dibba</t>
+        </is>
+      </c>
+      <c r="C575" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D575" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E575" t="n">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="F575" t="n">
+        <v>0</v>
+      </c>
+      <c r="G575" t="n">
+        <v>1</v>
+      </c>
+      <c r="H575" t="n">
+        <v>0</v>
+      </c>
+      <c r="I575" t="n">
+        <v>0</v>
+      </c>
+      <c r="J575" t="n">
+        <v>1</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Al-Hamriyah </t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> City Football Club</t>
+        </is>
+      </c>
+      <c r="C576" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D576" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="E576" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="F576" t="n">
+        <v>0</v>
+      </c>
+      <c r="G576" t="n">
+        <v>1</v>
+      </c>
+      <c r="H576" t="n">
+        <v>0</v>
+      </c>
+      <c r="I576" t="n">
+        <v>1</v>
+      </c>
+      <c r="J576" t="n">
+        <v>1</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KS Polonia Bytom SA </t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sandecja Nowy Sacz</t>
+        </is>
+      </c>
+      <c r="C577" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D577" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E577" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F577" t="n">
+        <v>1</v>
+      </c>
+      <c r="G577" t="n">
+        <v>0</v>
+      </c>
+      <c r="H577" t="n">
+        <v>0</v>
+      </c>
+      <c r="I577" t="n">
+        <v>1</v>
+      </c>
+      <c r="J577" t="n">
+        <v>0</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Swit Nowy Dwor Mazowiecki </t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MKS Mlawianka Mlawa</t>
+        </is>
+      </c>
+      <c r="C578" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D578" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E578" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F578" t="n">
+        <v>0</v>
+      </c>
+      <c r="G578" t="n">
+        <v>0</v>
+      </c>
+      <c r="H578" t="n">
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>1</v>
+      </c>
+      <c r="J578" t="n">
+        <v>0</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rakow II Czestochowa </t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Gornik Zabrze II</t>
+        </is>
+      </c>
+      <c r="C579" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D579" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E579" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="F579" t="n">
+        <v>1</v>
+      </c>
+      <c r="G579" t="n">
+        <v>0</v>
+      </c>
+      <c r="H579" t="n">
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>0</v>
+      </c>
+      <c r="J579" t="n">
+        <v>0</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mkp Carina Gubin </t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Unia Turza Slaska</t>
+        </is>
+      </c>
+      <c r="C580" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D580" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E580" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F580" t="n">
+        <v>1</v>
+      </c>
+      <c r="G580" t="n">
+        <v>1</v>
+      </c>
+      <c r="H580" t="n">
+        <v>0</v>
+      </c>
+      <c r="I580" t="n">
+        <v>1</v>
+      </c>
+      <c r="J580" t="n">
+        <v>0</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Swidniczanka Swidnik </t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KSZO Ostrowiec Swietokrzyski</t>
+        </is>
+      </c>
+      <c r="C581" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D581" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E581" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="F581" t="n">
+        <v>0</v>
+      </c>
+      <c r="G581" t="n">
+        <v>1</v>
+      </c>
+      <c r="H581" t="n">
+        <v>0</v>
+      </c>
+      <c r="I581" t="n">
+        <v>0</v>
+      </c>
+      <c r="J581" t="n">
+        <v>0</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CSC 1599 Selimbar </t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Buzau</t>
+        </is>
+      </c>
+      <c r="C582" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D582" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E582" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="F582" t="n">
+        <v>0</v>
+      </c>
+      <c r="G582" t="n">
+        <v>0</v>
+      </c>
+      <c r="H582" t="n">
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
+        <v>1</v>
+      </c>
+      <c r="J582" t="n">
+        <v>0</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hapoel Ironi Kiryat Shmona FC </t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hapoel Nof Hagalil FC</t>
+        </is>
+      </c>
+      <c r="C583" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="D583" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E583" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="F583" t="n">
+        <v>1</v>
+      </c>
+      <c r="G583" t="n">
+        <v>1</v>
+      </c>
+      <c r="H583" t="n">
+        <v>0</v>
+      </c>
+      <c r="I583" t="n">
+        <v>0</v>
+      </c>
+      <c r="J583" t="n">
+        <v>0</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hapoel Ramat Gan Givatayim FC </t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hapoel Afula FC</t>
+        </is>
+      </c>
+      <c r="C584" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="D584" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E584" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F584" t="n">
+        <v>1</v>
+      </c>
+      <c r="G584" t="n">
+        <v>0</v>
+      </c>
+      <c r="H584" t="n">
+        <v>0</v>
+      </c>
+      <c r="I584" t="n">
+        <v>1</v>
+      </c>
+      <c r="J584" t="n">
+        <v>0</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hapoel Rishon Lezion FC </t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hapoel Acre FC</t>
+        </is>
+      </c>
+      <c r="C585" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D585" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E585" t="n">
+        <v>0.5499999999999998</v>
+      </c>
+      <c r="F585" t="n">
+        <v>1</v>
+      </c>
+      <c r="G585" t="n">
+        <v>1</v>
+      </c>
+      <c r="H585" t="n">
+        <v>0</v>
+      </c>
+      <c r="I585" t="n">
+        <v>1</v>
+      </c>
+      <c r="J585" t="n">
+        <v>0</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ihud Bnei Shfaram </t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hapoel Kfar Saba FC</t>
+        </is>
+      </c>
+      <c r="C586" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D586" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="E586" t="n">
+        <v>4.220000000000001</v>
+      </c>
+      <c r="F586" t="n">
+        <v>1</v>
+      </c>
+      <c r="G586" t="n">
+        <v>0</v>
+      </c>
+      <c r="H586" t="n">
+        <v>0</v>
+      </c>
+      <c r="I586" t="n">
+        <v>1</v>
+      </c>
+      <c r="J586" t="n">
+        <v>1</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ironi Tiberias </t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bnei Yehuda Tel Aviv FC</t>
+        </is>
+      </c>
+      <c r="C587" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D587" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E587" t="n">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="F587" t="n">
+        <v>1</v>
+      </c>
+      <c r="G587" t="n">
+        <v>1</v>
+      </c>
+      <c r="H587" t="n">
+        <v>0</v>
+      </c>
+      <c r="I587" t="n">
+        <v>0</v>
+      </c>
+      <c r="J587" t="n">
+        <v>1</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maccabi Kabilio Jaffa </t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hapoel Umm AL Fahm</t>
+        </is>
+      </c>
+      <c r="C588" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D588" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E588" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="F588" t="n">
+        <v>1</v>
+      </c>
+      <c r="G588" t="n">
+        <v>0</v>
+      </c>
+      <c r="H588" t="n">
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>0</v>
+      </c>
+      <c r="J588" t="n">
+        <v>0</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC BKMA Vagharshapat </t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ararat Yerevan FC</t>
+        </is>
+      </c>
+      <c r="C589" t="n">
+        <v>3</v>
+      </c>
+      <c r="D589" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E589" t="n">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="F589" t="n">
+        <v>1</v>
+      </c>
+      <c r="G589" t="n">
+        <v>0</v>
+      </c>
+      <c r="H589" t="n">
+        <v>0</v>
+      </c>
+      <c r="I589" t="n">
+        <v>0</v>
+      </c>
+      <c r="J589" t="n">
+        <v>0</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Syunik </t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Mika Yerevan</t>
+        </is>
+      </c>
+      <c r="C590" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D590" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="E590" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="F590" t="n">
+        <v>1</v>
+      </c>
+      <c r="G590" t="n">
+        <v>1</v>
+      </c>
+      <c r="H590" t="n">
+        <v>0</v>
+      </c>
+      <c r="I590" t="n">
+        <v>0</v>
+      </c>
+      <c r="J590" t="n">
+        <v>1</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HNK Vukovar 1991 </t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NK Sesvete</t>
+        </is>
+      </c>
+      <c r="C591" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="D591" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="E591" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="F591" t="n">
+        <v>0</v>
+      </c>
+      <c r="G591" t="n">
+        <v>1</v>
+      </c>
+      <c r="H591" t="n">
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>0</v>
+      </c>
+      <c r="J591" t="n">
+        <v>0</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Biolog Novokubansk </t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Nart Cherkessk</t>
+        </is>
+      </c>
+      <c r="C592" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D592" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E592" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F592" t="n">
+        <v>1</v>
+      </c>
+      <c r="G592" t="n">
+        <v>1</v>
+      </c>
+      <c r="H592" t="n">
+        <v>0</v>
+      </c>
+      <c r="I592" t="n">
+        <v>0</v>
+      </c>
+      <c r="J592" t="n">
+        <v>0</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Amkar Perm </t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Dynamo Barnaul</t>
+        </is>
+      </c>
+      <c r="C593" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="D593" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E593" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="F593" t="n">
+        <v>1</v>
+      </c>
+      <c r="G593" t="n">
+        <v>1</v>
+      </c>
+      <c r="H593" t="n">
+        <v>0</v>
+      </c>
+      <c r="I593" t="n">
+        <v>0</v>
+      </c>
+      <c r="J593" t="n">
+        <v>1</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Uthai Thani FC </t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Trat FC</t>
+        </is>
+      </c>
+      <c r="C594" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D594" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E594" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="F594" t="n">
+        <v>1</v>
+      </c>
+      <c r="G594" t="n">
+        <v>1</v>
+      </c>
+      <c r="H594" t="n">
+        <v>0</v>
+      </c>
+      <c r="I594" t="n">
+        <v>1</v>
+      </c>
+      <c r="J594" t="n">
+        <v>0</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Simba SC </t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mtibwa Sugar FC</t>
+        </is>
+      </c>
+      <c r="C595" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="D595" t="n">
+        <v>11</v>
+      </c>
+      <c r="E595" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="F595" t="n">
+        <v>1</v>
+      </c>
+      <c r="G595" t="n">
+        <v>0</v>
+      </c>
+      <c r="H595" t="n">
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>0</v>
+      </c>
+      <c r="J595" t="n">
+        <v>1</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ethiopian Medhin </t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Hambericho Durame</t>
+        </is>
+      </c>
+      <c r="C596" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D596" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E596" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="F596" t="n">
+        <v>1</v>
+      </c>
+      <c r="G596" t="n">
+        <v>0</v>
+      </c>
+      <c r="H596" t="n">
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>0</v>
+      </c>
+      <c r="J596" t="n">
+        <v>1</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PFC Dobrudzha Dobrich </t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Septemvri Sofia</t>
+        </is>
+      </c>
+      <c r="C597" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D597" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E597" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F597" t="n">
+        <v>1</v>
+      </c>
+      <c r="G597" t="n">
+        <v>0</v>
+      </c>
+      <c r="H597" t="n">
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>1</v>
+      </c>
+      <c r="J597" t="n">
+        <v>0</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kairat-Zhastar </t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Kaspii Aktau</t>
+        </is>
+      </c>
+      <c r="C598" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D598" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E598" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F598" t="n">
+        <v>1</v>
+      </c>
+      <c r="G598" t="n">
+        <v>0</v>
+      </c>
+      <c r="H598" t="n">
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>1</v>
+      </c>
+      <c r="J598" t="n">
+        <v>0</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Metalist 1925 Kharkiv U19 </t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Vorskla Poltava</t>
+        </is>
+      </c>
+      <c r="C599" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="D599" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E599" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="F599" t="n">
+        <v>1</v>
+      </c>
+      <c r="G599" t="n">
+        <v>0</v>
+      </c>
+      <c r="H599" t="n">
+        <v>0</v>
+      </c>
+      <c r="I599" t="n">
+        <v>0</v>
+      </c>
+      <c r="J599" t="n">
+        <v>1</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Luton Town </t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Everton</t>
+        </is>
+      </c>
+      <c r="C600" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="D600" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="E600" t="n">
+        <v>0.1600000000000001</v>
+      </c>
+      <c r="F600" t="n">
+        <v>1</v>
+      </c>
+      <c r="G600" t="n">
+        <v>0</v>
+      </c>
+      <c r="H600" t="n">
+        <v>0</v>
+      </c>
+      <c r="I600" t="n">
+        <v>1</v>
+      </c>
+      <c r="J600" t="n">
+        <v>0</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Getafe </t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Athletic Bilbao</t>
+        </is>
+      </c>
+      <c r="C601" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="D601" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E601" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="F601" t="n">
+        <v>1</v>
+      </c>
+      <c r="G601" t="n">
+        <v>0</v>
+      </c>
+      <c r="H601" t="n">
+        <v>0</v>
+      </c>
+      <c r="I601" t="n">
+        <v>1</v>
+      </c>
+      <c r="J601" t="n">
+        <v>1</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hoffenheim </t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Leipzig</t>
+        </is>
+      </c>
+      <c r="C602" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="D602" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="E602" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="F602" t="n">
+        <v>1</v>
+      </c>
+      <c r="G602" t="n">
+        <v>0</v>
+      </c>
+      <c r="H602" t="n">
+        <v>0</v>
+      </c>
+      <c r="I602" t="n">
+        <v>0</v>
+      </c>
+      <c r="J602" t="n">
+        <v>1</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Torino </t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bologna</t>
+        </is>
+      </c>
+      <c r="C603" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="D603" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="E603" t="n">
+        <v>0.1200000000000001</v>
+      </c>
+      <c r="F603" t="n">
+        <v>0</v>
+      </c>
+      <c r="G603" t="n">
+        <v>1</v>
+      </c>
+      <c r="H603" t="n">
+        <v>0</v>
+      </c>
+      <c r="I603" t="n">
+        <v>0</v>
+      </c>
+      <c r="J603" t="n">
+        <v>1</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toulouse </t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Montpellier</t>
+        </is>
+      </c>
+      <c r="C604" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="D604" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="E604" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F604" t="n">
+        <v>0</v>
+      </c>
+      <c r="G604" t="n">
+        <v>1</v>
+      </c>
+      <c r="H604" t="n">
+        <v>0</v>
+      </c>
+      <c r="I604" t="n">
+        <v>0</v>
+      </c>
+      <c r="J604" t="n">
+        <v>1</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RC Lens </t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Lorient</t>
+        </is>
+      </c>
+      <c r="C605" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D605" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="E605" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F605" t="n">
+        <v>1</v>
+      </c>
+      <c r="G605" t="n">
+        <v>1</v>
+      </c>
+      <c r="H605" t="n">
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>0</v>
+      </c>
+      <c r="J605" t="n">
+        <v>0</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Almere City FC </t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SC Heerenveen</t>
+        </is>
+      </c>
+      <c r="C606" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D606" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E606" t="n">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="F606" t="n">
+        <v>1</v>
+      </c>
+      <c r="G606" t="n">
+        <v>1</v>
+      </c>
+      <c r="H606" t="n">
+        <v>0</v>
+      </c>
+      <c r="I606" t="n">
+        <v>0</v>
+      </c>
+      <c r="J606" t="n">
+        <v>0</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fortuna Sittard </t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Go Ahead Eagles</t>
+        </is>
+      </c>
+      <c r="C607" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D607" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E607" t="n">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="F607" t="n">
+        <v>1</v>
+      </c>
+      <c r="G607" t="n">
+        <v>0</v>
+      </c>
+      <c r="H607" t="n">
+        <v>0</v>
+      </c>
+      <c r="I607" t="n">
+        <v>1</v>
+      </c>
+      <c r="J607" t="n">
+        <v>0</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Moreirense FC </t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Vizela</t>
+        </is>
+      </c>
+      <c r="C608" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D608" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E608" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F608" t="n">
+        <v>0</v>
+      </c>
+      <c r="G608" t="n">
+        <v>1</v>
+      </c>
+      <c r="H608" t="n">
+        <v>0</v>
+      </c>
+      <c r="I608" t="n">
+        <v>0</v>
+      </c>
+      <c r="J608" t="n">
+        <v>1</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Villarreal CF B </t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Levante</t>
+        </is>
+      </c>
+      <c r="C609" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D609" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E609" t="n">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="F609" t="n">
+        <v>1</v>
+      </c>
+      <c r="G609" t="n">
+        <v>1</v>
+      </c>
+      <c r="H609" t="n">
+        <v>0</v>
+      </c>
+      <c r="I609" t="n">
+        <v>1</v>
+      </c>
+      <c r="J609" t="n">
+        <v>0</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Angers </t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pau FC</t>
+        </is>
+      </c>
+      <c r="C610" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="D610" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E610" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="F610" t="n">
+        <v>1</v>
+      </c>
+      <c r="G610" t="n">
+        <v>0</v>
+      </c>
+      <c r="H610" t="n">
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>0</v>
+      </c>
+      <c r="J610" t="n">
+        <v>0</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bordeaux </t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AC Ajaccio</t>
+        </is>
+      </c>
+      <c r="C611" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="D611" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E611" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="F611" t="n">
+        <v>1</v>
+      </c>
+      <c r="G611" t="n">
+        <v>0</v>
+      </c>
+      <c r="H611" t="n">
+        <v>0</v>
+      </c>
+      <c r="I611" t="n">
+        <v>0</v>
+      </c>
+      <c r="J611" t="n">
+        <v>1</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caen </t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Stade Lavallois Mayenne</t>
+        </is>
+      </c>
+      <c r="C612" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D612" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E612" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F612" t="n">
+        <v>1</v>
+      </c>
+      <c r="G612" t="n">
+        <v>0</v>
+      </c>
+      <c r="H612" t="n">
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>0</v>
+      </c>
+      <c r="J612" t="n">
+        <v>1</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grenoble Foot </t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> US Concarneau</t>
+        </is>
+      </c>
+      <c r="C613" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D613" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="E613" t="n">
+        <v>1</v>
+      </c>
+      <c r="F613" t="n">
+        <v>0</v>
+      </c>
+      <c r="G613" t="n">
+        <v>0</v>
+      </c>
+      <c r="H613" t="n">
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>0</v>
+      </c>
+      <c r="J613" t="n">
+        <v>1</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quevilly-Rouen Metropole </t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> USL Dunkerque</t>
+        </is>
+      </c>
+      <c r="C614" t="n">
+        <v>2</v>
+      </c>
+      <c r="D614" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E614" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F614" t="n">
+        <v>1</v>
+      </c>
+      <c r="G614" t="n">
+        <v>1</v>
+      </c>
+      <c r="H614" t="n">
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>0</v>
+      </c>
+      <c r="J614" t="n">
+        <v>0</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rodez Aveyron </t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Annecy FC</t>
+        </is>
+      </c>
+      <c r="C615" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D615" t="n">
+        <v>3</v>
+      </c>
+      <c r="E615" t="n">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="F615" t="n">
+        <v>0</v>
+      </c>
+      <c r="G615" t="n">
+        <v>0</v>
+      </c>
+      <c r="H615" t="n">
+        <v>0</v>
+      </c>
+      <c r="I615" t="n">
+        <v>1</v>
+      </c>
+      <c r="J615" t="n">
+        <v>1</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SC Bastia </t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Amiens</t>
+        </is>
+      </c>
+      <c r="C616" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D616" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E616" t="n">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="F616" t="n">
+        <v>0</v>
+      </c>
+      <c r="G616" t="n">
+        <v>1</v>
+      </c>
+      <c r="H616" t="n">
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>1</v>
+      </c>
+      <c r="J616" t="n">
+        <v>0</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Troyes </t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Valenciennes FC</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="D617" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="E617" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="F617" t="n">
+        <v>1</v>
+      </c>
+      <c r="G617" t="n">
+        <v>0</v>
+      </c>
+      <c r="H617" t="n">
+        <v>0</v>
+      </c>
+      <c r="I617" t="n">
+        <v>1</v>
+      </c>
+      <c r="J617" t="n">
+        <v>0</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Al Wahda FC (UAE) </t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Al-Ain FC</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="D618" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E618" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F618" t="n">
+        <v>1</v>
+      </c>
+      <c r="G618" t="n">
+        <v>0</v>
+      </c>
+      <c r="H618" t="n">
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>0</v>
+      </c>
+      <c r="J618" t="n">
+        <v>1</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Besiktas Istanbul </t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Caykur Rizespor</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D619" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E619" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="F619" t="n">
+        <v>0</v>
+      </c>
+      <c r="G619" t="n">
+        <v>1</v>
+      </c>
+      <c r="H619" t="n">
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>0</v>
+      </c>
+      <c r="J619" t="n">
+        <v>0</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MKE Ankaragucu </t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alanyaspor</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D620" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E620" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F620" t="n">
+        <v>0</v>
+      </c>
+      <c r="G620" t="n">
+        <v>1</v>
+      </c>
+      <c r="H620" t="n">
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>0</v>
+      </c>
+      <c r="J620" t="n">
+        <v>0</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De Graafschap </t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jong FC Utrecht</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D621" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E621" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="F621" t="n">
+        <v>1</v>
+      </c>
+      <c r="G621" t="n">
+        <v>0</v>
+      </c>
+      <c r="H621" t="n">
+        <v>0</v>
+      </c>
+      <c r="I621" t="n">
+        <v>0</v>
+      </c>
+      <c r="J621" t="n">
+        <v>1</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Den Bosch </t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Emmen</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D622" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E622" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F622" t="n">
+        <v>0</v>
+      </c>
+      <c r="G622" t="n">
+        <v>1</v>
+      </c>
+      <c r="H622" t="n">
+        <v>0</v>
+      </c>
+      <c r="I622" t="n">
+        <v>0</v>
+      </c>
+      <c r="J622" t="n">
+        <v>0</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Dordrecht </t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Willem II Tilburg</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D623" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E623" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F623" t="n">
+        <v>1</v>
+      </c>
+      <c r="G623" t="n">
+        <v>0</v>
+      </c>
+      <c r="H623" t="n">
+        <v>0</v>
+      </c>
+      <c r="I623" t="n">
+        <v>0</v>
+      </c>
+      <c r="J623" t="n">
+        <v>1</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helmond Sport </t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Eindhoven</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D624" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E624" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F624" t="n">
+        <v>1</v>
+      </c>
+      <c r="G624" t="n">
+        <v>1</v>
+      </c>
+      <c r="H624" t="n">
+        <v>0</v>
+      </c>
+      <c r="I624" t="n">
+        <v>0</v>
+      </c>
+      <c r="J624" t="n">
+        <v>0</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jong AZ Alkmaar </t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> MVV Maastricht</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D625" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E625" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F625" t="n">
+        <v>1</v>
+      </c>
+      <c r="G625" t="n">
+        <v>0</v>
+      </c>
+      <c r="H625" t="n">
+        <v>0</v>
+      </c>
+      <c r="I625" t="n">
+        <v>1</v>
+      </c>
+      <c r="J625" t="n">
+        <v>0</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jong PSV Eindhoven </t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TOP Oss</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D626" t="n">
+        <v>4</v>
+      </c>
+      <c r="E626" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="F626" t="n">
+        <v>1</v>
+      </c>
+      <c r="G626" t="n">
+        <v>0</v>
+      </c>
+      <c r="H626" t="n">
+        <v>0</v>
+      </c>
+      <c r="I626" t="n">
+        <v>0</v>
+      </c>
+      <c r="J626" t="n">
+        <v>1</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NAC Breda </t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ADO Den Haag</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D627" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E627" t="n">
+        <v>0.9500000000000002</v>
+      </c>
+      <c r="F627" t="n">
+        <v>1</v>
+      </c>
+      <c r="G627" t="n">
+        <v>0</v>
+      </c>
+      <c r="H627" t="n">
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>0</v>
+      </c>
+      <c r="J627" t="n">
+        <v>0</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Roda JC Kerkrade </t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SC Cambuur</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D628" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E628" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="F628" t="n">
+        <v>1</v>
+      </c>
+      <c r="G628" t="n">
+        <v>1</v>
+      </c>
+      <c r="H628" t="n">
+        <v>0</v>
+      </c>
+      <c r="I628" t="n">
+        <v>0</v>
+      </c>
+      <c r="J628" t="n">
+        <v>0</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SC Telstar </t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Groningen</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D629" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E629" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="F629" t="n">
+        <v>1</v>
+      </c>
+      <c r="G629" t="n">
+        <v>0</v>
+      </c>
+      <c r="H629" t="n">
+        <v>0</v>
+      </c>
+      <c r="I629" t="n">
+        <v>0</v>
+      </c>
+      <c r="J629" t="n">
+        <v>0</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VVV Venlo </t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Jong Ajax Amsterdam</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D630" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="E630" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F630" t="n">
+        <v>1</v>
+      </c>
+      <c r="G630" t="n">
+        <v>0</v>
+      </c>
+      <c r="H630" t="n">
+        <v>0</v>
+      </c>
+      <c r="I630" t="n">
+        <v>1</v>
+      </c>
+      <c r="J630" t="n">
+        <v>0</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KVC Westerlo </t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> St. Truidense VV</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D631" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E631" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F631" t="n">
+        <v>1</v>
+      </c>
+      <c r="G631" t="n">
+        <v>0</v>
+      </c>
+      <c r="H631" t="n">
+        <v>0</v>
+      </c>
+      <c r="I631" t="n">
+        <v>1</v>
+      </c>
+      <c r="J631" t="n">
+        <v>0</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AGF Aarhus </t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Nordsjaelland</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="D632" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="E632" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="F632" t="n">
+        <v>1</v>
+      </c>
+      <c r="G632" t="n">
+        <v>1</v>
+      </c>
+      <c r="H632" t="n">
+        <v>0</v>
+      </c>
+      <c r="I632" t="n">
+        <v>0</v>
+      </c>
+      <c r="J632" t="n">
+        <v>0</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ayr United FC </t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dunfermline Athletic FC</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D633" t="n">
+        <v>3</v>
+      </c>
+      <c r="E633" t="n">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="F633" t="n">
+        <v>1</v>
+      </c>
+      <c r="G633" t="n">
+        <v>0</v>
+      </c>
+      <c r="H633" t="n">
+        <v>0</v>
+      </c>
+      <c r="I633" t="n">
+        <v>0</v>
+      </c>
+      <c r="J633" t="n">
+        <v>1</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dundee United </t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Partick Thistle FC</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D634" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="E634" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="F634" t="n">
+        <v>1</v>
+      </c>
+      <c r="G634" t="n">
+        <v>0</v>
+      </c>
+      <c r="H634" t="n">
+        <v>0</v>
+      </c>
+      <c r="I634" t="n">
+        <v>1</v>
+      </c>
+      <c r="J634" t="n">
+        <v>0</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inverness Caledonian Thistle FC </t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Greenock Morton FC</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D635" t="n">
+        <v>4</v>
+      </c>
+      <c r="E635" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F635" t="n">
+        <v>1</v>
+      </c>
+      <c r="G635" t="n">
+        <v>0</v>
+      </c>
+      <c r="H635" t="n">
+        <v>0</v>
+      </c>
+      <c r="I635" t="n">
+        <v>0</v>
+      </c>
+      <c r="J635" t="n">
+        <v>1</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Queens Park FC </t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Airdrieonians FC</t>
+        </is>
+      </c>
+      <c r="C636" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D636" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E636" t="n">
+        <v>0.9500000000000002</v>
+      </c>
+      <c r="F636" t="n">
+        <v>1</v>
+      </c>
+      <c r="G636" t="n">
+        <v>1</v>
+      </c>
+      <c r="H636" t="n">
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>0</v>
+      </c>
+      <c r="J636" t="n">
+        <v>0</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raith Rovers FC </t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Arbroath FC</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="D637" t="n">
+        <v>10</v>
+      </c>
+      <c r="E637" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="F637" t="n">
+        <v>0</v>
+      </c>
+      <c r="G637" t="n">
+        <v>1</v>
+      </c>
+      <c r="H637" t="n">
+        <v>0</v>
+      </c>
+      <c r="I637" t="n">
+        <v>1</v>
+      </c>
+      <c r="J637" t="n">
+        <v>0</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LB Chateauroux </t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Villefranche-Beaujolais</t>
+        </is>
+      </c>
+      <c r="C638" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D638" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="E638" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F638" t="n">
+        <v>0</v>
+      </c>
+      <c r="G638" t="n">
+        <v>0</v>
+      </c>
+      <c r="H638" t="n">
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>0</v>
+      </c>
+      <c r="J638" t="n">
+        <v>1</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Epinal </t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> US Orleans</t>
+        </is>
+      </c>
+      <c r="C639" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D639" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E639" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F639" t="n">
+        <v>1</v>
+      </c>
+      <c r="G639" t="n">
+        <v>1</v>
+      </c>
+      <c r="H639" t="n">
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>0</v>
+      </c>
+      <c r="J639" t="n">
+        <v>0</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Goal </t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nimes</t>
+        </is>
+      </c>
+      <c r="C640" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D640" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E640" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F640" t="n">
+        <v>1</v>
+      </c>
+      <c r="G640" t="n">
+        <v>0</v>
+      </c>
+      <c r="H640" t="n">
+        <v>1</v>
+      </c>
+      <c r="I640" t="n">
+        <v>0</v>
+      </c>
+      <c r="J640" t="n">
+        <v>0</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Mans FC </t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Stade Olympique Choletais</t>
+        </is>
+      </c>
+      <c r="C641" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D641" t="n">
+        <v>5</v>
+      </c>
+      <c r="E641" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="F641" t="n">
+        <v>1</v>
+      </c>
+      <c r="G641" t="n">
+        <v>0</v>
+      </c>
+      <c r="H641" t="n">
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>0</v>
+      </c>
+      <c r="J641" t="n">
+        <v>0</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Red Star FC </t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Versailles 78</t>
+        </is>
+      </c>
+      <c r="C642" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="D642" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E642" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="F642" t="n">
+        <v>1</v>
+      </c>
+      <c r="G642" t="n">
+        <v>0</v>
+      </c>
+      <c r="H642" t="n">
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>0</v>
+      </c>
+      <c r="J642" t="n">
+        <v>0</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sochaux-Montbeliard </t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Dijon</t>
+        </is>
+      </c>
+      <c r="C643" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D643" t="n">
+        <v>3</v>
+      </c>
+      <c r="E643" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F643" t="n">
+        <v>1</v>
+      </c>
+      <c r="G643" t="n">
+        <v>0</v>
+      </c>
+      <c r="H643" t="n">
+        <v>0</v>
+      </c>
+      <c r="I643" t="n">
+        <v>1</v>
+      </c>
+      <c r="J643" t="n">
+        <v>0</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t xml:space="preserve">US Avranches </t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nancy-Lorraine</t>
+        </is>
+      </c>
+      <c r="C644" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D644" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E644" t="n">
+        <v>0.3500000000000001</v>
+      </c>
+      <c r="F644" t="n">
+        <v>0</v>
+      </c>
+      <c r="G644" t="n">
+        <v>1</v>
+      </c>
+      <c r="H644" t="n">
+        <v>0</v>
+      </c>
+      <c r="I644" t="n">
+        <v>0</v>
+      </c>
+      <c r="J644" t="n">
+        <v>1</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Martigues </t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Marignane Gignac FC</t>
+        </is>
+      </c>
+      <c r="C645" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="D645" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E645" t="n">
+        <v>4.390000000000001</v>
+      </c>
+      <c r="F645" t="n">
+        <v>1</v>
+      </c>
+      <c r="G645" t="n">
+        <v>0</v>
+      </c>
+      <c r="H645" t="n">
+        <v>0</v>
+      </c>
+      <c r="I645" t="n">
+        <v>1</v>
+      </c>
+      <c r="J645" t="n">
+        <v>0</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CD Palestino </t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Deportes Copiapo</t>
+        </is>
+      </c>
+      <c r="C646" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="D646" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E646" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="F646" t="n">
+        <v>1</v>
+      </c>
+      <c r="G646" t="n">
+        <v>0</v>
+      </c>
+      <c r="H646" t="n">
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>1</v>
+      </c>
+      <c r="J646" t="n">
+        <v>0</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AC Bellinzona </t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Neuchatel Xamax</t>
+        </is>
+      </c>
+      <c r="C647" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D647" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E647" t="n">
+        <v>0.3499999999999996</v>
+      </c>
+      <c r="F647" t="n">
+        <v>1</v>
+      </c>
+      <c r="G647" t="n">
+        <v>1</v>
+      </c>
+      <c r="H647" t="n">
+        <v>0</v>
+      </c>
+      <c r="I647" t="n">
+        <v>0</v>
+      </c>
+      <c r="J647" t="n">
+        <v>0</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Schaffhausen </t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Stade Nyonnais</t>
+        </is>
+      </c>
+      <c r="C648" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D648" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E648" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F648" t="n">
+        <v>1</v>
+      </c>
+      <c r="G648" t="n">
+        <v>0</v>
+      </c>
+      <c r="H648" t="n">
+        <v>0</v>
+      </c>
+      <c r="I648" t="n">
+        <v>0</v>
+      </c>
+      <c r="J648" t="n">
+        <v>1</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Baden </t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Thun</t>
+        </is>
+      </c>
+      <c r="C649" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D649" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E649" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="F649" t="n">
+        <v>1</v>
+      </c>
+      <c r="G649" t="n">
+        <v>0</v>
+      </c>
+      <c r="H649" t="n">
+        <v>0</v>
+      </c>
+      <c r="I649" t="n">
+        <v>1</v>
+      </c>
+      <c r="J649" t="n">
+        <v>0</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Sion </t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Wil 1900</t>
+        </is>
+      </c>
+      <c r="C650" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="D650" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E650" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="F650" t="n">
+        <v>0</v>
+      </c>
+      <c r="G650" t="n">
+        <v>1</v>
+      </c>
+      <c r="H650" t="n">
+        <v>0</v>
+      </c>
+      <c r="I650" t="n">
+        <v>0</v>
+      </c>
+      <c r="J650" t="n">
+        <v>1</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Vaduz </t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Aarau</t>
+        </is>
+      </c>
+      <c r="C651" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D651" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E651" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F651" t="n">
+        <v>1</v>
+      </c>
+      <c r="G651" t="n">
+        <v>0</v>
+      </c>
+      <c r="H651" t="n">
+        <v>0</v>
+      </c>
+      <c r="I651" t="n">
+        <v>0</v>
+      </c>
+      <c r="J651" t="n">
+        <v>1</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barnsley </t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bolton Wanderers</t>
+        </is>
+      </c>
+      <c r="C652" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D652" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E652" t="n">
+        <v>0.9500000000000002</v>
+      </c>
+      <c r="F652" t="n">
+        <v>1</v>
+      </c>
+      <c r="G652" t="n">
+        <v>1</v>
+      </c>
+      <c r="H652" t="n">
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>0</v>
+      </c>
+      <c r="J652" t="n">
+        <v>0</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Farul Constanta </t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ACS Sepsi OSK Sfantu Gheorghe</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="D653" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E653" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F653" t="n">
+        <v>1</v>
+      </c>
+      <c r="G653" t="n">
+        <v>1</v>
+      </c>
+      <c r="H653" t="n">
+        <v>0</v>
+      </c>
+      <c r="I653" t="n">
+        <v>0</v>
+      </c>
+      <c r="J653" t="n">
+        <v>1</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AL Ettifaq FC </t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> AL Fayha FC</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="D654" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="E654" t="n">
+        <v>4.119999999999999</v>
+      </c>
+      <c r="F654" t="n">
+        <v>0</v>
+      </c>
+      <c r="G654" t="n">
+        <v>0</v>
+      </c>
+      <c r="H654" t="n">
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>1</v>
+      </c>
+      <c r="J654" t="n">
+        <v>1</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vendsyssel FF </t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kolding IF</t>
+        </is>
+      </c>
+      <c r="C655" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D655" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="E655" t="n">
+        <v>0.1500000000000004</v>
+      </c>
+      <c r="F655" t="n">
+        <v>0</v>
+      </c>
+      <c r="G655" t="n">
+        <v>0</v>
+      </c>
+      <c r="H655" t="n">
+        <v>0</v>
+      </c>
+      <c r="I655" t="n">
+        <v>1</v>
+      </c>
+      <c r="J655" t="n">
+        <v>1</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AB Gladsaxe </t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Middelfart BK</t>
+        </is>
+      </c>
+      <c r="C656" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="D656" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="E656" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F656" t="n">
+        <v>0</v>
+      </c>
+      <c r="G656" t="n">
+        <v>1</v>
+      </c>
+      <c r="H656" t="n">
+        <v>0</v>
+      </c>
+      <c r="I656" t="n">
+        <v>0</v>
+      </c>
+      <c r="J656" t="n">
+        <v>1</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Roskilde </t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Aarhus Fremad</t>
+        </is>
+      </c>
+      <c r="C657" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D657" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E657" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F657" t="n">
+        <v>1</v>
+      </c>
+      <c r="G657" t="n">
+        <v>0</v>
+      </c>
+      <c r="H657" t="n">
+        <v>0</v>
+      </c>
+      <c r="I657" t="n">
+        <v>0</v>
+      </c>
+      <c r="J657" t="n">
+        <v>1</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t xml:space="preserve">HIK Hellerup </t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FA 2000</t>
+        </is>
+      </c>
+      <c r="C658" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D658" t="n">
+        <v>3</v>
+      </c>
+      <c r="E658" t="n">
+        <v>0.9500000000000002</v>
+      </c>
+      <c r="F658" t="n">
+        <v>1</v>
+      </c>
+      <c r="G658" t="n">
+        <v>0</v>
+      </c>
+      <c r="H658" t="n">
+        <v>0</v>
+      </c>
+      <c r="I658" t="n">
+        <v>0</v>
+      </c>
+      <c r="J658" t="n">
+        <v>0</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nykoebing FC </t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Esbjerg FB</t>
+        </is>
+      </c>
+      <c r="C659" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D659" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E659" t="n">
+        <v>7.550000000000001</v>
+      </c>
+      <c r="F659" t="n">
+        <v>1</v>
+      </c>
+      <c r="G659" t="n">
+        <v>1</v>
+      </c>
+      <c r="H659" t="n">
+        <v>0</v>
+      </c>
+      <c r="I659" t="n">
+        <v>0</v>
+      </c>
+      <c r="J659" t="n">
+        <v>0</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Holbaek B&amp;I </t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BK Avarta</t>
+        </is>
+      </c>
+      <c r="C660" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D660" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E660" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F660" t="n">
+        <v>0</v>
+      </c>
+      <c r="G660" t="n">
+        <v>1</v>
+      </c>
+      <c r="H660" t="n">
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>0</v>
+      </c>
+      <c r="J660" t="n">
+        <v>1</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liverpool Montevideo </t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA Penarol Montevideo</t>
+        </is>
+      </c>
+      <c r="C661" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D661" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E661" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="F661" t="n">
+        <v>1</v>
+      </c>
+      <c r="G661" t="n">
+        <v>0</v>
+      </c>
+      <c r="H661" t="n">
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>0</v>
+      </c>
+      <c r="J661" t="n">
+        <v>0</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Austria Lustenau </t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FK Austria Wien</t>
+        </is>
+      </c>
+      <c r="C662" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="D662" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="E662" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="F662" t="n">
+        <v>0</v>
+      </c>
+      <c r="G662" t="n">
+        <v>0</v>
+      </c>
+      <c r="H662" t="n">
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>0</v>
+      </c>
+      <c r="J662" t="n">
+        <v>1</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ruch Chorzow </t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KKS Lech Poznan</t>
+        </is>
+      </c>
+      <c r="C663" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D663" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="E663" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F663" t="n">
+        <v>1</v>
+      </c>
+      <c r="G663" t="n">
+        <v>1</v>
+      </c>
+      <c r="H663" t="n">
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>0</v>
+      </c>
+      <c r="J663" t="n">
+        <v>0</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cobh Ramblers </t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bray Wanderers AFC</t>
+        </is>
+      </c>
+      <c r="C664" t="n">
+        <v>3</v>
+      </c>
+      <c r="D664" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E664" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="F664" t="n">
+        <v>1</v>
+      </c>
+      <c r="G664" t="n">
+        <v>0</v>
+      </c>
+      <c r="H664" t="n">
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>0</v>
+      </c>
+      <c r="J664" t="n">
+        <v>0</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Finn Harps FC </t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Treaty United</t>
+        </is>
+      </c>
+      <c r="C665" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="D665" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="E665" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="F665" t="n">
+        <v>0</v>
+      </c>
+      <c r="G665" t="n">
+        <v>0</v>
+      </c>
+      <c r="H665" t="n">
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>0</v>
+      </c>
+      <c r="J665" t="n">
+        <v>1</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paysandu SC PA </t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Avai FC SC</t>
+        </is>
+      </c>
+      <c r="C666" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D666" t="n">
+        <v>4</v>
+      </c>
+      <c r="E666" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F666" t="n">
+        <v>0</v>
+      </c>
+      <c r="G666" t="n">
+        <v>0</v>
+      </c>
+      <c r="H666" t="n">
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>1</v>
+      </c>
+      <c r="J666" t="n">
+        <v>1</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coquimbo Unido </t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Huachipato</t>
+        </is>
+      </c>
+      <c r="C667" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D667" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E667" t="n">
+        <v>1</v>
+      </c>
+      <c r="F667" t="n">
+        <v>1</v>
+      </c>
+      <c r="G667" t="n">
+        <v>1</v>
+      </c>
+      <c r="H667" t="n">
+        <v>0</v>
+      </c>
+      <c r="I667" t="n">
+        <v>1</v>
+      </c>
+      <c r="J667" t="n">
+        <v>0</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paysandu SC PA </t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Avai FC SC</t>
+        </is>
+      </c>
+      <c r="C668" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D668" t="n">
+        <v>4</v>
+      </c>
+      <c r="E668" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F668" t="n">
+        <v>0</v>
+      </c>
+      <c r="G668" t="n">
+        <v>0</v>
+      </c>
+      <c r="H668" t="n">
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>1</v>
+      </c>
+      <c r="J668" t="n">
+        <v>1</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coquimbo Unido </t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Huachipato</t>
+        </is>
+      </c>
+      <c r="C669" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D669" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E669" t="n">
+        <v>1</v>
+      </c>
+      <c r="F669" t="n">
+        <v>1</v>
+      </c>
+      <c r="G669" t="n">
+        <v>1</v>
+      </c>
+      <c r="H669" t="n">
+        <v>0</v>
+      </c>
+      <c r="I669" t="n">
+        <v>1</v>
+      </c>
+      <c r="J669" t="n">
+        <v>0</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paysandu SC PA </t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Avai FC SC</t>
+        </is>
+      </c>
+      <c r="C670" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D670" t="n">
+        <v>4</v>
+      </c>
+      <c r="E670" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F670" t="n">
+        <v>1</v>
+      </c>
+      <c r="G670" t="n">
+        <v>0</v>
+      </c>
+      <c r="H670" t="n">
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>0</v>
+      </c>
+      <c r="J670" t="n">
+        <v>0</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coquimbo Unido </t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Huachipato</t>
+        </is>
+      </c>
+      <c r="C671" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D671" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E671" t="n">
+        <v>1</v>
+      </c>
+      <c r="F671" t="n">
+        <v>1</v>
+      </c>
+      <c r="G671" t="n">
+        <v>1</v>
+      </c>
+      <c r="H671" t="n">
+        <v>0</v>
+      </c>
+      <c r="I671" t="n">
+        <v>1</v>
+      </c>
+      <c r="J671" t="n">
+        <v>0</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paysandu SC PA </t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Avai FC SC</t>
+        </is>
+      </c>
+      <c r="C672" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D672" t="n">
+        <v>4</v>
+      </c>
+      <c r="E672" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F672" t="n">
+        <v>1</v>
+      </c>
+      <c r="G672" t="n">
+        <v>0</v>
+      </c>
+      <c r="H672" t="n">
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>0</v>
+      </c>
+      <c r="J672" t="n">
+        <v>0</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coquimbo Unido </t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Huachipato</t>
+        </is>
+      </c>
+      <c r="C673" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D673" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E673" t="n">
+        <v>1</v>
+      </c>
+      <c r="F673" t="n">
+        <v>1</v>
+      </c>
+      <c r="G673" t="n">
+        <v>1</v>
+      </c>
+      <c r="H673" t="n">
+        <v>0</v>
+      </c>
+      <c r="I673" t="n">
+        <v>1</v>
+      </c>
+      <c r="J673" t="n">
+        <v>0</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paysandu SC PA </t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Avai FC SC</t>
+        </is>
+      </c>
+      <c r="C674" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D674" t="n">
+        <v>4</v>
+      </c>
+      <c r="E674" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F674" t="n">
+        <v>1</v>
+      </c>
+      <c r="G674" t="n">
+        <v>0</v>
+      </c>
+      <c r="H674" t="n">
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>0</v>
+      </c>
+      <c r="J674" t="n">
+        <v>0</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coquimbo Unido </t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Huachipato</t>
+        </is>
+      </c>
+      <c r="C675" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D675" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E675" t="n">
+        <v>1</v>
+      </c>
+      <c r="F675" t="n">
+        <v>1</v>
+      </c>
+      <c r="G675" t="n">
+        <v>1</v>
+      </c>
+      <c r="H675" t="n">
+        <v>0</v>
+      </c>
+      <c r="I675" t="n">
+        <v>1</v>
+      </c>
+      <c r="J675" t="n">
+        <v>0</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Minnesota United FC 2 </t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Saint Louis City SC 2</t>
+        </is>
+      </c>
+      <c r="C676" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D676" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E676" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F676" t="n">
+        <v>1</v>
+      </c>
+      <c r="G676" t="n">
+        <v>0</v>
+      </c>
+      <c r="H676" t="n">
+        <v>0</v>
+      </c>
+      <c r="I676" t="n">
+        <v>0</v>
+      </c>
+      <c r="J676" t="n">
+        <v>0</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atlanta United 2 </t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> New York City FC II</t>
+        </is>
+      </c>
+      <c r="C677" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D677" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E677" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="F677" t="n">
+        <v>0</v>
+      </c>
+      <c r="G677" t="n">
+        <v>0</v>
+      </c>
+      <c r="H677" t="n">
+        <v>0</v>
+      </c>
+      <c r="I677" t="n">
+        <v>1</v>
+      </c>
+      <c r="J677" t="n">
+        <v>1</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Richmond Kickers </t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> One Knoxville SC</t>
+        </is>
+      </c>
+      <c r="C678" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D678" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="E678" t="n">
+        <v>0.4499999999999997</v>
+      </c>
+      <c r="F678" t="n">
+        <v>1</v>
+      </c>
+      <c r="G678" t="n">
+        <v>0</v>
+      </c>
+      <c r="H678" t="n">
+        <v>1</v>
+      </c>
+      <c r="I678" t="n">
+        <v>0</v>
+      </c>
+      <c r="J678" t="n">
+        <v>0</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS Cienciano </t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD Universidad Cesar Vallejo</t>
+        </is>
+      </c>
+      <c r="C679" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="D679" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E679" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F679" t="n">
+        <v>1</v>
+      </c>
+      <c r="G679" t="n">
+        <v>0</v>
+      </c>
+      <c r="H679" t="n">
+        <v>1</v>
+      </c>
+      <c r="I679" t="n">
+        <v>1</v>
+      </c>
+      <c r="J679" t="n">
+        <v>0</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club Atletico Los Andes </t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSD San Martin</t>
+        </is>
+      </c>
+      <c r="C680" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="D680" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E680" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F680" t="n">
+        <v>1</v>
+      </c>
+      <c r="G680" t="n">
+        <v>0</v>
+      </c>
+      <c r="H680" t="n">
+        <v>1</v>
+      </c>
+      <c r="I680" t="n">
+        <v>0</v>
+      </c>
+      <c r="J680" t="n">
+        <v>0</v>
+      </c>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club Nacional de Football </t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Racing Club Montevideo</t>
+        </is>
+      </c>
+      <c r="C681" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="D681" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="E681" t="n">
+        <v>3.489999999999999</v>
+      </c>
+      <c r="F681" t="n">
+        <v>1</v>
+      </c>
+      <c r="G681" t="n">
+        <v>0</v>
+      </c>
+      <c r="H681" t="n">
+        <v>0</v>
+      </c>
+      <c r="I681" t="n">
+        <v>0</v>
+      </c>
+      <c r="J681" t="n">
+        <v>0</v>
+      </c>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orense SC </t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD El Nacional</t>
+        </is>
+      </c>
+      <c r="C682" t="n">
+        <v>2</v>
+      </c>
+      <c r="D682" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E682" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F682" t="n">
+        <v>1</v>
+      </c>
+      <c r="G682" t="n">
+        <v>0</v>
+      </c>
+      <c r="H682" t="n">
+        <v>0</v>
+      </c>
+      <c r="I682" t="n">
+        <v>0</v>
+      </c>
+      <c r="J682" t="n">
+        <v>1</v>
+      </c>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colon de Santa Fe </t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Club Almagro</t>
+        </is>
+      </c>
+      <c r="C683" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D683" t="n">
+        <v>9</v>
+      </c>
+      <c r="E683" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="F683" t="n">
+        <v>1</v>
+      </c>
+      <c r="G683" t="n">
+        <v>0</v>
+      </c>
+      <c r="H683" t="n">
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>0</v>
+      </c>
+      <c r="J683" t="n">
+        <v>1</v>
+      </c>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estudiantes Rio Cuarto </t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA Brown de Adrogue</t>
+        </is>
+      </c>
+      <c r="C684" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="D684" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="E684" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="F684" t="n">
+        <v>0</v>
+      </c>
+      <c r="G684" t="n">
+        <v>1</v>
+      </c>
+      <c r="H684" t="n">
+        <v>1</v>
+      </c>
+      <c r="I684" t="n">
+        <v>0</v>
+      </c>
+      <c r="J684" t="n">
+        <v>0</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sportivo Ameliano </t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Club Guarani Asuncion</t>
+        </is>
+      </c>
+      <c r="C685" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="D685" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E685" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F685" t="n">
+        <v>0</v>
+      </c>
+      <c r="G685" t="n">
+        <v>0</v>
+      </c>
+      <c r="H685" t="n">
+        <v>1</v>
+      </c>
+      <c r="I685" t="n">
+        <v>1</v>
+      </c>
+      <c r="J685" t="n">
+        <v>1</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Libertad Asuncion </t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="C686" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="D686" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E686" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="F686" t="n">
+        <v>1</v>
+      </c>
+      <c r="G686" t="n">
+        <v>1</v>
+      </c>
+      <c r="H686" t="n">
+        <v>0</v>
+      </c>
+      <c r="I686" t="n">
+        <v>0</v>
+      </c>
+      <c r="J686" t="n">
+        <v>0</v>
+      </c>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nacional Asuncion </t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sportivo Luqueno</t>
+        </is>
+      </c>
+      <c r="C687" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D687" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E687" t="n">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="F687" t="n">
+        <v>1</v>
+      </c>
+      <c r="G687" t="n">
+        <v>0</v>
+      </c>
+      <c r="H687" t="n">
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>1</v>
+      </c>
+      <c r="J687" t="n">
+        <v>0</v>
+      </c>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Iguatu CE </t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Santa Cruz FC RN</t>
+        </is>
+      </c>
+      <c r="C688" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="D688" t="n">
+        <v>5</v>
+      </c>
+      <c r="E688" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="F688" t="n">
+        <v>0</v>
+      </c>
+      <c r="G688" t="n">
+        <v>1</v>
+      </c>
+      <c r="H688" t="n">
+        <v>0</v>
+      </c>
+      <c r="I688" t="n">
+        <v>1</v>
+      </c>
+      <c r="J688" t="n">
+        <v>0</v>
+      </c>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Club Necaxa </t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Atletico San Luis</t>
+        </is>
+      </c>
+      <c r="C689" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="D689" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E689" t="n">
+        <v>0</v>
+      </c>
+      <c r="F689" t="n">
+        <v>1</v>
+      </c>
+      <c r="G689" t="n">
+        <v>0</v>
+      </c>
+      <c r="H689" t="n">
+        <v>0</v>
+      </c>
+      <c r="I689" t="n">
+        <v>1</v>
+      </c>
+      <c r="J689" t="n">
+        <v>1</v>
+      </c>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Puebla FC </t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Deportivo Toluca FC</t>
+        </is>
+      </c>
+      <c r="C690" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="D690" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E690" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="F690" t="n">
+        <v>1</v>
+      </c>
+      <c r="G690" t="n">
+        <v>1</v>
+      </c>
+      <c r="H690" t="n">
+        <v>0</v>
+      </c>
+      <c r="I690" t="n">
+        <v>1</v>
+      </c>
+      <c r="J690" t="n">
+        <v>0</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Millonarios FC </t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Independiente Santa Fe</t>
+        </is>
+      </c>
+      <c r="C691" t="n">
+        <v>2</v>
+      </c>
+      <c r="D691" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E691" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F691" t="n">
+        <v>1</v>
+      </c>
+      <c r="G691" t="n">
+        <v>0</v>
+      </c>
+      <c r="H691" t="n">
+        <v>0</v>
+      </c>
+      <c r="I691" t="n">
+        <v>1</v>
+      </c>
+      <c r="J691" t="n">
+        <v>0</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CD Trasandino de Los Andes </t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Deportes Concepcion</t>
+        </is>
+      </c>
+      <c r="C692" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D692" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="E692" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="F692" t="n">
+        <v>1</v>
+      </c>
+      <c r="G692" t="n">
+        <v>0</v>
+      </c>
+      <c r="H692" t="n">
+        <v>1</v>
+      </c>
+      <c r="I692" t="n">
+        <v>0</v>
+      </c>
+      <c r="J692" t="n">
+        <v>1</v>
+      </c>
+      <c r="K692" t="inlineStr">
         <is>
           <t>pending</t>
         </is>

--- a/ml.xlsx
+++ b/ml.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajeyemi.alajede\PycharmProjects\bettingPrediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034D2921-5D2E-4342-B88F-0F6EA0BD129A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06160BBF-194D-4458-B165-524142E95A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="1829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3419" uniqueCount="2076">
   <si>
     <t>home</t>
   </si>
@@ -5507,6 +5507,747 @@
   </si>
   <si>
     <t xml:space="preserve"> Club Atletico Los Andes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umea FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IFK Stocksund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoang Anh Gia Lai </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Song Lam Nghe An</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BK Olympic </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Angelholms FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torslanda IK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Falkenbergs FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tvaakers IF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Norrby IF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stord FK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Floro SK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friska Viljor FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Assyriska FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torns IF </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jonkopings Sodra IF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Pyunik Yerevan </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Van Charentsavan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hekimoglu Trabzon </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ankaraspor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ismaily SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Prishtina </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KF Drita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Saint-Gilloise </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Royal Antwerp FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomhoryet Shebin </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aswan FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. CfR Pforzheim </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FV Ravensburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSV 08 Bissingen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Nottingen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VfR Mannheim </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Holzhausen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK Bischofshofen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Pinzgau Saalfelden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al-Sadd SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AL Fateh SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ararat Yerevan FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Noah Yerevan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Wil 1900 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Baden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thor Akureyri </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Afturelding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMF Njardvik </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Maccabi Bney Reine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Al-Khor SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24Erzincanspor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Menemen Belediyespor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bucaspor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Icel Idmanyurdu Spor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL Akhdood </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leverkusen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roma</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aston Villa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD Platense Municipal Zacatecoluca </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Municipal Limeno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liverpool Montevideo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dandenong City SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Heidelberg United FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Talaea El Gaish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC CSKA 1948 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PFC Slavia Sofia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. FC Magdeburg </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greuther Furth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paderborn </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hamburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Monastir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACS Sepsi OSK Sfantu Gheorghe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Emmen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> De Graafschap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVV Maastricht </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VVV Venlo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SC Cambuur </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Helmond Sport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willem II Tilburg </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SC Telstar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ascoli Calcio 1898 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calcio Lecco 1912 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modena FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feralpisalo </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ternana Calcio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Venezia FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSC Bari </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brescia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Luzern </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Grasshopper Club Zurich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lausanne-Sport </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Basel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deportivo Camioneros </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gutierrez SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amiens </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AJ Auxerre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paris FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guingamp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pau FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SC Bastia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint-Etienne </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rodez Aveyron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US Concarneau </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bordeaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USL Dunkerque </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Caen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Quevilly-Rouen Metropole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partick Thistle FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alaves </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Girona FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reims</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epinal </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Villefranche-Beaujolais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Versailles 78 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marignane Gignac FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nimes </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sochaux-Montbeliard</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Famalicao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speranza Osaka-Takatsuki </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iga FC Kunoichi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lambton Jaffas FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adamstown Rosebud FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shimizu S-Pulse </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kagoshima United</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thespakusatsu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Port Melbourne Sharks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canberra Olympic </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Canberra Croatia FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gyeongju FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orca Kamogawa FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nippatsu Yokohama FC Seagulls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoogali SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adelaide Comets FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adelaide Croatia Raiders SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modbury Jets SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campbelltown City SC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Para Hills Knights SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kawasaki Frontale </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hokkaido Consadole Sapporo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riverside Olympic FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Clarence Zebras FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Launceston City FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> South Hobart FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Coast Knights </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Redlands United FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Moreton City Excelsior FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalian Kun City </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Taian Tiankuang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lee Man FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jiangxi Beidamen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dalian Zhixing FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tuggeranong Utd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ipswich FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Broadbeach United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitchelton FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Southside Eagles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFC Chindia Targoviste </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CSM Slatina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Csa Steaua Bucuresti </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CS Concordia Chiajna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Unirea Dej </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CSM Alexandria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolves FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Jablonec B </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Arsenal Ceska Lipa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Fotbal Trinec </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SK Hranice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZCE Plzen </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Horovicko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N. Byskovice </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cesky Brod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK Kladno </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FK Ostrov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cagliari Calcio </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Genoa CFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moreton City Excelsior FC 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Logan Lightning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St George City FA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Daejeon Citizen FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Vorskla Poltava </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Minaj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ansan Greeners </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Seoul E-Land FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cheonan City FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shanghai Shenhua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vejgaard BK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vanloese IF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SS Lazio </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inter Milano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulham </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Man City</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rangers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nanjing City </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chongqing Tonglianglong FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suzhou Dongwu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rizhao Yuqi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FA 2000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thisted FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Racing Santander </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CD Mirandes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beijing Guoan </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Meizhou Hakka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SonderjyskE </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aalborg BK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aarhus Fremad </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AB Gladsaxe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BK Fremad Amager </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brabrand IF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middelfart BK </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nykoebing FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheveningen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Banik Ostrava </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. FC Slovacko Uherske Hradiste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amsterdamsche FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ACV Assen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rijnsburgse Boys </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FC Lisse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varbergs BoIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Orgryte IS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atalanta BC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hellas Verona FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adanaspor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bandirmaspor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kocaelispor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sakaryaspor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanliurfaspor </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manisa Futbol Kulubu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KS Gornik Zabrze </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FKS Stal Mielec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borussia M </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eintracht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freiburg </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. FC Heidenheim 1846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leipzig </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Werder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FK Spartak Moscow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everton </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sheffield Utd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newcastle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tottenham </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Burnley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Ham </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Luton Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Montrose FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stirling Albion FC </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dumbarton FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aalesunds FK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asane Fotball </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IK Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moss FK </t>
   </si>
 </sst>
 </file>
@@ -5869,10 +6610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K982"/>
+  <dimension ref="A1:K1137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A916" workbookViewId="0">
-      <selection activeCell="L927" sqref="L927"/>
+    <sheetView tabSelected="1" topLeftCell="A1040" workbookViewId="0">
+      <selection activeCell="M1047" sqref="M1047"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40245,6 +40986,5431 @@
       </c>
       <c r="K982" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="983" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B983" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C983">
+        <v>1.7</v>
+      </c>
+      <c r="D983">
+        <v>4</v>
+      </c>
+      <c r="E983">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F983">
+        <v>1</v>
+      </c>
+      <c r="G983">
+        <v>1</v>
+      </c>
+      <c r="H983">
+        <v>1</v>
+      </c>
+      <c r="I983">
+        <v>0</v>
+      </c>
+      <c r="J983">
+        <v>0</v>
+      </c>
+      <c r="K983" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="984" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B984" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C984">
+        <v>1.78</v>
+      </c>
+      <c r="D984">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E984">
+        <v>2.62</v>
+      </c>
+      <c r="F984">
+        <v>1</v>
+      </c>
+      <c r="G984">
+        <v>0</v>
+      </c>
+      <c r="H984">
+        <v>1</v>
+      </c>
+      <c r="I984">
+        <v>0</v>
+      </c>
+      <c r="J984">
+        <v>1</v>
+      </c>
+      <c r="K984" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="985" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B985" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C985">
+        <v>1.74</v>
+      </c>
+      <c r="D985">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E985">
+        <v>2.359999999999999</v>
+      </c>
+      <c r="F985">
+        <v>0</v>
+      </c>
+      <c r="G985">
+        <v>0</v>
+      </c>
+      <c r="H985">
+        <v>1</v>
+      </c>
+      <c r="I985">
+        <v>1</v>
+      </c>
+      <c r="J985">
+        <v>1</v>
+      </c>
+      <c r="K985" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="986" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B986" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C986">
+        <v>5</v>
+      </c>
+      <c r="D986">
+        <v>1.55</v>
+      </c>
+      <c r="E986">
+        <v>3.45</v>
+      </c>
+      <c r="F986">
+        <v>0</v>
+      </c>
+      <c r="G986">
+        <v>1</v>
+      </c>
+      <c r="H986">
+        <v>0</v>
+      </c>
+      <c r="I986">
+        <v>0</v>
+      </c>
+      <c r="J986">
+        <v>1</v>
+      </c>
+      <c r="K986" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="987" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B987" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C987">
+        <v>3.8</v>
+      </c>
+      <c r="D987">
+        <v>1.86</v>
+      </c>
+      <c r="E987">
+        <v>1.94</v>
+      </c>
+      <c r="F987">
+        <v>0</v>
+      </c>
+      <c r="G987">
+        <v>1</v>
+      </c>
+      <c r="H987">
+        <v>1</v>
+      </c>
+      <c r="I987">
+        <v>0</v>
+      </c>
+      <c r="J987">
+        <v>1</v>
+      </c>
+      <c r="K987" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="988" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B988" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C988">
+        <v>1.51</v>
+      </c>
+      <c r="D988">
+        <v>4.7</v>
+      </c>
+      <c r="E988">
+        <v>3.19</v>
+      </c>
+      <c r="F988">
+        <v>1</v>
+      </c>
+      <c r="G988">
+        <v>1</v>
+      </c>
+      <c r="H988">
+        <v>0</v>
+      </c>
+      <c r="I988">
+        <v>0</v>
+      </c>
+      <c r="J988">
+        <v>0</v>
+      </c>
+      <c r="K988" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="989" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C989">
+        <v>3.75</v>
+      </c>
+      <c r="D989">
+        <v>1.8</v>
+      </c>
+      <c r="E989">
+        <v>1.95</v>
+      </c>
+      <c r="F989">
+        <v>1</v>
+      </c>
+      <c r="G989">
+        <v>1</v>
+      </c>
+      <c r="H989">
+        <v>0</v>
+      </c>
+      <c r="I989">
+        <v>0</v>
+      </c>
+      <c r="J989">
+        <v>1</v>
+      </c>
+      <c r="K989" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="990" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B990" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C990">
+        <v>3.2</v>
+      </c>
+      <c r="D990">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E990">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F990">
+        <v>1</v>
+      </c>
+      <c r="G990">
+        <v>0</v>
+      </c>
+      <c r="H990">
+        <v>1</v>
+      </c>
+      <c r="I990">
+        <v>0</v>
+      </c>
+      <c r="J990">
+        <v>1</v>
+      </c>
+      <c r="K990" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="991" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B991" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C991">
+        <v>1.18</v>
+      </c>
+      <c r="D991">
+        <v>11</v>
+      </c>
+      <c r="E991">
+        <v>9.82</v>
+      </c>
+      <c r="F991">
+        <v>1</v>
+      </c>
+      <c r="G991">
+        <v>0</v>
+      </c>
+      <c r="H991">
+        <v>0</v>
+      </c>
+      <c r="I991">
+        <v>0</v>
+      </c>
+      <c r="J991">
+        <v>1</v>
+      </c>
+      <c r="K991" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="992" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B992" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C992">
+        <v>1.57</v>
+      </c>
+      <c r="D992">
+        <v>5.5</v>
+      </c>
+      <c r="E992">
+        <v>3.93</v>
+      </c>
+      <c r="F992">
+        <v>1</v>
+      </c>
+      <c r="G992">
+        <v>1</v>
+      </c>
+      <c r="H992">
+        <v>1</v>
+      </c>
+      <c r="I992">
+        <v>0</v>
+      </c>
+      <c r="J992">
+        <v>0</v>
+      </c>
+      <c r="K992" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="993" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B993" t="s">
+        <v>664</v>
+      </c>
+      <c r="C993">
+        <v>1.62</v>
+      </c>
+      <c r="D993">
+        <v>5.9</v>
+      </c>
+      <c r="E993">
+        <v>4.28</v>
+      </c>
+      <c r="F993">
+        <v>1</v>
+      </c>
+      <c r="G993">
+        <v>0</v>
+      </c>
+      <c r="H993">
+        <v>1</v>
+      </c>
+      <c r="I993">
+        <v>1</v>
+      </c>
+      <c r="J993">
+        <v>0</v>
+      </c>
+      <c r="K993" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="994" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B994" t="s">
+        <v>1851</v>
+      </c>
+      <c r="C994">
+        <v>3.6</v>
+      </c>
+      <c r="D994">
+        <v>2</v>
+      </c>
+      <c r="E994">
+        <v>1.6</v>
+      </c>
+      <c r="F994">
+        <v>0</v>
+      </c>
+      <c r="G994">
+        <v>1</v>
+      </c>
+      <c r="H994">
+        <v>0</v>
+      </c>
+      <c r="I994">
+        <v>1</v>
+      </c>
+      <c r="J994">
+        <v>0</v>
+      </c>
+      <c r="K994" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="995" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B995" t="s">
+        <v>1853</v>
+      </c>
+      <c r="C995">
+        <v>1.79</v>
+      </c>
+      <c r="D995">
+        <v>3.9</v>
+      </c>
+      <c r="E995">
+        <v>2.11</v>
+      </c>
+      <c r="F995">
+        <v>0</v>
+      </c>
+      <c r="G995">
+        <v>0</v>
+      </c>
+      <c r="H995">
+        <v>1</v>
+      </c>
+      <c r="I995">
+        <v>1</v>
+      </c>
+      <c r="J995">
+        <v>0</v>
+      </c>
+      <c r="K995" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="996" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B996" t="s">
+        <v>1855</v>
+      </c>
+      <c r="C996">
+        <v>4.8</v>
+      </c>
+      <c r="D996">
+        <v>2</v>
+      </c>
+      <c r="E996">
+        <v>2.8</v>
+      </c>
+      <c r="F996">
+        <v>0</v>
+      </c>
+      <c r="G996">
+        <v>0</v>
+      </c>
+      <c r="H996">
+        <v>1</v>
+      </c>
+      <c r="I996">
+        <v>1</v>
+      </c>
+      <c r="J996">
+        <v>1</v>
+      </c>
+      <c r="K996" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="997" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A997" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B997" t="s">
+        <v>1857</v>
+      </c>
+      <c r="C997">
+        <v>1.32</v>
+      </c>
+      <c r="D997">
+        <v>7</v>
+      </c>
+      <c r="E997">
+        <v>5.68</v>
+      </c>
+      <c r="F997">
+        <v>1</v>
+      </c>
+      <c r="G997">
+        <v>0</v>
+      </c>
+      <c r="H997">
+        <v>0</v>
+      </c>
+      <c r="I997">
+        <v>1</v>
+      </c>
+      <c r="J997">
+        <v>1</v>
+      </c>
+      <c r="K997" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="998" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B998" t="s">
+        <v>1859</v>
+      </c>
+      <c r="C998">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D998">
+        <v>2.1</v>
+      </c>
+      <c r="E998">
+        <v>0.44999999999999968</v>
+      </c>
+      <c r="F998">
+        <v>1</v>
+      </c>
+      <c r="G998">
+        <v>0</v>
+      </c>
+      <c r="H998">
+        <v>0</v>
+      </c>
+      <c r="I998">
+        <v>1</v>
+      </c>
+      <c r="J998">
+        <v>0</v>
+      </c>
+      <c r="K998" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="999" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B999" t="s">
+        <v>1861</v>
+      </c>
+      <c r="C999">
+        <v>2.1</v>
+      </c>
+      <c r="D999">
+        <v>2.6</v>
+      </c>
+      <c r="E999">
+        <v>0.5</v>
+      </c>
+      <c r="F999">
+        <v>0</v>
+      </c>
+      <c r="G999">
+        <v>1</v>
+      </c>
+      <c r="H999">
+        <v>0</v>
+      </c>
+      <c r="I999">
+        <v>1</v>
+      </c>
+      <c r="J999">
+        <v>0</v>
+      </c>
+      <c r="K999" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1000" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C1000">
+        <v>2.1</v>
+      </c>
+      <c r="D1000">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E1000">
+        <v>0.44999999999999968</v>
+      </c>
+      <c r="F1000">
+        <v>1</v>
+      </c>
+      <c r="G1000">
+        <v>0</v>
+      </c>
+      <c r="H1000">
+        <v>0</v>
+      </c>
+      <c r="I1000">
+        <v>1</v>
+      </c>
+      <c r="J1000">
+        <v>1</v>
+      </c>
+      <c r="K1000" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1001">
+        <v>1.21</v>
+      </c>
+      <c r="D1001">
+        <v>8.9</v>
+      </c>
+      <c r="E1001">
+        <v>7.69</v>
+      </c>
+      <c r="F1001">
+        <v>0</v>
+      </c>
+      <c r="G1001">
+        <v>0</v>
+      </c>
+      <c r="H1001">
+        <v>0</v>
+      </c>
+      <c r="I1001">
+        <v>1</v>
+      </c>
+      <c r="J1001">
+        <v>0</v>
+      </c>
+      <c r="K1001" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1002" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>1865</v>
+      </c>
+      <c r="C1002">
+        <v>2.6</v>
+      </c>
+      <c r="D1002">
+        <v>2.5</v>
+      </c>
+      <c r="E1002">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="F1002">
+        <v>0</v>
+      </c>
+      <c r="G1002">
+        <v>1</v>
+      </c>
+      <c r="H1002">
+        <v>0</v>
+      </c>
+      <c r="I1002">
+        <v>1</v>
+      </c>
+      <c r="J1002">
+        <v>1</v>
+      </c>
+      <c r="K1002" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1003" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C1003">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D1003">
+        <v>1.58</v>
+      </c>
+      <c r="E1003">
+        <v>3.52</v>
+      </c>
+      <c r="F1003">
+        <v>1</v>
+      </c>
+      <c r="G1003">
+        <v>0</v>
+      </c>
+      <c r="H1003">
+        <v>0</v>
+      </c>
+      <c r="I1003">
+        <v>0</v>
+      </c>
+      <c r="J1003">
+        <v>1</v>
+      </c>
+      <c r="K1003" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1004" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C1004">
+        <v>1.66</v>
+      </c>
+      <c r="D1004">
+        <v>4.7</v>
+      </c>
+      <c r="E1004">
+        <v>3.04</v>
+      </c>
+      <c r="F1004">
+        <v>1</v>
+      </c>
+      <c r="G1004">
+        <v>0</v>
+      </c>
+      <c r="H1004">
+        <v>0</v>
+      </c>
+      <c r="I1004">
+        <v>0</v>
+      </c>
+      <c r="J1004">
+        <v>0</v>
+      </c>
+      <c r="K1004" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1005" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C1005">
+        <v>2.25</v>
+      </c>
+      <c r="D1005">
+        <v>2.7</v>
+      </c>
+      <c r="E1005">
+        <v>0.45000000000000018</v>
+      </c>
+      <c r="F1005">
+        <v>0</v>
+      </c>
+      <c r="G1005">
+        <v>0</v>
+      </c>
+      <c r="H1005">
+        <v>0</v>
+      </c>
+      <c r="I1005">
+        <v>1</v>
+      </c>
+      <c r="J1005">
+        <v>1</v>
+      </c>
+      <c r="K1005" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1006" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>360</v>
+      </c>
+      <c r="C1006">
+        <v>1.69</v>
+      </c>
+      <c r="D1006">
+        <v>3.9</v>
+      </c>
+      <c r="E1006">
+        <v>2.21</v>
+      </c>
+      <c r="F1006">
+        <v>0</v>
+      </c>
+      <c r="G1006">
+        <v>1</v>
+      </c>
+      <c r="H1006">
+        <v>1</v>
+      </c>
+      <c r="I1006">
+        <v>1</v>
+      </c>
+      <c r="J1006">
+        <v>0</v>
+      </c>
+      <c r="K1006" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1007" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C1007">
+        <v>1.5</v>
+      </c>
+      <c r="D1007">
+        <v>6.4</v>
+      </c>
+      <c r="E1007">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F1007">
+        <v>1</v>
+      </c>
+      <c r="G1007">
+        <v>0</v>
+      </c>
+      <c r="H1007">
+        <v>1</v>
+      </c>
+      <c r="I1007">
+        <v>1</v>
+      </c>
+      <c r="J1007">
+        <v>0</v>
+      </c>
+      <c r="K1007" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1008" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C1008">
+        <v>1.18</v>
+      </c>
+      <c r="D1008">
+        <v>10</v>
+      </c>
+      <c r="E1008">
+        <v>8.82</v>
+      </c>
+      <c r="F1008">
+        <v>1</v>
+      </c>
+      <c r="G1008">
+        <v>0</v>
+      </c>
+      <c r="H1008">
+        <v>0</v>
+      </c>
+      <c r="I1008">
+        <v>1</v>
+      </c>
+      <c r="J1008">
+        <v>0</v>
+      </c>
+      <c r="K1008" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1009" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C1009">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D1009">
+        <v>3.1</v>
+      </c>
+      <c r="E1009">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F1009">
+        <v>0</v>
+      </c>
+      <c r="G1009">
+        <v>1</v>
+      </c>
+      <c r="H1009">
+        <v>1</v>
+      </c>
+      <c r="I1009">
+        <v>1</v>
+      </c>
+      <c r="J1009">
+        <v>0</v>
+      </c>
+      <c r="K1009" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1010" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C1010">
+        <v>1.83</v>
+      </c>
+      <c r="D1010">
+        <v>3.75</v>
+      </c>
+      <c r="E1010">
+        <v>1.92</v>
+      </c>
+      <c r="F1010">
+        <v>1</v>
+      </c>
+      <c r="G1010">
+        <v>0</v>
+      </c>
+      <c r="H1010">
+        <v>0</v>
+      </c>
+      <c r="I1010">
+        <v>0</v>
+      </c>
+      <c r="J1010">
+        <v>1</v>
+      </c>
+      <c r="K1010" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1011" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1011">
+        <v>8.5</v>
+      </c>
+      <c r="D1011">
+        <v>1.28</v>
+      </c>
+      <c r="E1011">
+        <v>7.22</v>
+      </c>
+      <c r="F1011">
+        <v>1</v>
+      </c>
+      <c r="G1011">
+        <v>1</v>
+      </c>
+      <c r="H1011">
+        <v>0</v>
+      </c>
+      <c r="I1011">
+        <v>1</v>
+      </c>
+      <c r="J1011">
+        <v>0</v>
+      </c>
+      <c r="K1011" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1012" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C1012">
+        <v>1.53</v>
+      </c>
+      <c r="D1012">
+        <v>6.4</v>
+      </c>
+      <c r="E1012">
+        <v>4.87</v>
+      </c>
+      <c r="F1012">
+        <v>1</v>
+      </c>
+      <c r="G1012">
+        <v>0</v>
+      </c>
+      <c r="H1012">
+        <v>0</v>
+      </c>
+      <c r="I1012">
+        <v>1</v>
+      </c>
+      <c r="J1012">
+        <v>0</v>
+      </c>
+      <c r="K1012" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1013" t="s">
+        <v>695</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C1013">
+        <v>3.69</v>
+      </c>
+      <c r="D1013">
+        <v>1.98</v>
+      </c>
+      <c r="E1013">
+        <v>1.71</v>
+      </c>
+      <c r="F1013">
+        <v>1</v>
+      </c>
+      <c r="G1013">
+        <v>0</v>
+      </c>
+      <c r="H1013">
+        <v>0</v>
+      </c>
+      <c r="I1013">
+        <v>1</v>
+      </c>
+      <c r="J1013">
+        <v>0</v>
+      </c>
+      <c r="K1013" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1014" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C1014">
+        <v>2.4</v>
+      </c>
+      <c r="D1014">
+        <v>2.85</v>
+      </c>
+      <c r="E1014">
+        <v>0.45000000000000018</v>
+      </c>
+      <c r="F1014">
+        <v>1</v>
+      </c>
+      <c r="G1014">
+        <v>1</v>
+      </c>
+      <c r="H1014">
+        <v>0</v>
+      </c>
+      <c r="I1014">
+        <v>0</v>
+      </c>
+      <c r="J1014">
+        <v>0</v>
+      </c>
+      <c r="K1014" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1015" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1015">
+        <v>7.2</v>
+      </c>
+      <c r="D1015">
+        <v>1.5</v>
+      </c>
+      <c r="E1015">
+        <v>5.7</v>
+      </c>
+      <c r="F1015">
+        <v>1</v>
+      </c>
+      <c r="G1015">
+        <v>1</v>
+      </c>
+      <c r="H1015">
+        <v>0</v>
+      </c>
+      <c r="I1015">
+        <v>0</v>
+      </c>
+      <c r="J1015">
+        <v>0</v>
+      </c>
+      <c r="K1015" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1016" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>458</v>
+      </c>
+      <c r="C1016">
+        <v>2.15</v>
+      </c>
+      <c r="D1016">
+        <v>2.9</v>
+      </c>
+      <c r="E1016">
+        <v>0.75</v>
+      </c>
+      <c r="F1016">
+        <v>0</v>
+      </c>
+      <c r="G1016">
+        <v>1</v>
+      </c>
+      <c r="H1016">
+        <v>0</v>
+      </c>
+      <c r="I1016">
+        <v>0</v>
+      </c>
+      <c r="J1016">
+        <v>1</v>
+      </c>
+      <c r="K1016" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1017" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C1017">
+        <v>3.4</v>
+      </c>
+      <c r="D1017">
+        <v>1.86</v>
+      </c>
+      <c r="E1017">
+        <v>1.54</v>
+      </c>
+      <c r="F1017">
+        <v>1</v>
+      </c>
+      <c r="G1017">
+        <v>1</v>
+      </c>
+      <c r="H1017">
+        <v>0</v>
+      </c>
+      <c r="I1017">
+        <v>1</v>
+      </c>
+      <c r="J1017">
+        <v>0</v>
+      </c>
+      <c r="K1017" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1018" t="s">
+        <v>780</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C1018">
+        <v>1.9</v>
+      </c>
+      <c r="D1018">
+        <v>4.7</v>
+      </c>
+      <c r="E1018">
+        <v>2.8</v>
+      </c>
+      <c r="F1018">
+        <v>1</v>
+      </c>
+      <c r="G1018">
+        <v>0</v>
+      </c>
+      <c r="H1018">
+        <v>0</v>
+      </c>
+      <c r="I1018">
+        <v>1</v>
+      </c>
+      <c r="J1018">
+        <v>0</v>
+      </c>
+      <c r="K1018" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1019" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C1019">
+        <v>2.4</v>
+      </c>
+      <c r="D1019">
+        <v>3.1</v>
+      </c>
+      <c r="E1019">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="F1019">
+        <v>1</v>
+      </c>
+      <c r="G1019">
+        <v>0</v>
+      </c>
+      <c r="H1019">
+        <v>0</v>
+      </c>
+      <c r="I1019">
+        <v>0</v>
+      </c>
+      <c r="J1019">
+        <v>1</v>
+      </c>
+      <c r="K1019" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1020" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C1020">
+        <v>1.99</v>
+      </c>
+      <c r="D1020">
+        <v>3.6</v>
+      </c>
+      <c r="E1020">
+        <v>1.61</v>
+      </c>
+      <c r="F1020">
+        <v>1</v>
+      </c>
+      <c r="G1020">
+        <v>0</v>
+      </c>
+      <c r="H1020">
+        <v>1</v>
+      </c>
+      <c r="I1020">
+        <v>0</v>
+      </c>
+      <c r="J1020">
+        <v>0</v>
+      </c>
+      <c r="K1020" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1021" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C1021">
+        <v>3.7</v>
+      </c>
+      <c r="D1021">
+        <v>1.86</v>
+      </c>
+      <c r="E1021">
+        <v>1.84</v>
+      </c>
+      <c r="F1021">
+        <v>1</v>
+      </c>
+      <c r="G1021">
+        <v>0</v>
+      </c>
+      <c r="H1021">
+        <v>1</v>
+      </c>
+      <c r="I1021">
+        <v>0</v>
+      </c>
+      <c r="J1021">
+        <v>0</v>
+      </c>
+      <c r="K1021" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1022" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>692</v>
+      </c>
+      <c r="C1022">
+        <v>1.89</v>
+      </c>
+      <c r="D1022">
+        <v>4.75</v>
+      </c>
+      <c r="E1022">
+        <v>2.86</v>
+      </c>
+      <c r="F1022">
+        <v>1</v>
+      </c>
+      <c r="G1022">
+        <v>1</v>
+      </c>
+      <c r="H1022">
+        <v>1</v>
+      </c>
+      <c r="I1022">
+        <v>0</v>
+      </c>
+      <c r="J1022">
+        <v>0</v>
+      </c>
+      <c r="K1022" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1023" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1023">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D1023">
+        <v>2.65</v>
+      </c>
+      <c r="E1023">
+        <v>0.19999999999999971</v>
+      </c>
+      <c r="F1023">
+        <v>1</v>
+      </c>
+      <c r="G1023">
+        <v>1</v>
+      </c>
+      <c r="H1023">
+        <v>0</v>
+      </c>
+      <c r="I1023">
+        <v>1</v>
+      </c>
+      <c r="J1023">
+        <v>0</v>
+      </c>
+      <c r="K1023" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1024" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C1024">
+        <v>1.91</v>
+      </c>
+      <c r="D1024">
+        <v>3.6</v>
+      </c>
+      <c r="E1024">
+        <v>1.69</v>
+      </c>
+      <c r="F1024">
+        <v>1</v>
+      </c>
+      <c r="G1024">
+        <v>0</v>
+      </c>
+      <c r="H1024">
+        <v>0</v>
+      </c>
+      <c r="I1024">
+        <v>1</v>
+      </c>
+      <c r="J1024">
+        <v>0</v>
+      </c>
+      <c r="K1024" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1025" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C1025">
+        <v>1.79</v>
+      </c>
+      <c r="D1025">
+        <v>3.8</v>
+      </c>
+      <c r="E1025">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F1025">
+        <v>1</v>
+      </c>
+      <c r="G1025">
+        <v>0</v>
+      </c>
+      <c r="H1025">
+        <v>1</v>
+      </c>
+      <c r="I1025">
+        <v>1</v>
+      </c>
+      <c r="J1025">
+        <v>0</v>
+      </c>
+      <c r="K1025" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1026" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C1026">
+        <v>1.91</v>
+      </c>
+      <c r="D1026">
+        <v>3.5</v>
+      </c>
+      <c r="E1026">
+        <v>1.59</v>
+      </c>
+      <c r="F1026">
+        <v>1</v>
+      </c>
+      <c r="G1026">
+        <v>0</v>
+      </c>
+      <c r="H1026">
+        <v>0</v>
+      </c>
+      <c r="I1026">
+        <v>0</v>
+      </c>
+      <c r="J1026">
+        <v>1</v>
+      </c>
+      <c r="K1026" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1027" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C1027">
+        <v>1.38</v>
+      </c>
+      <c r="D1027">
+        <v>7</v>
+      </c>
+      <c r="E1027">
+        <v>5.62</v>
+      </c>
+      <c r="F1027">
+        <v>1</v>
+      </c>
+      <c r="G1027">
+        <v>0</v>
+      </c>
+      <c r="H1027">
+        <v>0</v>
+      </c>
+      <c r="I1027">
+        <v>1</v>
+      </c>
+      <c r="J1027">
+        <v>0</v>
+      </c>
+      <c r="K1027" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1028" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>924</v>
+      </c>
+      <c r="C1028">
+        <v>1.63</v>
+      </c>
+      <c r="D1028">
+        <v>5.7</v>
+      </c>
+      <c r="E1028">
+        <v>4.07</v>
+      </c>
+      <c r="F1028">
+        <v>0</v>
+      </c>
+      <c r="G1028">
+        <v>0</v>
+      </c>
+      <c r="H1028">
+        <v>1</v>
+      </c>
+      <c r="I1028">
+        <v>0</v>
+      </c>
+      <c r="J1028">
+        <v>1</v>
+      </c>
+      <c r="K1028" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1029" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C1029">
+        <v>3.5</v>
+      </c>
+      <c r="D1029">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E1029">
+        <v>1.45</v>
+      </c>
+      <c r="F1029">
+        <v>1</v>
+      </c>
+      <c r="G1029">
+        <v>0</v>
+      </c>
+      <c r="H1029">
+        <v>0</v>
+      </c>
+      <c r="I1029">
+        <v>1</v>
+      </c>
+      <c r="J1029">
+        <v>0</v>
+      </c>
+      <c r="K1029" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1030" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C1030">
+        <v>5.4</v>
+      </c>
+      <c r="D1030">
+        <v>1.58</v>
+      </c>
+      <c r="E1030">
+        <v>3.82</v>
+      </c>
+      <c r="F1030">
+        <v>0</v>
+      </c>
+      <c r="G1030">
+        <v>1</v>
+      </c>
+      <c r="H1030">
+        <v>1</v>
+      </c>
+      <c r="I1030">
+        <v>0</v>
+      </c>
+      <c r="J1030">
+        <v>1</v>
+      </c>
+      <c r="K1030" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C1031">
+        <v>2.15</v>
+      </c>
+      <c r="D1031">
+        <v>3.25</v>
+      </c>
+      <c r="E1031">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F1031">
+        <v>0</v>
+      </c>
+      <c r="G1031">
+        <v>1</v>
+      </c>
+      <c r="H1031">
+        <v>0</v>
+      </c>
+      <c r="I1031">
+        <v>1</v>
+      </c>
+      <c r="J1031">
+        <v>1</v>
+      </c>
+      <c r="K1031" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1032" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C1032">
+        <v>1.48</v>
+      </c>
+      <c r="D1032">
+        <v>6.9</v>
+      </c>
+      <c r="E1032">
+        <v>5.42</v>
+      </c>
+      <c r="F1032">
+        <v>1</v>
+      </c>
+      <c r="G1032">
+        <v>0</v>
+      </c>
+      <c r="H1032">
+        <v>0</v>
+      </c>
+      <c r="I1032">
+        <v>0</v>
+      </c>
+      <c r="J1032">
+        <v>1</v>
+      </c>
+      <c r="K1032" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1033" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C1033">
+        <v>1.83</v>
+      </c>
+      <c r="D1033">
+        <v>4</v>
+      </c>
+      <c r="E1033">
+        <v>2.17</v>
+      </c>
+      <c r="F1033">
+        <v>1</v>
+      </c>
+      <c r="G1033">
+        <v>1</v>
+      </c>
+      <c r="H1033">
+        <v>0</v>
+      </c>
+      <c r="I1033">
+        <v>1</v>
+      </c>
+      <c r="J1033">
+        <v>0</v>
+      </c>
+      <c r="K1033" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1034" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C1034">
+        <v>2.25</v>
+      </c>
+      <c r="D1034">
+        <v>3.1</v>
+      </c>
+      <c r="E1034">
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="F1034">
+        <v>1</v>
+      </c>
+      <c r="G1034">
+        <v>0</v>
+      </c>
+      <c r="H1034">
+        <v>0</v>
+      </c>
+      <c r="I1034">
+        <v>0</v>
+      </c>
+      <c r="J1034">
+        <v>0</v>
+      </c>
+      <c r="K1034" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1035" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C1035">
+        <v>2.4</v>
+      </c>
+      <c r="D1035">
+        <v>3.1</v>
+      </c>
+      <c r="E1035">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="F1035">
+        <v>0</v>
+      </c>
+      <c r="G1035">
+        <v>1</v>
+      </c>
+      <c r="H1035">
+        <v>1</v>
+      </c>
+      <c r="I1035">
+        <v>1</v>
+      </c>
+      <c r="J1035">
+        <v>0</v>
+      </c>
+      <c r="K1035" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1036" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C1036">
+        <v>5.09</v>
+      </c>
+      <c r="D1036">
+        <v>1.66</v>
+      </c>
+      <c r="E1036">
+        <v>3.43</v>
+      </c>
+      <c r="F1036">
+        <v>1</v>
+      </c>
+      <c r="G1036">
+        <v>1</v>
+      </c>
+      <c r="H1036">
+        <v>0</v>
+      </c>
+      <c r="I1036">
+        <v>1</v>
+      </c>
+      <c r="J1036">
+        <v>0</v>
+      </c>
+      <c r="K1036" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1037" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C1037">
+        <v>4</v>
+      </c>
+      <c r="D1037">
+        <v>1.97</v>
+      </c>
+      <c r="E1037">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F1037">
+        <v>0</v>
+      </c>
+      <c r="G1037">
+        <v>1</v>
+      </c>
+      <c r="H1037">
+        <v>1</v>
+      </c>
+      <c r="I1037">
+        <v>0</v>
+      </c>
+      <c r="J1037">
+        <v>1</v>
+      </c>
+      <c r="K1037" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1038" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C1038">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D1038">
+        <v>3.5</v>
+      </c>
+      <c r="E1038">
+        <v>1.3</v>
+      </c>
+      <c r="F1038">
+        <v>1</v>
+      </c>
+      <c r="G1038">
+        <v>0</v>
+      </c>
+      <c r="H1038">
+        <v>0</v>
+      </c>
+      <c r="I1038">
+        <v>0</v>
+      </c>
+      <c r="J1038">
+        <v>1</v>
+      </c>
+      <c r="K1038" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1039" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C1039">
+        <v>1.97</v>
+      </c>
+      <c r="D1039">
+        <v>3.75</v>
+      </c>
+      <c r="E1039">
+        <v>1.78</v>
+      </c>
+      <c r="F1039">
+        <v>1</v>
+      </c>
+      <c r="G1039">
+        <v>1</v>
+      </c>
+      <c r="H1039">
+        <v>0</v>
+      </c>
+      <c r="I1039">
+        <v>0</v>
+      </c>
+      <c r="J1039">
+        <v>0</v>
+      </c>
+      <c r="K1039" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1040" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>1926</v>
+      </c>
+      <c r="C1040">
+        <v>1.72</v>
+      </c>
+      <c r="D1040">
+        <v>4.5</v>
+      </c>
+      <c r="E1040">
+        <v>2.78</v>
+      </c>
+      <c r="F1040">
+        <v>0</v>
+      </c>
+      <c r="G1040">
+        <v>1</v>
+      </c>
+      <c r="H1040">
+        <v>1</v>
+      </c>
+      <c r="I1040">
+        <v>0</v>
+      </c>
+      <c r="J1040">
+        <v>1</v>
+      </c>
+      <c r="K1040" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C1041">
+        <v>3.1</v>
+      </c>
+      <c r="D1041">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E1041">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F1041">
+        <v>0</v>
+      </c>
+      <c r="G1041">
+        <v>1</v>
+      </c>
+      <c r="H1041">
+        <v>1</v>
+      </c>
+      <c r="I1041">
+        <v>1</v>
+      </c>
+      <c r="J1041">
+        <v>0</v>
+      </c>
+      <c r="K1041" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1042" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C1042">
+        <v>3.75</v>
+      </c>
+      <c r="D1042">
+        <v>1.97</v>
+      </c>
+      <c r="E1042">
+        <v>1.78</v>
+      </c>
+      <c r="F1042">
+        <v>0</v>
+      </c>
+      <c r="G1042">
+        <v>1</v>
+      </c>
+      <c r="H1042">
+        <v>1</v>
+      </c>
+      <c r="I1042">
+        <v>0</v>
+      </c>
+      <c r="J1042">
+        <v>0</v>
+      </c>
+      <c r="K1042" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>1931</v>
+      </c>
+      <c r="C1043">
+        <v>3.6</v>
+      </c>
+      <c r="D1043">
+        <v>2</v>
+      </c>
+      <c r="E1043">
+        <v>1.6</v>
+      </c>
+      <c r="F1043">
+        <v>1</v>
+      </c>
+      <c r="G1043">
+        <v>0</v>
+      </c>
+      <c r="H1043">
+        <v>1</v>
+      </c>
+      <c r="I1043">
+        <v>0</v>
+      </c>
+      <c r="J1043">
+        <v>1</v>
+      </c>
+      <c r="K1043" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1044">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D1044">
+        <v>3.25</v>
+      </c>
+      <c r="E1044">
+        <v>1.05</v>
+      </c>
+      <c r="F1044">
+        <v>1</v>
+      </c>
+      <c r="G1044">
+        <v>0</v>
+      </c>
+      <c r="H1044">
+        <v>1</v>
+      </c>
+      <c r="I1044">
+        <v>0</v>
+      </c>
+      <c r="J1044">
+        <v>1</v>
+      </c>
+      <c r="K1044" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1045" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>1934</v>
+      </c>
+      <c r="C1045">
+        <v>3.79</v>
+      </c>
+      <c r="D1045">
+        <v>2.06</v>
+      </c>
+      <c r="E1045">
+        <v>1.73</v>
+      </c>
+      <c r="F1045">
+        <v>0</v>
+      </c>
+      <c r="G1045">
+        <v>1</v>
+      </c>
+      <c r="H1045">
+        <v>1</v>
+      </c>
+      <c r="I1045">
+        <v>1</v>
+      </c>
+      <c r="J1045">
+        <v>0</v>
+      </c>
+      <c r="K1045" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>1935</v>
+      </c>
+      <c r="C1046">
+        <v>1.74</v>
+      </c>
+      <c r="D1046">
+        <v>4.92</v>
+      </c>
+      <c r="E1046">
+        <v>3.18</v>
+      </c>
+      <c r="F1046">
+        <v>1</v>
+      </c>
+      <c r="G1046">
+        <v>1</v>
+      </c>
+      <c r="H1046">
+        <v>0</v>
+      </c>
+      <c r="I1046">
+        <v>0</v>
+      </c>
+      <c r="J1046">
+        <v>0</v>
+      </c>
+      <c r="K1046" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>500</v>
+      </c>
+      <c r="C1047">
+        <v>1.57</v>
+      </c>
+      <c r="D1047">
+        <v>6.56</v>
+      </c>
+      <c r="E1047">
+        <v>4.9899999999999993</v>
+      </c>
+      <c r="F1047">
+        <v>0</v>
+      </c>
+      <c r="G1047">
+        <v>1</v>
+      </c>
+      <c r="H1047">
+        <v>0</v>
+      </c>
+      <c r="I1047">
+        <v>1</v>
+      </c>
+      <c r="J1047">
+        <v>1</v>
+      </c>
+      <c r="K1047" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>1938</v>
+      </c>
+      <c r="C1048">
+        <v>3.4</v>
+      </c>
+      <c r="D1048">
+        <v>1.98</v>
+      </c>
+      <c r="E1048">
+        <v>1.42</v>
+      </c>
+      <c r="F1048">
+        <v>0</v>
+      </c>
+      <c r="G1048">
+        <v>1</v>
+      </c>
+      <c r="H1048">
+        <v>1</v>
+      </c>
+      <c r="I1048">
+        <v>0</v>
+      </c>
+      <c r="J1048">
+        <v>1</v>
+      </c>
+      <c r="K1048" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1049">
+        <v>2.1</v>
+      </c>
+      <c r="D1049">
+        <v>3.25</v>
+      </c>
+      <c r="E1049">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F1049">
+        <v>1</v>
+      </c>
+      <c r="G1049">
+        <v>0</v>
+      </c>
+      <c r="H1049">
+        <v>1</v>
+      </c>
+      <c r="I1049">
+        <v>0</v>
+      </c>
+      <c r="J1049">
+        <v>1</v>
+      </c>
+      <c r="K1049" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1050" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>438</v>
+      </c>
+      <c r="C1050">
+        <v>2.8</v>
+      </c>
+      <c r="D1050">
+        <v>2.35</v>
+      </c>
+      <c r="E1050">
+        <v>0.44999999999999968</v>
+      </c>
+      <c r="F1050">
+        <v>0</v>
+      </c>
+      <c r="G1050">
+        <v>1</v>
+      </c>
+      <c r="H1050">
+        <v>1</v>
+      </c>
+      <c r="I1050">
+        <v>0</v>
+      </c>
+      <c r="J1050">
+        <v>1</v>
+      </c>
+      <c r="K1050" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C1051">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D1051">
+        <v>3</v>
+      </c>
+      <c r="E1051">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="F1051">
+        <v>0</v>
+      </c>
+      <c r="G1051">
+        <v>1</v>
+      </c>
+      <c r="H1051">
+        <v>1</v>
+      </c>
+      <c r="I1051">
+        <v>1</v>
+      </c>
+      <c r="J1051">
+        <v>0</v>
+      </c>
+      <c r="K1051" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1052" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>1943</v>
+      </c>
+      <c r="C1052">
+        <v>2.65</v>
+      </c>
+      <c r="D1052">
+        <v>2.7</v>
+      </c>
+      <c r="E1052">
+        <v>5.0000000000000273E-2</v>
+      </c>
+      <c r="F1052">
+        <v>1</v>
+      </c>
+      <c r="G1052">
+        <v>1</v>
+      </c>
+      <c r="H1052">
+        <v>0</v>
+      </c>
+      <c r="I1052">
+        <v>0</v>
+      </c>
+      <c r="J1052">
+        <v>1</v>
+      </c>
+      <c r="K1052" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C1053">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D1053">
+        <v>1.74</v>
+      </c>
+      <c r="E1053">
+        <v>2.359999999999999</v>
+      </c>
+      <c r="F1053">
+        <v>1</v>
+      </c>
+      <c r="G1053">
+        <v>0</v>
+      </c>
+      <c r="H1053">
+        <v>0</v>
+      </c>
+      <c r="I1053">
+        <v>1</v>
+      </c>
+      <c r="J1053">
+        <v>0</v>
+      </c>
+      <c r="K1053" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>1947</v>
+      </c>
+      <c r="C1054">
+        <v>1.06</v>
+      </c>
+      <c r="D1054">
+        <v>19.5</v>
+      </c>
+      <c r="E1054">
+        <v>18.440000000000001</v>
+      </c>
+      <c r="F1054">
+        <v>0</v>
+      </c>
+      <c r="G1054">
+        <v>1</v>
+      </c>
+      <c r="H1054">
+        <v>1</v>
+      </c>
+      <c r="I1054">
+        <v>0</v>
+      </c>
+      <c r="J1054">
+        <v>0</v>
+      </c>
+      <c r="K1054" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1055" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>1949</v>
+      </c>
+      <c r="C1055">
+        <v>1.45</v>
+      </c>
+      <c r="D1055">
+        <v>6.3</v>
+      </c>
+      <c r="E1055">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F1055">
+        <v>1</v>
+      </c>
+      <c r="G1055">
+        <v>1</v>
+      </c>
+      <c r="H1055">
+        <v>0</v>
+      </c>
+      <c r="I1055">
+        <v>1</v>
+      </c>
+      <c r="J1055">
+        <v>0</v>
+      </c>
+      <c r="K1055" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
+        <v>455</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>1950</v>
+      </c>
+      <c r="C1056">
+        <v>1.59</v>
+      </c>
+      <c r="D1056">
+        <v>5.9</v>
+      </c>
+      <c r="E1056">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="F1056">
+        <v>1</v>
+      </c>
+      <c r="G1056">
+        <v>0</v>
+      </c>
+      <c r="H1056">
+        <v>1</v>
+      </c>
+      <c r="I1056">
+        <v>0</v>
+      </c>
+      <c r="J1056">
+        <v>1</v>
+      </c>
+      <c r="K1056" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1057" t="s">
+        <v>457</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C1057">
+        <v>1.49</v>
+      </c>
+      <c r="D1057">
+        <v>4.8</v>
+      </c>
+      <c r="E1057">
+        <v>3.31</v>
+      </c>
+      <c r="F1057">
+        <v>0</v>
+      </c>
+      <c r="G1057">
+        <v>1</v>
+      </c>
+      <c r="H1057">
+        <v>1</v>
+      </c>
+      <c r="I1057">
+        <v>1</v>
+      </c>
+      <c r="J1057">
+        <v>0</v>
+      </c>
+      <c r="K1057" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1058" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>1953</v>
+      </c>
+      <c r="C1058">
+        <v>3.8</v>
+      </c>
+      <c r="D1058">
+        <v>1.67</v>
+      </c>
+      <c r="E1058">
+        <v>2.13</v>
+      </c>
+      <c r="F1058">
+        <v>1</v>
+      </c>
+      <c r="G1058">
+        <v>0</v>
+      </c>
+      <c r="H1058">
+        <v>0</v>
+      </c>
+      <c r="I1058">
+        <v>0</v>
+      </c>
+      <c r="J1058">
+        <v>1</v>
+      </c>
+      <c r="K1058" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1059" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C1059">
+        <v>3.8</v>
+      </c>
+      <c r="D1059">
+        <v>1.97</v>
+      </c>
+      <c r="E1059">
+        <v>1.83</v>
+      </c>
+      <c r="F1059">
+        <v>1</v>
+      </c>
+      <c r="G1059">
+        <v>1</v>
+      </c>
+      <c r="H1059">
+        <v>0</v>
+      </c>
+      <c r="I1059">
+        <v>0</v>
+      </c>
+      <c r="J1059">
+        <v>0</v>
+      </c>
+      <c r="K1059" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C1060">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D1060">
+        <v>2.65</v>
+      </c>
+      <c r="E1060">
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="F1060">
+        <v>1</v>
+      </c>
+      <c r="G1060">
+        <v>1</v>
+      </c>
+      <c r="H1060">
+        <v>0</v>
+      </c>
+      <c r="I1060">
+        <v>1</v>
+      </c>
+      <c r="J1060">
+        <v>0</v>
+      </c>
+      <c r="K1060" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1061" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C1061">
+        <v>10.5</v>
+      </c>
+      <c r="D1061">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E1061">
+        <v>9.36</v>
+      </c>
+      <c r="F1061">
+        <v>1</v>
+      </c>
+      <c r="G1061">
+        <v>1</v>
+      </c>
+      <c r="H1061">
+        <v>0</v>
+      </c>
+      <c r="I1061">
+        <v>1</v>
+      </c>
+      <c r="J1061">
+        <v>0</v>
+      </c>
+      <c r="K1061" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1062" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1062">
+        <v>1.35</v>
+      </c>
+      <c r="D1062">
+        <v>6.9</v>
+      </c>
+      <c r="E1062">
+        <v>5.5500000000000007</v>
+      </c>
+      <c r="F1062">
+        <v>0</v>
+      </c>
+      <c r="G1062">
+        <v>1</v>
+      </c>
+      <c r="H1062">
+        <v>0</v>
+      </c>
+      <c r="I1062">
+        <v>0</v>
+      </c>
+      <c r="J1062">
+        <v>1</v>
+      </c>
+      <c r="K1062" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1063" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C1063">
+        <v>2.9</v>
+      </c>
+      <c r="D1063">
+        <v>1.99</v>
+      </c>
+      <c r="E1063">
+        <v>0.90999999999999992</v>
+      </c>
+      <c r="F1063">
+        <v>1</v>
+      </c>
+      <c r="G1063">
+        <v>0</v>
+      </c>
+      <c r="H1063">
+        <v>0</v>
+      </c>
+      <c r="I1063">
+        <v>1</v>
+      </c>
+      <c r="J1063">
+        <v>1</v>
+      </c>
+      <c r="K1063" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1064" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C1064">
+        <v>1.34</v>
+      </c>
+      <c r="D1064">
+        <v>6.2</v>
+      </c>
+      <c r="E1064">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F1064">
+        <v>0</v>
+      </c>
+      <c r="G1064">
+        <v>0</v>
+      </c>
+      <c r="H1064">
+        <v>0</v>
+      </c>
+      <c r="I1064">
+        <v>1</v>
+      </c>
+      <c r="J1064">
+        <v>1</v>
+      </c>
+      <c r="K1064" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1065" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C1065">
+        <v>1.85</v>
+      </c>
+      <c r="D1065">
+        <v>4.16</v>
+      </c>
+      <c r="E1065">
+        <v>2.31</v>
+      </c>
+      <c r="F1065">
+        <v>1</v>
+      </c>
+      <c r="G1065">
+        <v>1</v>
+      </c>
+      <c r="H1065">
+        <v>0</v>
+      </c>
+      <c r="I1065">
+        <v>1</v>
+      </c>
+      <c r="J1065">
+        <v>0</v>
+      </c>
+      <c r="K1065" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1066" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1066">
+        <v>3.51</v>
+      </c>
+      <c r="D1066">
+        <v>2.23</v>
+      </c>
+      <c r="E1066">
+        <v>1.28</v>
+      </c>
+      <c r="F1066">
+        <v>1</v>
+      </c>
+      <c r="G1066">
+        <v>1</v>
+      </c>
+      <c r="H1066">
+        <v>0</v>
+      </c>
+      <c r="I1066">
+        <v>1</v>
+      </c>
+      <c r="J1066">
+        <v>0</v>
+      </c>
+      <c r="K1066" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1067" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C1067">
+        <v>3.6</v>
+      </c>
+      <c r="D1067">
+        <v>1.69</v>
+      </c>
+      <c r="E1067">
+        <v>1.91</v>
+      </c>
+      <c r="F1067">
+        <v>1</v>
+      </c>
+      <c r="G1067">
+        <v>1</v>
+      </c>
+      <c r="H1067">
+        <v>0</v>
+      </c>
+      <c r="I1067">
+        <v>1</v>
+      </c>
+      <c r="J1067">
+        <v>0</v>
+      </c>
+      <c r="K1067" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1068" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C1068">
+        <v>6</v>
+      </c>
+      <c r="D1068">
+        <v>1.36</v>
+      </c>
+      <c r="E1068">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="F1068">
+        <v>1</v>
+      </c>
+      <c r="G1068">
+        <v>1</v>
+      </c>
+      <c r="H1068">
+        <v>0</v>
+      </c>
+      <c r="I1068">
+        <v>0</v>
+      </c>
+      <c r="J1068">
+        <v>1</v>
+      </c>
+      <c r="K1068" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1069" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>1970</v>
+      </c>
+      <c r="C1069">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D1069">
+        <v>13</v>
+      </c>
+      <c r="E1069">
+        <v>11.86</v>
+      </c>
+      <c r="F1069">
+        <v>1</v>
+      </c>
+      <c r="G1069">
+        <v>0</v>
+      </c>
+      <c r="H1069">
+        <v>1</v>
+      </c>
+      <c r="I1069">
+        <v>1</v>
+      </c>
+      <c r="J1069">
+        <v>0</v>
+      </c>
+      <c r="K1069" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1070" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C1070">
+        <v>2.35</v>
+      </c>
+      <c r="D1070">
+        <v>2.5</v>
+      </c>
+      <c r="E1070">
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="F1070">
+        <v>1</v>
+      </c>
+      <c r="G1070">
+        <v>1</v>
+      </c>
+      <c r="H1070">
+        <v>1</v>
+      </c>
+      <c r="I1070">
+        <v>0</v>
+      </c>
+      <c r="J1070">
+        <v>0</v>
+      </c>
+      <c r="K1070" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1071" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C1071">
+        <v>1.46</v>
+      </c>
+      <c r="D1071">
+        <v>6.7</v>
+      </c>
+      <c r="E1071">
+        <v>5.24</v>
+      </c>
+      <c r="F1071">
+        <v>1</v>
+      </c>
+      <c r="G1071">
+        <v>1</v>
+      </c>
+      <c r="H1071">
+        <v>0</v>
+      </c>
+      <c r="I1071">
+        <v>1</v>
+      </c>
+      <c r="J1071">
+        <v>0</v>
+      </c>
+      <c r="K1071" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1072" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>958</v>
+      </c>
+      <c r="C1072">
+        <v>1.02</v>
+      </c>
+      <c r="D1072">
+        <v>22</v>
+      </c>
+      <c r="E1072">
+        <v>20.98</v>
+      </c>
+      <c r="F1072">
+        <v>1</v>
+      </c>
+      <c r="G1072">
+        <v>1</v>
+      </c>
+      <c r="H1072">
+        <v>0</v>
+      </c>
+      <c r="I1072">
+        <v>0</v>
+      </c>
+      <c r="J1072">
+        <v>0</v>
+      </c>
+      <c r="K1072" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1073" t="s">
+        <v>933</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1073">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D1073">
+        <v>3.3</v>
+      </c>
+      <c r="E1073">
+        <v>1</v>
+      </c>
+      <c r="F1073">
+        <v>1</v>
+      </c>
+      <c r="G1073">
+        <v>0</v>
+      </c>
+      <c r="H1073">
+        <v>1</v>
+      </c>
+      <c r="I1073">
+        <v>0</v>
+      </c>
+      <c r="J1073">
+        <v>1</v>
+      </c>
+      <c r="K1073" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1074" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>380</v>
+      </c>
+      <c r="C1074">
+        <v>2.8</v>
+      </c>
+      <c r="D1074">
+        <v>2.1</v>
+      </c>
+      <c r="E1074">
+        <v>0.69999999999999973</v>
+      </c>
+      <c r="F1074">
+        <v>0</v>
+      </c>
+      <c r="G1074">
+        <v>1</v>
+      </c>
+      <c r="H1074">
+        <v>0</v>
+      </c>
+      <c r="I1074">
+        <v>1</v>
+      </c>
+      <c r="J1074">
+        <v>1</v>
+      </c>
+      <c r="K1074" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1075" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C1075">
+        <v>3.8</v>
+      </c>
+      <c r="D1075">
+        <v>1.85</v>
+      </c>
+      <c r="E1075">
+        <v>1.95</v>
+      </c>
+      <c r="F1075">
+        <v>1</v>
+      </c>
+      <c r="G1075">
+        <v>1</v>
+      </c>
+      <c r="H1075">
+        <v>0</v>
+      </c>
+      <c r="I1075">
+        <v>1</v>
+      </c>
+      <c r="J1075">
+        <v>0</v>
+      </c>
+      <c r="K1075" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1076" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C1076">
+        <v>1.26</v>
+      </c>
+      <c r="D1076">
+        <v>7.6</v>
+      </c>
+      <c r="E1076">
+        <v>6.34</v>
+      </c>
+      <c r="F1076">
+        <v>1</v>
+      </c>
+      <c r="G1076">
+        <v>0</v>
+      </c>
+      <c r="H1076">
+        <v>0</v>
+      </c>
+      <c r="I1076">
+        <v>0</v>
+      </c>
+      <c r="J1076">
+        <v>1</v>
+      </c>
+      <c r="K1076" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1077" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C1077">
+        <v>6.6</v>
+      </c>
+      <c r="D1077">
+        <v>1.31</v>
+      </c>
+      <c r="E1077">
+        <v>5.2899999999999991</v>
+      </c>
+      <c r="F1077">
+        <v>1</v>
+      </c>
+      <c r="G1077">
+        <v>1</v>
+      </c>
+      <c r="H1077">
+        <v>0</v>
+      </c>
+      <c r="I1077">
+        <v>1</v>
+      </c>
+      <c r="J1077">
+        <v>0</v>
+      </c>
+      <c r="K1077" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1078" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C1078">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D1078">
+        <v>1.47</v>
+      </c>
+      <c r="E1078">
+        <v>3.63</v>
+      </c>
+      <c r="F1078">
+        <v>1</v>
+      </c>
+      <c r="G1078">
+        <v>0</v>
+      </c>
+      <c r="H1078">
+        <v>0</v>
+      </c>
+      <c r="I1078">
+        <v>1</v>
+      </c>
+      <c r="J1078">
+        <v>0</v>
+      </c>
+      <c r="K1078" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1079" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C1079">
+        <v>1.75</v>
+      </c>
+      <c r="D1079">
+        <v>4.2</v>
+      </c>
+      <c r="E1079">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F1079">
+        <v>0</v>
+      </c>
+      <c r="G1079">
+        <v>1</v>
+      </c>
+      <c r="H1079">
+        <v>1</v>
+      </c>
+      <c r="I1079">
+        <v>1</v>
+      </c>
+      <c r="J1079">
+        <v>0</v>
+      </c>
+      <c r="K1079" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1080" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C1080">
+        <v>2.1</v>
+      </c>
+      <c r="D1080">
+        <v>3.1</v>
+      </c>
+      <c r="E1080">
+        <v>1</v>
+      </c>
+      <c r="F1080">
+        <v>1</v>
+      </c>
+      <c r="G1080">
+        <v>1</v>
+      </c>
+      <c r="H1080">
+        <v>1</v>
+      </c>
+      <c r="I1080">
+        <v>0</v>
+      </c>
+      <c r="J1080">
+        <v>0</v>
+      </c>
+      <c r="K1080" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1081" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C1081">
+        <v>1.26</v>
+      </c>
+      <c r="D1081">
+        <v>7.8</v>
+      </c>
+      <c r="E1081">
+        <v>6.54</v>
+      </c>
+      <c r="F1081">
+        <v>1</v>
+      </c>
+      <c r="G1081">
+        <v>1</v>
+      </c>
+      <c r="H1081">
+        <v>0</v>
+      </c>
+      <c r="I1081">
+        <v>0</v>
+      </c>
+      <c r="J1081">
+        <v>1</v>
+      </c>
+      <c r="K1081" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1082" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>601</v>
+      </c>
+      <c r="C1082">
+        <v>7.1</v>
+      </c>
+      <c r="D1082">
+        <v>1.31</v>
+      </c>
+      <c r="E1082">
+        <v>5.7899999999999991</v>
+      </c>
+      <c r="F1082">
+        <v>1</v>
+      </c>
+      <c r="G1082">
+        <v>1</v>
+      </c>
+      <c r="H1082">
+        <v>0</v>
+      </c>
+      <c r="I1082">
+        <v>0</v>
+      </c>
+      <c r="J1082">
+        <v>1</v>
+      </c>
+      <c r="K1082" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1083" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C1083">
+        <v>1.76</v>
+      </c>
+      <c r="D1083">
+        <v>3.5</v>
+      </c>
+      <c r="E1083">
+        <v>1.74</v>
+      </c>
+      <c r="F1083">
+        <v>1</v>
+      </c>
+      <c r="G1083">
+        <v>0</v>
+      </c>
+      <c r="H1083">
+        <v>0</v>
+      </c>
+      <c r="I1083">
+        <v>1</v>
+      </c>
+      <c r="J1083">
+        <v>1</v>
+      </c>
+      <c r="K1083" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1084" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>1992</v>
+      </c>
+      <c r="C1084">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="D1084">
+        <v>11</v>
+      </c>
+      <c r="E1084">
+        <v>9.84</v>
+      </c>
+      <c r="F1084">
+        <v>0</v>
+      </c>
+      <c r="G1084">
+        <v>1</v>
+      </c>
+      <c r="H1084">
+        <v>1</v>
+      </c>
+      <c r="I1084">
+        <v>1</v>
+      </c>
+      <c r="J1084">
+        <v>0</v>
+      </c>
+      <c r="K1084" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1085" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C1085">
+        <v>1.24</v>
+      </c>
+      <c r="D1085">
+        <v>7.7</v>
+      </c>
+      <c r="E1085">
+        <v>6.46</v>
+      </c>
+      <c r="F1085">
+        <v>1</v>
+      </c>
+      <c r="G1085">
+        <v>0</v>
+      </c>
+      <c r="H1085">
+        <v>1</v>
+      </c>
+      <c r="I1085">
+        <v>0</v>
+      </c>
+      <c r="J1085">
+        <v>0</v>
+      </c>
+      <c r="K1085" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1086" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>1996</v>
+      </c>
+      <c r="C1086">
+        <v>1.52</v>
+      </c>
+      <c r="D1086">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E1086">
+        <v>2.88</v>
+      </c>
+      <c r="F1086">
+        <v>0</v>
+      </c>
+      <c r="G1086">
+        <v>0</v>
+      </c>
+      <c r="H1086">
+        <v>1</v>
+      </c>
+      <c r="I1086">
+        <v>0</v>
+      </c>
+      <c r="J1086">
+        <v>1</v>
+      </c>
+      <c r="K1086" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1087" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>1998</v>
+      </c>
+      <c r="C1087">
+        <v>1.17</v>
+      </c>
+      <c r="D1087">
+        <v>8.9</v>
+      </c>
+      <c r="E1087">
+        <v>7.73</v>
+      </c>
+      <c r="F1087">
+        <v>1</v>
+      </c>
+      <c r="G1087">
+        <v>0</v>
+      </c>
+      <c r="H1087">
+        <v>0</v>
+      </c>
+      <c r="I1087">
+        <v>1</v>
+      </c>
+      <c r="J1087">
+        <v>0</v>
+      </c>
+      <c r="K1087" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1088" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C1088">
+        <v>1.98</v>
+      </c>
+      <c r="D1088">
+        <v>3.1</v>
+      </c>
+      <c r="E1088">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="F1088">
+        <v>1</v>
+      </c>
+      <c r="G1088">
+        <v>0</v>
+      </c>
+      <c r="H1088">
+        <v>0</v>
+      </c>
+      <c r="I1088">
+        <v>0</v>
+      </c>
+      <c r="J1088">
+        <v>1</v>
+      </c>
+      <c r="K1088" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1089" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C1089">
+        <v>3.2</v>
+      </c>
+      <c r="D1089">
+        <v>1.9</v>
+      </c>
+      <c r="E1089">
+        <v>1.3</v>
+      </c>
+      <c r="F1089">
+        <v>1</v>
+      </c>
+      <c r="G1089">
+        <v>1</v>
+      </c>
+      <c r="H1089">
+        <v>0</v>
+      </c>
+      <c r="I1089">
+        <v>0</v>
+      </c>
+      <c r="J1089">
+        <v>1</v>
+      </c>
+      <c r="K1089" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1090" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1090">
+        <v>1.46</v>
+      </c>
+      <c r="D1090">
+        <v>5.3</v>
+      </c>
+      <c r="E1090">
+        <v>3.84</v>
+      </c>
+      <c r="F1090">
+        <v>1</v>
+      </c>
+      <c r="G1090">
+        <v>1</v>
+      </c>
+      <c r="H1090">
+        <v>0</v>
+      </c>
+      <c r="I1090">
+        <v>0</v>
+      </c>
+      <c r="J1090">
+        <v>0</v>
+      </c>
+      <c r="K1090" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1091" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C1091">
+        <v>3.3</v>
+      </c>
+      <c r="D1091">
+        <v>1.77</v>
+      </c>
+      <c r="E1091">
+        <v>1.53</v>
+      </c>
+      <c r="F1091">
+        <v>1</v>
+      </c>
+      <c r="G1091">
+        <v>0</v>
+      </c>
+      <c r="H1091">
+        <v>0</v>
+      </c>
+      <c r="I1091">
+        <v>0</v>
+      </c>
+      <c r="J1091">
+        <v>1</v>
+      </c>
+      <c r="K1091" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1092" t="s">
+        <v>931</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>2004</v>
+      </c>
+      <c r="C1092">
+        <v>2.15</v>
+      </c>
+      <c r="D1092">
+        <v>3.6</v>
+      </c>
+      <c r="E1092">
+        <v>1.45</v>
+      </c>
+      <c r="F1092">
+        <v>1</v>
+      </c>
+      <c r="G1092">
+        <v>0</v>
+      </c>
+      <c r="H1092">
+        <v>0</v>
+      </c>
+      <c r="I1092">
+        <v>1</v>
+      </c>
+      <c r="J1092">
+        <v>0</v>
+      </c>
+      <c r="K1092" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1093" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C1093">
+        <v>1.75</v>
+      </c>
+      <c r="D1093">
+        <v>4.3</v>
+      </c>
+      <c r="E1093">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F1093">
+        <v>0</v>
+      </c>
+      <c r="G1093">
+        <v>1</v>
+      </c>
+      <c r="H1093">
+        <v>0</v>
+      </c>
+      <c r="I1093">
+        <v>0</v>
+      </c>
+      <c r="J1093">
+        <v>1</v>
+      </c>
+      <c r="K1093" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1094" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C1094">
+        <v>3.7</v>
+      </c>
+      <c r="D1094">
+        <v>1.85</v>
+      </c>
+      <c r="E1094">
+        <v>1.85</v>
+      </c>
+      <c r="F1094">
+        <v>1</v>
+      </c>
+      <c r="G1094">
+        <v>0</v>
+      </c>
+      <c r="H1094">
+        <v>0</v>
+      </c>
+      <c r="I1094">
+        <v>0</v>
+      </c>
+      <c r="J1094">
+        <v>1</v>
+      </c>
+      <c r="K1094" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1095" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C1095">
+        <v>1.53</v>
+      </c>
+      <c r="D1095">
+        <v>5.2</v>
+      </c>
+      <c r="E1095">
+        <v>3.67</v>
+      </c>
+      <c r="F1095">
+        <v>1</v>
+      </c>
+      <c r="G1095">
+        <v>1</v>
+      </c>
+      <c r="H1095">
+        <v>0</v>
+      </c>
+      <c r="I1095">
+        <v>0</v>
+      </c>
+      <c r="J1095">
+        <v>0</v>
+      </c>
+      <c r="K1095" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1096" t="s">
+        <v>505</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1096">
+        <v>1.92</v>
+      </c>
+      <c r="D1096">
+        <v>3.6</v>
+      </c>
+      <c r="E1096">
+        <v>1.68</v>
+      </c>
+      <c r="F1096">
+        <v>1</v>
+      </c>
+      <c r="G1096">
+        <v>0</v>
+      </c>
+      <c r="H1096">
+        <v>0</v>
+      </c>
+      <c r="I1096">
+        <v>1</v>
+      </c>
+      <c r="J1096">
+        <v>1</v>
+      </c>
+      <c r="K1096" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1097" t="s">
+        <v>882</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>2010</v>
+      </c>
+      <c r="C1097">
+        <v>6.67</v>
+      </c>
+      <c r="D1097">
+        <v>1.51</v>
+      </c>
+      <c r="E1097">
+        <v>5.16</v>
+      </c>
+      <c r="F1097">
+        <v>0</v>
+      </c>
+      <c r="G1097">
+        <v>1</v>
+      </c>
+      <c r="H1097">
+        <v>1</v>
+      </c>
+      <c r="I1097">
+        <v>0</v>
+      </c>
+      <c r="J1097">
+        <v>1</v>
+      </c>
+      <c r="K1097" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1098" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C1098">
+        <v>1.94</v>
+      </c>
+      <c r="D1098">
+        <v>3.33</v>
+      </c>
+      <c r="E1098">
+        <v>1.39</v>
+      </c>
+      <c r="F1098">
+        <v>1</v>
+      </c>
+      <c r="G1098">
+        <v>0</v>
+      </c>
+      <c r="H1098">
+        <v>1</v>
+      </c>
+      <c r="I1098">
+        <v>1</v>
+      </c>
+      <c r="J1098">
+        <v>0</v>
+      </c>
+      <c r="K1098" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1099" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>2014</v>
+      </c>
+      <c r="C1099">
+        <v>4</v>
+      </c>
+      <c r="D1099">
+        <v>1.7</v>
+      </c>
+      <c r="E1099">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F1099">
+        <v>1</v>
+      </c>
+      <c r="G1099">
+        <v>0</v>
+      </c>
+      <c r="H1099">
+        <v>0</v>
+      </c>
+      <c r="I1099">
+        <v>0</v>
+      </c>
+      <c r="J1099">
+        <v>1</v>
+      </c>
+      <c r="K1099" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1100" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>2016</v>
+      </c>
+      <c r="C1100">
+        <v>12.55</v>
+      </c>
+      <c r="D1100">
+        <v>1.24</v>
+      </c>
+      <c r="E1100">
+        <v>11.31</v>
+      </c>
+      <c r="F1100">
+        <v>1</v>
+      </c>
+      <c r="G1100">
+        <v>1</v>
+      </c>
+      <c r="H1100">
+        <v>0</v>
+      </c>
+      <c r="I1100">
+        <v>0</v>
+      </c>
+      <c r="J1100">
+        <v>0</v>
+      </c>
+      <c r="K1100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1101" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C1101">
+        <v>1.81</v>
+      </c>
+      <c r="D1101">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E1101">
+        <v>2.29</v>
+      </c>
+      <c r="F1101">
+        <v>1</v>
+      </c>
+      <c r="G1101">
+        <v>0</v>
+      </c>
+      <c r="H1101">
+        <v>0</v>
+      </c>
+      <c r="I1101">
+        <v>0</v>
+      </c>
+      <c r="J1101">
+        <v>0</v>
+      </c>
+      <c r="K1101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1102" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>2019</v>
+      </c>
+      <c r="C1102">
+        <v>3.7</v>
+      </c>
+      <c r="D1102">
+        <v>2</v>
+      </c>
+      <c r="E1102">
+        <v>1.7</v>
+      </c>
+      <c r="F1102">
+        <v>0</v>
+      </c>
+      <c r="G1102">
+        <v>0</v>
+      </c>
+      <c r="H1102">
+        <v>0</v>
+      </c>
+      <c r="I1102">
+        <v>1</v>
+      </c>
+      <c r="J1102">
+        <v>1</v>
+      </c>
+      <c r="K1102" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1103" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C1103">
+        <v>4.5</v>
+      </c>
+      <c r="D1103">
+        <v>1.75</v>
+      </c>
+      <c r="E1103">
+        <v>2.75</v>
+      </c>
+      <c r="F1103">
+        <v>1</v>
+      </c>
+      <c r="G1103">
+        <v>1</v>
+      </c>
+      <c r="H1103">
+        <v>0</v>
+      </c>
+      <c r="I1103">
+        <v>1</v>
+      </c>
+      <c r="J1103">
+        <v>0</v>
+      </c>
+      <c r="K1103" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1104" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C1104">
+        <v>7.7</v>
+      </c>
+      <c r="D1104">
+        <v>1.41</v>
+      </c>
+      <c r="E1104">
+        <v>6.29</v>
+      </c>
+      <c r="F1104">
+        <v>0</v>
+      </c>
+      <c r="G1104">
+        <v>1</v>
+      </c>
+      <c r="H1104">
+        <v>0</v>
+      </c>
+      <c r="I1104">
+        <v>0</v>
+      </c>
+      <c r="J1104">
+        <v>1</v>
+      </c>
+      <c r="K1104" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1105" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C1105">
+        <v>1.88</v>
+      </c>
+      <c r="D1105">
+        <v>3.6</v>
+      </c>
+      <c r="E1105">
+        <v>1.72</v>
+      </c>
+      <c r="F1105">
+        <v>1</v>
+      </c>
+      <c r="G1105">
+        <v>0</v>
+      </c>
+      <c r="H1105">
+        <v>0</v>
+      </c>
+      <c r="I1105">
+        <v>1</v>
+      </c>
+      <c r="J1105">
+        <v>0</v>
+      </c>
+      <c r="K1105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1106" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C1106">
+        <v>1.86</v>
+      </c>
+      <c r="D1106">
+        <v>4</v>
+      </c>
+      <c r="E1106">
+        <v>2.14</v>
+      </c>
+      <c r="F1106">
+        <v>1</v>
+      </c>
+      <c r="G1106">
+        <v>1</v>
+      </c>
+      <c r="H1106">
+        <v>0</v>
+      </c>
+      <c r="I1106">
+        <v>0</v>
+      </c>
+      <c r="J1106">
+        <v>0</v>
+      </c>
+      <c r="K1106" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1107" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C1107">
+        <v>1.3</v>
+      </c>
+      <c r="D1107">
+        <v>10.91</v>
+      </c>
+      <c r="E1107">
+        <v>9.61</v>
+      </c>
+      <c r="F1107">
+        <v>1</v>
+      </c>
+      <c r="G1107">
+        <v>0</v>
+      </c>
+      <c r="H1107">
+        <v>0</v>
+      </c>
+      <c r="I1107">
+        <v>1</v>
+      </c>
+      <c r="J1107">
+        <v>0</v>
+      </c>
+      <c r="K1107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1108" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C1108">
+        <v>1.92</v>
+      </c>
+      <c r="D1108">
+        <v>3.9</v>
+      </c>
+      <c r="E1108">
+        <v>1.98</v>
+      </c>
+      <c r="F1108">
+        <v>0</v>
+      </c>
+      <c r="G1108">
+        <v>1</v>
+      </c>
+      <c r="H1108">
+        <v>1</v>
+      </c>
+      <c r="I1108">
+        <v>0</v>
+      </c>
+      <c r="J1108">
+        <v>0</v>
+      </c>
+      <c r="K1108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1109" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>2031</v>
+      </c>
+      <c r="C1109">
+        <v>1.54</v>
+      </c>
+      <c r="D1109">
+        <v>5.2</v>
+      </c>
+      <c r="E1109">
+        <v>3.66</v>
+      </c>
+      <c r="F1109">
+        <v>1</v>
+      </c>
+      <c r="G1109">
+        <v>0</v>
+      </c>
+      <c r="H1109">
+        <v>0</v>
+      </c>
+      <c r="I1109">
+        <v>0</v>
+      </c>
+      <c r="J1109">
+        <v>0</v>
+      </c>
+      <c r="K1109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1110" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C1110">
+        <v>1.85</v>
+      </c>
+      <c r="D1110">
+        <v>3.75</v>
+      </c>
+      <c r="E1110">
+        <v>1.9</v>
+      </c>
+      <c r="F1110">
+        <v>1</v>
+      </c>
+      <c r="G1110">
+        <v>0</v>
+      </c>
+      <c r="H1110">
+        <v>0</v>
+      </c>
+      <c r="I1110">
+        <v>1</v>
+      </c>
+      <c r="J1110">
+        <v>0</v>
+      </c>
+      <c r="K1110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1111" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>2035</v>
+      </c>
+      <c r="C1111">
+        <v>1.42</v>
+      </c>
+      <c r="D1111">
+        <v>6.4</v>
+      </c>
+      <c r="E1111">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="F1111">
+        <v>1</v>
+      </c>
+      <c r="G1111">
+        <v>1</v>
+      </c>
+      <c r="H1111">
+        <v>0</v>
+      </c>
+      <c r="I1111">
+        <v>0</v>
+      </c>
+      <c r="J1111">
+        <v>0</v>
+      </c>
+      <c r="K1111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1112" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C1112">
+        <v>3.4</v>
+      </c>
+      <c r="D1112">
+        <v>2.15</v>
+      </c>
+      <c r="E1112">
+        <v>1.25</v>
+      </c>
+      <c r="F1112">
+        <v>1</v>
+      </c>
+      <c r="G1112">
+        <v>1</v>
+      </c>
+      <c r="H1112">
+        <v>0</v>
+      </c>
+      <c r="I1112">
+        <v>0</v>
+      </c>
+      <c r="J1112">
+        <v>0</v>
+      </c>
+      <c r="K1112" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1113" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1113">
+        <v>2.15</v>
+      </c>
+      <c r="D1113">
+        <v>2.85</v>
+      </c>
+      <c r="E1113">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="F1113">
+        <v>0</v>
+      </c>
+      <c r="G1113">
+        <v>0</v>
+      </c>
+      <c r="H1113">
+        <v>1</v>
+      </c>
+      <c r="I1113">
+        <v>1</v>
+      </c>
+      <c r="J1113">
+        <v>1</v>
+      </c>
+      <c r="K1113" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1114" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C1114">
+        <v>1.8</v>
+      </c>
+      <c r="D1114">
+        <v>4.2</v>
+      </c>
+      <c r="E1114">
+        <v>2.4</v>
+      </c>
+      <c r="F1114">
+        <v>1</v>
+      </c>
+      <c r="G1114">
+        <v>0</v>
+      </c>
+      <c r="H1114">
+        <v>1</v>
+      </c>
+      <c r="I1114">
+        <v>0</v>
+      </c>
+      <c r="J1114">
+        <v>0</v>
+      </c>
+      <c r="K1114" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1115" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>2038</v>
+      </c>
+      <c r="C1115">
+        <v>1.39</v>
+      </c>
+      <c r="D1115">
+        <v>7.7</v>
+      </c>
+      <c r="E1115">
+        <v>6.31</v>
+      </c>
+      <c r="F1115">
+        <v>1</v>
+      </c>
+      <c r="G1115">
+        <v>1</v>
+      </c>
+      <c r="H1115">
+        <v>0</v>
+      </c>
+      <c r="I1115">
+        <v>0</v>
+      </c>
+      <c r="J1115">
+        <v>1</v>
+      </c>
+      <c r="K1115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1116" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C1116">
+        <v>1.78</v>
+      </c>
+      <c r="D1116">
+        <v>3.6</v>
+      </c>
+      <c r="E1116">
+        <v>1.82</v>
+      </c>
+      <c r="F1116">
+        <v>1</v>
+      </c>
+      <c r="G1116">
+        <v>1</v>
+      </c>
+      <c r="H1116">
+        <v>0</v>
+      </c>
+      <c r="I1116">
+        <v>0</v>
+      </c>
+      <c r="J1116">
+        <v>0</v>
+      </c>
+      <c r="K1116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1117" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C1117">
+        <v>1.75</v>
+      </c>
+      <c r="D1117">
+        <v>3.9</v>
+      </c>
+      <c r="E1117">
+        <v>2.15</v>
+      </c>
+      <c r="F1117">
+        <v>0</v>
+      </c>
+      <c r="G1117">
+        <v>1</v>
+      </c>
+      <c r="H1117">
+        <v>1</v>
+      </c>
+      <c r="I1117">
+        <v>1</v>
+      </c>
+      <c r="J1117">
+        <v>0</v>
+      </c>
+      <c r="K1117" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1118" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C1118">
+        <v>2.15</v>
+      </c>
+      <c r="D1118">
+        <v>3.1</v>
+      </c>
+      <c r="E1118">
+        <v>0.95000000000000018</v>
+      </c>
+      <c r="F1118">
+        <v>1</v>
+      </c>
+      <c r="G1118">
+        <v>0</v>
+      </c>
+      <c r="H1118">
+        <v>1</v>
+      </c>
+      <c r="I1118">
+        <v>1</v>
+      </c>
+      <c r="J1118">
+        <v>0</v>
+      </c>
+      <c r="K1118" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1119" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C1119">
+        <v>1.71</v>
+      </c>
+      <c r="D1119">
+        <v>3.7</v>
+      </c>
+      <c r="E1119">
+        <v>1.99</v>
+      </c>
+      <c r="F1119">
+        <v>1</v>
+      </c>
+      <c r="G1119">
+        <v>0</v>
+      </c>
+      <c r="H1119">
+        <v>0</v>
+      </c>
+      <c r="I1119">
+        <v>1</v>
+      </c>
+      <c r="J1119">
+        <v>0</v>
+      </c>
+      <c r="K1119" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1120" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C1120">
+        <v>3.8</v>
+      </c>
+      <c r="D1120">
+        <v>1.87</v>
+      </c>
+      <c r="E1120">
+        <v>1.93</v>
+      </c>
+      <c r="F1120">
+        <v>1</v>
+      </c>
+      <c r="G1120">
+        <v>1</v>
+      </c>
+      <c r="H1120">
+        <v>1</v>
+      </c>
+      <c r="I1120">
+        <v>0</v>
+      </c>
+      <c r="J1120">
+        <v>0</v>
+      </c>
+      <c r="K1120" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1121" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C1121">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D1121">
+        <v>3.1</v>
+      </c>
+      <c r="E1121">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="F1121">
+        <v>1</v>
+      </c>
+      <c r="G1121">
+        <v>0</v>
+      </c>
+      <c r="H1121">
+        <v>0</v>
+      </c>
+      <c r="I1121">
+        <v>0</v>
+      </c>
+      <c r="J1121">
+        <v>0</v>
+      </c>
+      <c r="K1121" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1122" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C1122">
+        <v>1.51</v>
+      </c>
+      <c r="D1122">
+        <v>5.8</v>
+      </c>
+      <c r="E1122">
+        <v>4.29</v>
+      </c>
+      <c r="F1122">
+        <v>0</v>
+      </c>
+      <c r="G1122">
+        <v>1</v>
+      </c>
+      <c r="H1122">
+        <v>1</v>
+      </c>
+      <c r="I1122">
+        <v>0</v>
+      </c>
+      <c r="J1122">
+        <v>1</v>
+      </c>
+      <c r="K1122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1123" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C1123">
+        <v>1.56</v>
+      </c>
+      <c r="D1123">
+        <v>5.5</v>
+      </c>
+      <c r="E1123">
+        <v>3.94</v>
+      </c>
+      <c r="F1123">
+        <v>1</v>
+      </c>
+      <c r="G1123">
+        <v>0</v>
+      </c>
+      <c r="H1123">
+        <v>1</v>
+      </c>
+      <c r="I1123">
+        <v>0</v>
+      </c>
+      <c r="J1123">
+        <v>0</v>
+      </c>
+      <c r="K1123" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1124" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C1124">
+        <v>2.6</v>
+      </c>
+      <c r="D1124">
+        <v>2.64</v>
+      </c>
+      <c r="E1124">
+        <v>4.0000000000000042E-2</v>
+      </c>
+      <c r="F1124">
+        <v>0</v>
+      </c>
+      <c r="G1124">
+        <v>1</v>
+      </c>
+      <c r="H1124">
+        <v>1</v>
+      </c>
+      <c r="I1124">
+        <v>1</v>
+      </c>
+      <c r="J1124">
+        <v>0</v>
+      </c>
+      <c r="K1124" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1125" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C1125">
+        <v>1.78</v>
+      </c>
+      <c r="D1125">
+        <v>4.59</v>
+      </c>
+      <c r="E1125">
+        <v>2.81</v>
+      </c>
+      <c r="F1125">
+        <v>1</v>
+      </c>
+      <c r="G1125">
+        <v>0</v>
+      </c>
+      <c r="H1125">
+        <v>0</v>
+      </c>
+      <c r="I1125">
+        <v>0</v>
+      </c>
+      <c r="J1125">
+        <v>1</v>
+      </c>
+      <c r="K1125" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1126" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C1126">
+        <v>1.33</v>
+      </c>
+      <c r="D1126">
+        <v>8.58</v>
+      </c>
+      <c r="E1126">
+        <v>7.25</v>
+      </c>
+      <c r="F1126">
+        <v>1</v>
+      </c>
+      <c r="G1126">
+        <v>0</v>
+      </c>
+      <c r="H1126">
+        <v>1</v>
+      </c>
+      <c r="I1126">
+        <v>0</v>
+      </c>
+      <c r="J1126">
+        <v>0</v>
+      </c>
+      <c r="K1126" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1127" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>767</v>
+      </c>
+      <c r="C1127">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D1127">
+        <v>3</v>
+      </c>
+      <c r="E1127">
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="F1127">
+        <v>0</v>
+      </c>
+      <c r="G1127">
+        <v>1</v>
+      </c>
+      <c r="H1127">
+        <v>0</v>
+      </c>
+      <c r="I1127">
+        <v>0</v>
+      </c>
+      <c r="J1127">
+        <v>1</v>
+      </c>
+      <c r="K1127" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1128" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C1128">
+        <v>1.45</v>
+      </c>
+      <c r="D1128">
+        <v>7.04</v>
+      </c>
+      <c r="E1128">
+        <v>5.59</v>
+      </c>
+      <c r="F1128">
+        <v>1</v>
+      </c>
+      <c r="G1128">
+        <v>1</v>
+      </c>
+      <c r="H1128">
+        <v>1</v>
+      </c>
+      <c r="I1128">
+        <v>0</v>
+      </c>
+      <c r="J1128">
+        <v>0</v>
+      </c>
+      <c r="K1128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1129" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>653</v>
+      </c>
+      <c r="C1129">
+        <v>1.6</v>
+      </c>
+      <c r="D1129">
+        <v>5.12</v>
+      </c>
+      <c r="E1129">
+        <v>3.52</v>
+      </c>
+      <c r="F1129">
+        <v>1</v>
+      </c>
+      <c r="G1129">
+        <v>0</v>
+      </c>
+      <c r="H1129">
+        <v>0</v>
+      </c>
+      <c r="I1129">
+        <v>0</v>
+      </c>
+      <c r="J1129">
+        <v>1</v>
+      </c>
+      <c r="K1129" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1130" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C1130">
+        <v>1.37</v>
+      </c>
+      <c r="D1130">
+        <v>7.57</v>
+      </c>
+      <c r="E1130">
+        <v>6.2</v>
+      </c>
+      <c r="F1130">
+        <v>1</v>
+      </c>
+      <c r="G1130">
+        <v>0</v>
+      </c>
+      <c r="H1130">
+        <v>0</v>
+      </c>
+      <c r="I1130">
+        <v>1</v>
+      </c>
+      <c r="J1130">
+        <v>1</v>
+      </c>
+      <c r="K1130" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1131" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C1131">
+        <v>1.85</v>
+      </c>
+      <c r="D1131">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="E1131">
+        <v>2.169999999999999</v>
+      </c>
+      <c r="F1131">
+        <v>1</v>
+      </c>
+      <c r="G1131">
+        <v>0</v>
+      </c>
+      <c r="H1131">
+        <v>1</v>
+      </c>
+      <c r="I1131">
+        <v>1</v>
+      </c>
+      <c r="J1131">
+        <v>0</v>
+      </c>
+      <c r="K1131" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1132" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C1132">
+        <v>1.54</v>
+      </c>
+      <c r="D1132">
+        <v>4.75</v>
+      </c>
+      <c r="E1132">
+        <v>3.21</v>
+      </c>
+      <c r="F1132">
+        <v>0</v>
+      </c>
+      <c r="G1132">
+        <v>1</v>
+      </c>
+      <c r="H1132">
+        <v>0</v>
+      </c>
+      <c r="I1132">
+        <v>1</v>
+      </c>
+      <c r="J1132">
+        <v>0</v>
+      </c>
+      <c r="K1132" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1133" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C1133">
+        <v>1.54</v>
+      </c>
+      <c r="D1133">
+        <v>5.2</v>
+      </c>
+      <c r="E1133">
+        <v>3.66</v>
+      </c>
+      <c r="F1133">
+        <v>1</v>
+      </c>
+      <c r="G1133">
+        <v>0</v>
+      </c>
+      <c r="H1133">
+        <v>0</v>
+      </c>
+      <c r="I1133">
+        <v>0</v>
+      </c>
+      <c r="J1133">
+        <v>1</v>
+      </c>
+      <c r="K1133" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1134" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C1134">
+        <v>1.96</v>
+      </c>
+      <c r="D1134">
+        <v>3.6</v>
+      </c>
+      <c r="E1134">
+        <v>1.64</v>
+      </c>
+      <c r="F1134">
+        <v>1</v>
+      </c>
+      <c r="G1134">
+        <v>1</v>
+      </c>
+      <c r="H1134">
+        <v>0</v>
+      </c>
+      <c r="I1134">
+        <v>1</v>
+      </c>
+      <c r="J1134">
+        <v>0</v>
+      </c>
+      <c r="K1134" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1135" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1135">
+        <v>3.8</v>
+      </c>
+      <c r="D1135">
+        <v>1.86</v>
+      </c>
+      <c r="E1135">
+        <v>1.94</v>
+      </c>
+      <c r="F1135">
+        <v>0</v>
+      </c>
+      <c r="G1135">
+        <v>1</v>
+      </c>
+      <c r="H1135">
+        <v>0</v>
+      </c>
+      <c r="I1135">
+        <v>0</v>
+      </c>
+      <c r="J1135">
+        <v>0</v>
+      </c>
+      <c r="K1135" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1136" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C1136">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D1136">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E1136">
+        <v>0</v>
+      </c>
+      <c r="F1136">
+        <v>0</v>
+      </c>
+      <c r="G1136">
+        <v>1</v>
+      </c>
+      <c r="H1136">
+        <v>1</v>
+      </c>
+      <c r="I1136">
+        <v>1</v>
+      </c>
+      <c r="J1136">
+        <v>0</v>
+      </c>
+      <c r="K1136" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1137" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1137">
+        <v>3.2</v>
+      </c>
+      <c r="D1137">
+        <v>2.15</v>
+      </c>
+      <c r="E1137">
+        <v>1.05</v>
+      </c>
+      <c r="F1137">
+        <v>1</v>
+      </c>
+      <c r="G1137">
+        <v>0</v>
+      </c>
+      <c r="H1137">
+        <v>1</v>
+      </c>
+      <c r="I1137">
+        <v>0</v>
+      </c>
+      <c r="J1137">
+        <v>1</v>
+      </c>
+      <c r="K1137" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
